--- a/Data/coordinates_clubs.xlsx
+++ b/Data/coordinates_clubs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/60387dca0f89eeaf/Fussballdaten/uefa_ranking/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="8_{F0F012FD-7D2A-45DE-98FC-5A5C236FAB14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A6C9DF02-877A-4D1C-8C27-C1DA9718B414}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="8_{F0F012FD-7D2A-45DE-98FC-5A5C236FAB14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{79C3FA1C-D2A6-4D6C-B33E-4D7D9C6A91C5}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{013C904B-35F7-493B-A774-186F160190EF}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{013C904B-35F7-493B-A774-186F160190EF}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle2" sheetId="1" r:id="rId1"/>
@@ -43,12 +43,6 @@
     <t>stadium</t>
   </si>
   <si>
-    <t>breitengrad</t>
-  </si>
-  <si>
-    <t>laengengrad</t>
-  </si>
-  <si>
     <t>Leicester City</t>
   </si>
   <si>
@@ -2516,6 +2510,12 @@
   </si>
   <si>
     <t>Emirates Stadium</t>
+  </si>
+  <si>
+    <t>latitude</t>
+  </si>
+  <si>
+    <t>longitude</t>
   </si>
 </sst>
 </file>
@@ -2911,8 +2911,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87FE9C0E-1B2A-4A6D-B2F5-2B6836317F9F}">
   <dimension ref="A1:D440"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="C111" sqref="C111"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2930,18 +2930,18 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>2</v>
+        <v>825</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>3</v>
+        <v>826</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="B2" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="C2">
         <v>40.171944000000003</v>
@@ -2952,10 +2952,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="B3" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="C3">
         <v>40.171944000000003</v>
@@ -2966,10 +2966,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C4" s="1">
         <v>54.174166999999997</v>
@@ -2980,10 +2980,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B5" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C5">
         <v>31.810300000000002</v>
@@ -2994,10 +2994,10 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="C6" s="1">
         <v>51.108055999999998</v>
@@ -3008,10 +3008,10 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="C7" s="1">
         <v>43.896110999999998</v>
@@ -3022,10 +3022,10 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C8" s="1">
         <v>41.380833000000003</v>
@@ -3036,10 +3036,10 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B9" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C9">
         <v>47.541389000000002</v>
@@ -3050,10 +3050,10 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="B10" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="C10">
         <v>54.192777777000003</v>
@@ -3064,10 +3064,10 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B11" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C11">
         <v>48.218775000000001</v>
@@ -3078,10 +3078,10 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B12" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C12">
         <v>47.7483</v>
@@ -3092,10 +3092,10 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="B13" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="C13">
         <v>47.998888890000003</v>
@@ -3106,10 +3106,10 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="B14" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="C14">
         <v>46.980277999999998</v>
@@ -3120,10 +3120,10 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B15" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C15">
         <v>51.501666669999999</v>
@@ -3134,10 +3134,10 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B16" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="C16">
         <v>49.513931999999997</v>
@@ -3148,10 +3148,10 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="B17" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="C17">
         <v>41.983018999999999</v>
@@ -3162,10 +3162,10 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="B18" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="C18">
         <v>41.812981000000001</v>
@@ -3176,10 +3176,10 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B19" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="C19">
         <v>44.455083000000002</v>
@@ -3190,10 +3190,10 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="B20" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="C20">
         <v>53.895138887999998</v>
@@ -3204,10 +3204,10 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B21" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C21">
         <v>55.791400000000003</v>
@@ -3218,10 +3218,10 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="B22" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="C22">
         <v>41.722999999999999</v>
@@ -3232,10 +3232,10 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="B23" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="C23">
         <v>46.81194</v>
@@ -3246,10 +3246,10 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B24" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C24">
         <v>43.848056</v>
@@ -3260,10 +3260,10 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="B25" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="C25">
         <v>52.089722221999999</v>
@@ -3274,10 +3274,10 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B26" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C26">
         <v>50.433333333</v>
@@ -3288,10 +3288,10 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="B27" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="C27">
         <v>59.421292000000001</v>
@@ -3302,10 +3302,10 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="B28" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="C28">
         <v>60.442777999999997</v>
@@ -3316,10 +3316,10 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="B29" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C29">
         <v>52.276383000000003</v>
@@ -3330,10 +3330,10 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="B30" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="C30">
         <v>43.238331000000002</v>
@@ -3344,10 +3344,10 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B31" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C31">
         <v>49.985833333000002</v>
@@ -3358,10 +3358,10 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B32" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C32">
         <v>45.025277776999999</v>
@@ -3372,10 +3372,10 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="B33" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="C33">
         <v>60.983055999999998</v>
@@ -3386,10 +3386,10 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C34" s="1">
         <v>55.803550000000001</v>
@@ -3400,10 +3400,10 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="B35" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="C35">
         <v>41.709617000000001</v>
@@ -3414,10 +3414,10 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B36" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C36">
         <v>46.023611000000002</v>
@@ -3428,10 +3428,10 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B37" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C37">
         <v>47.033264000000003</v>
@@ -3442,10 +3442,10 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B38" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C38">
         <v>47.143721999999997</v>
@@ -3456,10 +3456,10 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="B39" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="C39">
         <v>41.674824000000001</v>
@@ -3470,10 +3470,10 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B40" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C40">
         <v>56.116666670000001</v>
@@ -3484,10 +3484,10 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="B41" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="C41">
         <v>47.374400000000001</v>
@@ -3498,10 +3498,10 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="B42" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="C42">
         <v>40.149372999999997</v>
@@ -3512,10 +3512,10 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B43" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C43">
         <v>55.815846999999998</v>
@@ -3526,10 +3526,10 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B44" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C44">
         <v>48.674722000000003</v>
@@ -3540,10 +3540,10 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B45" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C45">
         <v>47.961399999999998</v>
@@ -3554,10 +3554,10 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B46" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C46">
         <v>41.271352999999998</v>
@@ -3568,10 +3568,10 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B47" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C47">
         <v>41.161757999999999</v>
@@ -3582,10 +3582,10 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="B48" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="C48">
         <v>42.662970000000001</v>
@@ -3596,10 +3596,10 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="B49" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="C49">
         <v>49.546111111000002</v>
@@ -3610,10 +3610,10 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B50" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C50">
         <v>47.243011109999998</v>
@@ -3624,10 +3624,10 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="B51" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="C51">
         <v>41.709617000000001</v>
@@ -3638,10 +3638,10 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="B52" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="C52">
         <v>42.16084</v>
@@ -3652,10 +3652,10 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="B53" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="C53">
         <v>42.476388999999998</v>
@@ -3666,10 +3666,10 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B54" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C54">
         <v>51.554502777000003</v>
@@ -3680,10 +3680,10 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="B55" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="C55">
         <v>46.984400000000001</v>
@@ -3694,10 +3694,10 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B56" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C56">
         <v>48.020833000000003</v>
@@ -3708,10 +3708,10 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="B57" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C57">
         <v>49.818618000000001</v>
@@ -3722,10 +3722,10 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="B58" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="C58">
         <v>52.798611111</v>
@@ -3736,10 +3736,10 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="B59" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="C59">
         <v>46.838332999999999</v>
@@ -3750,10 +3750,10 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B60" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C60">
         <v>46.233333000000002</v>
@@ -3764,10 +3764,10 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B61" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C61">
         <v>50.776214000000003</v>
@@ -3778,10 +3778,10 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="B62" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C62">
         <v>48.373333000000002</v>
@@ -3792,10 +3792,10 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B63" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C63">
         <v>47.408332999999999</v>
@@ -3806,10 +3806,10 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="B64" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="C64">
         <v>41.172800000000002</v>
@@ -3820,10 +3820,10 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="B65" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="C65">
         <v>49.575353</v>
@@ -3834,10 +3834,10 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B66" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C66">
         <v>46.744816999999998</v>
@@ -3848,10 +3848,10 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="B67" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C67">
         <v>42.255141666</v>
@@ -3862,10 +3862,10 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="B68" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="C68">
         <v>59.434472221999997</v>
@@ -3876,10 +3876,10 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B69" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C69">
         <v>54.825899999999997</v>
@@ -3890,10 +3890,10 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="B70" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="C70">
         <v>40.171425999999997</v>
@@ -3904,10 +3904,10 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B71" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C71">
         <v>52.078333333000003</v>
@@ -3918,10 +3918,10 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="B72" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="C72">
         <v>47.140277777000001</v>
@@ -3932,10 +3932,10 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="B73" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="C73">
         <v>40.154604999999997</v>
@@ -3946,10 +3946,10 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B74" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C74">
         <v>49.75</v>
@@ -3960,10 +3960,10 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="B75" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="C75">
         <v>55.198472221999999</v>
@@ -3974,10 +3974,10 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B76" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C76">
         <v>49.594833000000001</v>
@@ -3988,10 +3988,10 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B77" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C77">
         <v>59.972952999999997</v>
@@ -4002,10 +4002,10 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B78" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C78">
         <v>48.559443999999999</v>
@@ -4016,10 +4016,10 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B79" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C79">
         <v>47.382790999999997</v>
@@ -4030,10 +4030,10 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B80" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C80">
         <v>50.933610999999999</v>
@@ -4044,10 +4044,10 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B81" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C81">
         <v>49.065556000000001</v>
@@ -4058,10 +4058,10 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B82" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C82">
         <v>52.457222000000002</v>
@@ -4072,10 +4072,10 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B83" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C83">
         <v>52.314166665999998</v>
@@ -4086,10 +4086,10 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B84" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C84">
         <v>57.159166665999997</v>
@@ -4100,10 +4100,10 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B85" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C85">
         <v>45.478054999999998</v>
@@ -4114,10 +4114,10 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B86" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="C86">
         <v>35.033889000000002</v>
@@ -4128,10 +4128,10 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B87" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="C87">
         <v>50.099716000000001</v>
@@ -4142,10 +4142,10 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B88" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C88">
         <v>38.036111110999997</v>
@@ -4156,10 +4156,10 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B89" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C89">
         <v>34.926299999999998</v>
@@ -4170,10 +4170,10 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B90" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C90">
         <v>34.700913999999997</v>
@@ -4184,10 +4184,10 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="B91" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="C91">
         <v>59.372500000000002</v>
@@ -4198,10 +4198,10 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="B92" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="C92">
         <v>41.446199999999997</v>
@@ -4212,10 +4212,10 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B93" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="C93">
         <v>38.920900000000003</v>
@@ -4226,10 +4226,10 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B94" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C94">
         <v>36.562600000000003</v>
@@ -4240,10 +4240,10 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="B95" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="C95">
         <v>40.154604999999997</v>
@@ -4254,10 +4254,10 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B96" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C96">
         <v>57.930595168000004</v>
@@ -4268,10 +4268,10 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B97" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C97">
         <v>34.937421999999998</v>
@@ -4282,10 +4282,10 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B98" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="C98">
         <v>35.114542</v>
@@ -4296,10 +4296,10 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B99" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C99">
         <v>34.700913999999997</v>
@@ -4310,10 +4310,10 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B100" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C100">
         <v>40.600068999999998</v>
@@ -4324,10 +4324,10 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="B101" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="C101">
         <v>54.493136</v>
@@ -4338,10 +4338,10 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B102" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="C102">
         <v>51.554867000000002</v>
@@ -4352,10 +4352,10 @@
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B103" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C103">
         <v>43.727778000000001</v>
@@ -4366,10 +4366,10 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B104" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C104">
         <v>41.933872000000001</v>
@@ -4380,10 +4380,10 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B105" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C105">
         <v>45.460833000000001</v>
@@ -4394,10 +4394,10 @@
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B106" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C106">
         <v>37.502676000000001</v>
@@ -4408,10 +4408,10 @@
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B107" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C107">
         <v>51.216667000000001</v>
@@ -4422,10 +4422,10 @@
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B108" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="C108">
         <v>45.708888999999999</v>
@@ -4436,10 +4436,10 @@
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B109" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C109">
         <v>43.277500000000003</v>
@@ -4450,10 +4450,10 @@
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B110" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C110">
         <v>40.436110999999997</v>
@@ -4464,10 +4464,10 @@
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B111" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C111">
         <v>38.004857999999999</v>
@@ -4478,10 +4478,10 @@
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B112" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C112">
         <v>52.612499999999997</v>
@@ -4492,10 +4492,10 @@
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="B113" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="C113">
         <v>62.019348700000002</v>
@@ -4506,10 +4506,10 @@
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="B114" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="C114">
         <v>62.019348700000002</v>
@@ -4520,10 +4520,10 @@
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="B115" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="C115">
         <v>52.912222</v>
@@ -4534,10 +4534,10 @@
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="B116" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="C116">
         <v>54.869141999999997</v>
@@ -4548,10 +4548,10 @@
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="B117" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="C117">
         <v>35.894863888000003</v>
@@ -4562,10 +4562,10 @@
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="B118" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="C118">
         <v>53.225453000000002</v>
@@ -4576,10 +4576,10 @@
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="B119" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="C119">
         <v>51.410832999999997</v>
@@ -4590,10 +4590,10 @@
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B120" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C120">
         <v>51.038255554999999</v>
@@ -4604,10 +4604,10 @@
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B121" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C121">
         <v>31.751166666</v>
@@ -4618,10 +4618,10 @@
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B122" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C122">
         <v>41.039166666</v>
@@ -4632,10 +4632,10 @@
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="B123" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="C123">
         <v>35.894863888000003</v>
@@ -4646,10 +4646,10 @@
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="B124" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C124">
         <v>57.718888888000002</v>
@@ -4660,10 +4660,10 @@
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B125" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C125">
         <v>32.051729999999999</v>
@@ -4674,10 +4674,10 @@
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="B126" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="C126">
         <v>53.361666999999997</v>
@@ -4688,10 +4688,10 @@
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B127" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C127">
         <v>51.4925</v>
@@ -4702,10 +4702,10 @@
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B128" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C128">
         <v>51.174583333000001</v>
@@ -4716,10 +4716,10 @@
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B129" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="C129">
         <v>42.139861000000003</v>
@@ -4730,10 +4730,10 @@
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="B130" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="C130">
         <v>64.104167000000004</v>
@@ -4744,10 +4744,10 @@
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B131" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C131">
         <v>55.648853000000003</v>
@@ -4758,10 +4758,10 @@
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B132" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="C132">
         <v>46.962778</v>
@@ -4772,10 +4772,10 @@
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C133">
         <v>53.789064000000003</v>
@@ -4786,10 +4786,10 @@
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="B134" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="C134">
         <v>51.472777999999998</v>
@@ -4800,10 +4800,10 @@
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B135" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C135">
         <v>37.763708000000001</v>
@@ -4814,10 +4814,10 @@
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="B136" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="C136">
         <v>52.977212000000002</v>
@@ -4828,10 +4828,10 @@
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B137" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C137">
         <v>14.916111000000001</v>
@@ -4842,10 +4842,10 @@
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="B138" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="C138">
         <v>46.779677999999997</v>
@@ -4856,10 +4856,10 @@
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B139" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C139">
         <v>51.481666666000002</v>
@@ -4870,10 +4870,10 @@
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="B140" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="C140">
         <v>54.619517000000002</v>
@@ -4884,10 +4884,10 @@
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B141" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C141">
         <v>51.193269000000001</v>
@@ -4898,10 +4898,10 @@
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="B142" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="C142">
         <v>55.132778000000002</v>
@@ -4912,10 +4912,10 @@
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="B143" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="C143">
         <v>51.885528000000001</v>
@@ -4926,10 +4926,10 @@
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="B144" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="C144">
         <v>54.624293999999999</v>
@@ -4940,10 +4940,10 @@
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="B145" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="C145">
         <v>49.492222222000002</v>
@@ -4954,10 +4954,10 @@
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B146" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="C146">
         <v>44.313889000000003</v>
@@ -4968,10 +4968,10 @@
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="B147" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="C147">
         <v>47.549573000000002</v>
@@ -4982,10 +4982,10 @@
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="B148" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="C148">
         <v>54.990633000000003</v>
@@ -4996,10 +4996,10 @@
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B149" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="C149">
         <v>59.345278</v>
@@ -5010,10 +5010,10 @@
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="B150" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="C150">
         <v>53.998944000000002</v>
@@ -5024,10 +5024,10 @@
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B151" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C151">
         <v>50.068610999999997</v>
@@ -5038,10 +5038,10 @@
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B152" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C152">
         <v>55.481943999999999</v>
@@ -5052,10 +5052,10 @@
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="B153" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="C153">
         <v>36.149355999999997</v>
@@ -5066,10 +5066,10 @@
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B154" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C154">
         <v>53.438888888000001</v>
@@ -5080,10 +5080,10 @@
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B155" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="C155">
         <v>55.702469000000001</v>
@@ -5094,10 +5094,10 @@
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="B156" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="C156">
         <v>49.472222221999999</v>
@@ -5108,10 +5108,10 @@
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="B157" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="C157">
         <v>54.897221999999999</v>
@@ -5122,10 +5122,10 @@
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B158" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="C158">
         <v>48.0976</v>
@@ -5136,10 +5136,10 @@
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="B159" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="C159">
         <v>42.504833333000001</v>
@@ -5150,10 +5150,10 @@
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B160" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="C160">
         <v>49.231310999999998</v>
@@ -5164,10 +5164,10 @@
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="B161" s="4" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="C161" s="4">
         <v>42.335493</v>
@@ -5178,10 +5178,10 @@
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B162" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="C162">
         <v>47.816249999999997</v>
@@ -5192,10 +5192,10 @@
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="B163" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="C163">
         <v>53.225974000000001</v>
@@ -5206,10 +5206,10 @@
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="B164" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="C164">
         <v>54.092361111000002</v>
@@ -5220,10 +5220,10 @@
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="B165" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="C165">
         <v>40.171425999999997</v>
@@ -5234,10 +5234,10 @@
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="B166" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="C166">
         <v>47.173694439999998</v>
@@ -5248,10 +5248,10 @@
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="B167" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="C167">
         <v>47.173694439999998</v>
@@ -5262,10 +5262,10 @@
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B168" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C168">
         <v>40.987499999999997</v>
@@ -5276,10 +5276,10 @@
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B169" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="C169">
         <v>47.463999999999999</v>
@@ -5290,10 +5290,10 @@
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="B170" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="C170">
         <v>47.475277777000002</v>
@@ -5304,10 +5304,10 @@
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B171" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C171">
         <v>51.893894443999997</v>
@@ -5318,10 +5318,10 @@
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="B172" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="C172">
         <v>64.075833000000003</v>
@@ -5332,10 +5332,10 @@
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="B173" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="C173">
         <v>48.898611109999997</v>
@@ -5346,10 +5346,10 @@
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="B174" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="C174">
         <v>55.726373000000002</v>
@@ -5360,10 +5360,10 @@
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B175" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C175">
         <v>48.162306000000001</v>
@@ -5374,10 +5374,10 @@
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B176" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C176">
         <v>67.277500000000003</v>
@@ -5388,10 +5388,10 @@
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="B177" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="C177">
         <v>44.7761</v>
@@ -5402,10 +5402,10 @@
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="B178" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="C178">
         <v>42.444727999999998</v>
@@ -5416,10 +5416,10 @@
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="B179" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="C179">
         <v>42.444727999999998</v>
@@ -5430,10 +5430,10 @@
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="B180" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="C180">
         <v>42.444727999999998</v>
@@ -5444,10 +5444,10 @@
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B181" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="C181">
         <v>44.772658</v>
@@ -5458,10 +5458,10 @@
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="B182" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="C182">
         <v>42.359900000000003</v>
@@ -5472,10 +5472,10 @@
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="B183" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="C183">
         <v>41.4375</v>
@@ -5486,10 +5486,10 @@
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B184" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C184">
         <v>59.413068000000003</v>
@@ -5500,10 +5500,10 @@
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="B185" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="C185">
         <v>42.554083329999997</v>
@@ -5514,10 +5514,10 @@
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B186" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C186">
         <v>50.714964000000002</v>
@@ -5528,10 +5528,10 @@
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="B187" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="C187">
         <v>56.661700000000003</v>
@@ -5542,10 +5542,10 @@
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="B188" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="C188">
         <v>54.897221999999999</v>
@@ -5556,10 +5556,10 @@
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="B189" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="C189">
         <v>40.410986000000001</v>
@@ -5570,10 +5570,10 @@
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="B190" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="C190">
         <v>42.142200000000003</v>
@@ -5584,10 +5584,10 @@
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="B191" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="C191">
         <v>56.502952000000001</v>
@@ -5598,10 +5598,10 @@
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="B192" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="C192">
         <v>42.00222222</v>
@@ -5612,10 +5612,10 @@
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B193" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C193">
         <v>50.427083000000003</v>
@@ -5626,10 +5626,10 @@
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B194" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C194">
         <v>43.860014</v>
@@ -5640,10 +5640,10 @@
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B195" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C195">
         <v>44.765155999999998</v>
@@ -5654,10 +5654,10 @@
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="B196" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="C196">
         <v>55.739167000000002</v>
@@ -5668,10 +5668,10 @@
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B197" s="4" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="C197" s="4">
         <v>44.788611000000003</v>
@@ -5682,10 +5682,10 @@
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="B198" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="C198">
         <v>41.018056000000001</v>
@@ -5696,10 +5696,10 @@
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="B199" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="C199">
         <v>40.421199999999999</v>
@@ -5710,10 +5710,10 @@
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="B200" s="4" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="C200" s="4">
         <v>42.005732999999999</v>
@@ -5724,10 +5724,10 @@
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B201" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C201">
         <v>43.315528</v>
@@ -5738,10 +5738,10 @@
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="B202" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="C202">
         <v>44.75444444</v>
@@ -5752,10 +5752,10 @@
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="B203" s="4" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="C203" s="4">
         <v>42.018692000000001</v>
@@ -5766,10 +5766,10 @@
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="B204" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="C204">
         <v>56.961478999999997</v>
@@ -5780,10 +5780,10 @@
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="B205" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="C205">
         <v>54.668610999999999</v>
@@ -5794,10 +5794,10 @@
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="B206" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="C206">
         <v>54.668610999999999</v>
@@ -5808,10 +5808,10 @@
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="B207" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="C207">
         <v>43.362349000000002</v>
@@ -5822,10 +5822,10 @@
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="B208" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="C208">
         <v>43.873888888000003</v>
@@ -5836,10 +5836,10 @@
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="B209" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="C209">
         <v>42.018692000000001</v>
@@ -5850,10 +5850,10 @@
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="B210" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C210">
         <v>42.015500000000003</v>
@@ -5864,10 +5864,10 @@
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="B211" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="C211">
         <v>42.080817799999998</v>
@@ -5878,10 +5878,10 @@
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B212" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C212">
         <v>46.081780999999999</v>
@@ -5892,10 +5892,10 @@
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="B213" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="C213">
         <v>56.949591099999999</v>
@@ -5906,10 +5906,10 @@
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="B214" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="C214">
         <v>54.574547000000003</v>
@@ -5920,10 +5920,10 @@
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="B215" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="C215">
         <v>42.784947000000003</v>
@@ -5934,10 +5934,10 @@
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="B216" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="C216">
         <v>42.005732999999999</v>
@@ -5948,10 +5948,10 @@
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="B217" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="C217">
         <v>57.387300000000003</v>
@@ -5962,10 +5962,10 @@
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="B218" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="C218">
         <v>54.668610999999999</v>
@@ -5976,10 +5976,10 @@
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="B219" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="C219">
         <v>43.846666999999997</v>
@@ -5990,10 +5990,10 @@
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="B220" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="C220">
         <v>35.894863888000003</v>
@@ -6004,10 +6004,10 @@
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="B221" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="C221">
         <v>40.985194444000001</v>
@@ -6018,10 +6018,10 @@
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="B222" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="C222">
         <v>41.103388887999998</v>
@@ -6032,10 +6032,10 @@
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="B223" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="C223">
         <v>39.207787000000003</v>
@@ -6046,10 +6046,10 @@
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="B224" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="C224">
         <v>53.225338000000001</v>
@@ -6060,10 +6060,10 @@
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B225" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C225">
         <v>40.325555999999999</v>
@@ -6074,10 +6074,10 @@
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B226" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C226">
         <v>44.870699999999999</v>
@@ -6088,10 +6088,10 @@
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="B227" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="C227">
         <v>54.453888999999997</v>
@@ -6102,10 +6102,10 @@
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="B228" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="C228">
         <v>54.602964</v>
@@ -6116,10 +6116,10 @@
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="B229" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C229">
         <v>45.818858333000001</v>
@@ -6130,10 +6130,10 @@
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="B230" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="C230">
         <v>50.296317000000002</v>
@@ -6144,10 +6144,10 @@
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B231" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C231">
         <v>37.152966999999997</v>
@@ -6158,10 +6158,10 @@
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="B232" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="C232">
         <v>35.894863888000003</v>
@@ -6172,10 +6172,10 @@
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="B233" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="C233">
         <v>56.684166666000003</v>
@@ -6186,10 +6186,10 @@
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="B234" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="C234">
         <v>59.29138889</v>
@@ -6200,10 +6200,10 @@
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B235" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C235">
         <v>31.273099999999999</v>
@@ -6214,10 +6214,10 @@
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="B236" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C236">
         <v>32.783111110999997</v>
@@ -6228,10 +6228,10 @@
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B237" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C237">
         <v>52.514722222000003</v>
@@ -6242,10 +6242,10 @@
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B238" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C238">
         <v>55.961666665999999</v>
@@ -6256,10 +6256,10 @@
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="B239" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="C239">
         <v>35.882861110999997</v>
@@ -6270,10 +6270,10 @@
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B240" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C240">
         <v>43.519444</v>
@@ -6284,10 +6284,10 @@
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B241" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C241">
         <v>45.339202</v>
@@ -6298,10 +6298,10 @@
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="B242" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="C242">
         <v>43.345556000000002</v>
@@ -6312,10 +6312,10 @@
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="B243" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="C243">
         <v>43.345556000000002</v>
@@ -6326,10 +6326,10 @@
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="B244" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="C244">
         <v>59.434472221999997</v>
@@ -6340,10 +6340,10 @@
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="B245" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C245">
         <v>57.734569999999998</v>
@@ -6354,10 +6354,10 @@
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B246" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="C246">
         <v>57.706111110999998</v>
@@ -6368,10 +6368,10 @@
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="B247" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="C247">
         <v>60.102221999999998</v>
@@ -6382,10 +6382,10 @@
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="B248" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="C248">
         <v>58.584166666000002</v>
@@ -6396,10 +6396,10 @@
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="B249" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="C249">
         <v>61.4925</v>
@@ -6410,10 +6410,10 @@
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="B250" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="C250">
         <v>42.476388999999998</v>
@@ -6424,10 +6424,10 @@
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B251" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C251">
         <v>45.478054999999998</v>
@@ -6438,10 +6438,10 @@
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B252" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C252">
         <v>41.074472221999997</v>
@@ -6452,10 +6452,10 @@
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="B253" s="4" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="C253" s="4">
         <v>63.439413999999999</v>
@@ -6466,10 +6466,10 @@
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="B254" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="C254">
         <v>53.105556</v>
@@ -6480,10 +6480,10 @@
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="B255" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="C255">
         <v>49.485833333000002</v>
@@ -6494,10 +6494,10 @@
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="B256" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="C256">
         <v>59.36347</v>
@@ -6508,10 +6508,10 @@
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B257" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C257">
         <v>18.083055555000001</v>
@@ -6522,10 +6522,10 @@
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B258" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C258">
         <v>51.031388999999997</v>
@@ -6536,10 +6536,10 @@
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="B259" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="C259">
         <v>50.626389000000003</v>
@@ -6550,10 +6550,10 @@
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="B260" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="C260">
         <v>42.616446000000003</v>
@@ -6564,10 +6564,10 @@
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="B261" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="C261">
         <v>42.466667000000001</v>
@@ -6578,10 +6578,10 @@
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="B262" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="C262">
         <v>41.642479999999999</v>
@@ -6592,10 +6592,10 @@
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="B263" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="C263">
         <v>42.905000000000001</v>
@@ -6606,10 +6606,10 @@
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="B264" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="C264">
         <v>40.625833</v>
@@ -6620,10 +6620,10 @@
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="B265" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="C265">
         <v>41.31898056</v>
@@ -6634,10 +6634,10 @@
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="B266" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="C266">
         <v>42.888055559999998</v>
@@ -6648,10 +6648,10 @@
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="B267" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="C267">
         <v>62.225245999999999</v>
@@ -6662,10 +6662,10 @@
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B268" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C268">
         <v>55.604225</v>
@@ -6676,10 +6676,10 @@
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="B269" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="C269">
         <v>64.117221999999998</v>
@@ -6690,10 +6690,10 @@
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B270" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C270">
         <v>37.865389</v>
@@ -6704,10 +6704,10 @@
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="B271" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="C271">
         <v>64.145683000000005</v>
@@ -6718,10 +6718,10 @@
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
+        <v>741</v>
+      </c>
+      <c r="B272" t="s">
         <v>743</v>
-      </c>
-      <c r="B272" t="s">
-        <v>745</v>
       </c>
       <c r="C272">
         <v>64.145683000000005</v>
@@ -6732,10 +6732,10 @@
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="B273" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="C273">
         <v>64.145683000000005</v>
@@ -6746,10 +6746,10 @@
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="B274" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="C274">
         <v>42.070031</v>
@@ -6760,10 +6760,10 @@
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B275" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C275">
         <v>48.293332999999997</v>
@@ -6774,10 +6774,10 @@
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="B276" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="C276">
         <v>54.849802779999997</v>
@@ -6788,10 +6788,10 @@
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B277" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C277">
         <v>48.293332999999997</v>
@@ -6802,10 +6802,10 @@
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B278" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="C278">
         <v>52.397221999999999</v>
@@ -6816,10 +6816,10 @@
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="B279" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="C279">
         <v>54.39</v>
@@ -6830,10 +6830,10 @@
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="B280" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="C280">
         <v>52.220461</v>
@@ -6844,10 +6844,10 @@
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B281" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C281">
         <v>52.620277776999998</v>
@@ -6858,10 +6858,10 @@
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B282" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C282">
         <v>50.611944000000001</v>
@@ -6872,10 +6872,10 @@
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B283" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C283">
         <v>59.962752000000002</v>
@@ -6886,10 +6886,10 @@
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="B284" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="C284">
         <v>36.149355999999997</v>
@@ -6900,10 +6900,10 @@
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="B285" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="C285">
         <v>54.582500000000003</v>
@@ -6914,10 +6914,10 @@
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B286" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C286">
         <v>53.430833333000002</v>
@@ -6928,10 +6928,10 @@
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="B287" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="C287">
         <v>40.081200000000003</v>
@@ -6942,10 +6942,10 @@
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="B288" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C288">
         <v>32.783111110999997</v>
@@ -6956,10 +6956,10 @@
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B289" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C289">
         <v>32.051729999999999</v>
@@ -6970,10 +6970,10 @@
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B290" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C290">
         <v>55.583611111000003</v>
@@ -6984,10 +6984,10 @@
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B291" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C291">
         <v>53.483055555</v>
@@ -6998,10 +6998,10 @@
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B292" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C292">
         <v>53.463055554999997</v>
@@ -7012,10 +7012,10 @@
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="B293" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="C293">
         <v>49.082500000000003</v>
@@ -7026,10 +7026,10 @@
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B294" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="C294">
         <v>40.410986000000001</v>
@@ -7040,10 +7040,10 @@
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B295" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C295">
         <v>62.733409999999999</v>
@@ -7054,10 +7054,10 @@
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="B296" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="C296">
         <v>36.149355999999997</v>
@@ -7068,10 +7068,10 @@
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="B297" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="C297">
         <v>35.904722219999996</v>
@@ -7082,10 +7082,10 @@
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B298" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C298">
         <v>55.779947</v>
@@ -7096,10 +7096,10 @@
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="B299" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="C299">
         <v>49.229166999999997</v>
@@ -7110,10 +7110,10 @@
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="B300" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="C300">
         <v>47.490919443999999</v>
@@ -7124,10 +7124,10 @@
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="B301" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="C301">
         <v>47.490919443999999</v>
@@ -7138,10 +7138,10 @@
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="B302" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="C302">
         <v>45.955931</v>
@@ -7152,10 +7152,10 @@
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B303" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="C303">
         <v>40.400162999999999</v>
@@ -7166,10 +7166,10 @@
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="B304" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="C304">
         <v>52.511499999999998</v>
@@ -7180,10 +7180,10 @@
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="B305" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="C305">
         <v>46.246667000000002</v>
@@ -7194,10 +7194,10 @@
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="B306" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="C306">
         <v>46.136966999999999</v>
@@ -7208,10 +7208,10 @@
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B307" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C307">
         <v>45.818858333000001</v>
@@ -7222,10 +7222,10 @@
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="B308" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="C308">
         <v>46.5625</v>
@@ -7236,10 +7236,10 @@
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="B309" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="C309">
         <v>46.668610999999999</v>
@@ -7250,10 +7250,10 @@
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="B310" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="C310">
         <v>46.081111</v>
@@ -7264,10 +7264,10 @@
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B311" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C311">
         <v>45.545000000000002</v>
@@ -7278,10 +7278,10 @@
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="B312" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C312">
         <v>46.372931000000001</v>
@@ -7292,10 +7292,10 @@
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="B313" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="C313">
         <v>43.378700000000002</v>
@@ -7306,10 +7306,10 @@
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="B314" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="C314">
         <v>59.385455999999998</v>
@@ -7320,10 +7320,10 @@
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="B315" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="C315">
         <v>62.105832999999997</v>
@@ -7334,10 +7334,10 @@
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B316" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="C316">
         <v>59.211111000000002</v>
@@ -7348,10 +7348,10 @@
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B317" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="C317">
         <v>45.240278000000004</v>
@@ -7362,10 +7362,10 @@
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="B318" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="C318">
         <v>44.815455999999998</v>
@@ -7376,10 +7376,10 @@
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B319" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C319">
         <v>43.705138888</v>
@@ -7390,10 +7390,10 @@
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B320" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="C320">
         <v>37.946168999999998</v>
@@ -7404,10 +7404,10 @@
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B321" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C321">
         <v>43.269722221999999</v>
@@ -7418,10 +7418,10 @@
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B322" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C322">
         <v>45.765224000000003</v>
@@ -7432,10 +7432,10 @@
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B323" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="C323">
         <v>63.194722222000003</v>
@@ -7446,10 +7446,10 @@
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="B324" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C324">
         <v>42.684258</v>
@@ -7460,10 +7460,10 @@
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B325" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C325">
         <v>55.791389000000002</v>
@@ -7474,10 +7474,10 @@
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B326" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C326">
         <v>42.705466999999999</v>
@@ -7488,10 +7488,10 @@
     </row>
     <row r="327" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="B327" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="C327">
         <v>42.133889000000003</v>
@@ -7502,10 +7502,10 @@
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B328" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="C328">
         <v>43.533611110000002</v>
@@ -7516,10 +7516,10 @@
     </row>
     <row r="329" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B329" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C329">
         <v>42.675361000000002</v>
@@ -7530,10 +7530,10 @@
     </row>
     <row r="330" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B330" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C330">
         <v>43.401769444999999</v>
@@ -7544,10 +7544,10 @@
     </row>
     <row r="331" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="B331" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="C331">
         <v>58.878450000000001</v>
@@ -7558,10 +7558,10 @@
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B332" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C332">
         <v>37.987169444000003</v>
@@ -7572,10 +7572,10 @@
     </row>
     <row r="333" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B333" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C333">
         <v>37.943033329999999</v>
@@ -7586,10 +7586,10 @@
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B334" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C334">
         <v>40.613838999999999</v>
@@ -7600,10 +7600,10 @@
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B335" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C335">
         <v>48.841388887999997</v>
@@ -7614,10 +7614,10 @@
     </row>
     <row r="336" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="B336" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="C336">
         <v>41.31898056</v>
@@ -7628,10 +7628,10 @@
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="B337" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="C337">
         <v>50.306583000000003</v>
@@ -7642,10 +7642,10 @@
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="B338" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="C338">
         <v>53.436576109999997</v>
@@ -7656,10 +7656,10 @@
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B339" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C339">
         <v>51.441699999999997</v>
@@ -7670,10 +7670,10 @@
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B340" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="C340">
         <v>50.414608999999999</v>
@@ -7684,10 +7684,10 @@
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B341" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C341">
         <v>19.448805555</v>
@@ -7698,10 +7698,10 @@
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="B342" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="C342">
         <v>49.604722221999999</v>
@@ -7712,10 +7712,10 @@
     </row>
     <row r="343" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B343" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C343">
         <v>56.465833330000002</v>
@@ -7726,10 +7726,10 @@
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B344" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C344">
         <v>55.853055554999997</v>
@@ -7740,10 +7740,10 @@
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B345" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C345">
         <v>51.345832999999999</v>
@@ -7754,10 +7754,10 @@
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B346" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C346">
         <v>48.560063999999997</v>
@@ -7768,10 +7768,10 @@
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B347" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="C347">
         <v>41.347861000000002</v>
@@ -7782,10 +7782,10 @@
     </row>
     <row r="348" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B348" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C348">
         <v>37.351700000000001</v>
@@ -7796,10 +7796,10 @@
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B349" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C349">
         <v>18.393332999999998</v>
@@ -7810,10 +7810,10 @@
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B350" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C350">
         <v>43.301378</v>
@@ -7824,10 +7824,10 @@
     </row>
     <row r="351" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B351" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C351">
         <v>44.783200000000001</v>
@@ -7838,10 +7838,10 @@
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="B352" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="C352">
         <v>56.961371999999997</v>
@@ -7852,10 +7852,10 @@
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B353" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C353">
         <v>41.362755999999997</v>
@@ -7866,10 +7866,10 @@
     </row>
     <row r="354" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B354" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C354">
         <v>63.412500000000001</v>
@@ -7880,10 +7880,10 @@
     </row>
     <row r="355" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B355" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C355">
         <v>51.232700000000001</v>
@@ -7894,10 +7894,10 @@
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B356" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C356">
         <v>50.834167000000001</v>
@@ -7908,10 +7908,10 @@
     </row>
     <row r="357" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B357" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C357">
         <v>55.796944000000003</v>
@@ -7922,10 +7922,10 @@
     </row>
     <row r="358" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B358" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="C358">
         <v>41.562399999999997</v>
@@ -7936,10 +7936,10 @@
     </row>
     <row r="359" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="B359" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C359">
         <v>43.971249999999998</v>
@@ -7950,10 +7950,10 @@
     </row>
     <row r="360" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A360" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B360" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C360">
         <v>40.827967000000001</v>
@@ -7964,10 +7964,10 @@
     </row>
     <row r="361" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A361" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B361" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="C361">
         <v>40.332217</v>
@@ -7978,10 +7978,10 @@
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A362" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B362" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C362">
         <v>59.286217000000001</v>
@@ -7992,10 +7992,10 @@
     </row>
     <row r="363" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A363" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B363" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="C363">
         <v>44.437199999999997</v>
@@ -8006,10 +8006,10 @@
     </row>
     <row r="364" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A364" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B364" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="C364">
         <v>51.962499999999999</v>
@@ -8020,10 +8020,10 @@
     </row>
     <row r="365" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A365" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B365" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C365">
         <v>47.988889</v>
@@ -8034,10 +8034,10 @@
     </row>
     <row r="366" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A366" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B366" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="C366">
         <v>47.3536</v>
@@ -8048,10 +8048,10 @@
     </row>
     <row r="367" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A367" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="B367" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C367">
         <v>45.862916669999997</v>
@@ -8062,10 +8062,10 @@
     </row>
     <row r="368" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A368" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B368" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C368">
         <v>46.177778000000004</v>
@@ -8076,10 +8076,10 @@
     </row>
     <row r="369" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A369" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B369" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C369">
         <v>37.383878000000003</v>
@@ -8090,10 +8090,10 @@
     </row>
     <row r="370" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A370" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="B370" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="C370">
         <v>53.283499999999997</v>
@@ -8104,10 +8104,10 @@
     </row>
     <row r="371" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A371" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="B371" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="C371">
         <v>40.785832999999997</v>
@@ -8118,10 +8118,10 @@
     </row>
     <row r="372" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A372" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="B372" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="C372">
         <v>35.945300000000003</v>
@@ -8132,10 +8132,10 @@
     </row>
     <row r="373" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A373" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B373" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C373">
         <v>39.728611999999998</v>
@@ -8146,10 +8146,10 @@
     </row>
     <row r="374" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A374" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B374" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C374">
         <v>60.366388888000003</v>
@@ -8160,10 +8160,10 @@
     </row>
     <row r="375" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A375" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B375" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C375">
         <v>48.198099999999997</v>
@@ -8174,10 +8174,10 @@
     </row>
     <row r="376" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A376" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B376" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C376">
         <v>49.6</v>
@@ -8188,10 +8188,10 @@
     </row>
     <row r="377" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A377" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B377" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C377">
         <v>50.066943999999999</v>
@@ -8202,10 +8202,10 @@
     </row>
     <row r="378" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A378" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="B378" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="C378">
         <v>48.166111000000001</v>
@@ -8216,10 +8216,10 @@
     </row>
     <row r="379" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A379" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B379" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C379">
         <v>47.046111000000003</v>
@@ -8230,10 +8230,10 @@
     </row>
     <row r="380" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A380" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B380" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C380">
         <v>38.752677777000002</v>
@@ -8244,10 +8244,10 @@
     </row>
     <row r="381" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A381" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="B381" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="C381">
         <v>51.141796999999997</v>
@@ -8258,10 +8258,10 @@
     </row>
     <row r="382" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A382" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B382" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="C382">
         <v>54.270041999999997</v>
@@ -8272,10 +8272,10 @@
     </row>
     <row r="383" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A383" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B383" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="C383">
         <v>55.261358999999999</v>
@@ -8286,10 +8286,10 @@
     </row>
     <row r="384" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A384" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="B384" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C384">
         <v>43.971249999999998</v>
@@ -8300,10 +8300,10 @@
     </row>
     <row r="385" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A385" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="B385" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C385">
         <v>43.971249999999998</v>
@@ -8314,10 +8314,10 @@
     </row>
     <row r="386" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A386" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="B386" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="C386">
         <v>43.929600000000001</v>
@@ -8328,10 +8328,10 @@
     </row>
     <row r="387" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A387" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B387" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C387">
         <v>55.817799999999998</v>
@@ -8342,10 +8342,10 @@
     </row>
     <row r="388" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A388" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="B388" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="C388">
         <v>47.078930999999997</v>
@@ -8356,10 +8356,10 @@
     </row>
     <row r="389" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A389" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B389" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C389">
         <v>38.761194443999997</v>
@@ -8370,10 +8370,10 @@
     </row>
     <row r="390" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A390" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B390" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C390">
         <v>41.933872000000001</v>
@@ -8384,10 +8384,10 @@
     </row>
     <row r="391" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A391" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B391" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C391">
         <v>56.409686000000001</v>
@@ -8398,10 +8398,10 @@
     </row>
     <row r="392" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A392" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="B392" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="C392">
         <v>36.149355999999997</v>
@@ -8412,10 +8412,10 @@
     </row>
     <row r="393" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A393" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="B393" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="C393">
         <v>53.340921999999999</v>
@@ -8426,10 +8426,10 @@
     </row>
     <row r="394" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A394" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B394" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C394">
         <v>49.246667000000002</v>
@@ -8440,10 +8440,10 @@
     </row>
     <row r="395" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A395" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B395" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C395">
         <v>48.107472221999998</v>
@@ -8454,10 +8454,10 @@
     </row>
     <row r="396" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A396" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B396" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C396">
         <v>50.609907999999997</v>
@@ -8468,10 +8468,10 @@
     </row>
     <row r="397" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A397" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="B397" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="C397">
         <v>64.087423000000001</v>
@@ -8482,10 +8482,10 @@
     </row>
     <row r="398" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A398" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B398" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="C398">
         <v>40.601388999999998</v>
@@ -8496,10 +8496,10 @@
     </row>
     <row r="399" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A399" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B399" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C399">
         <v>50.883056000000003</v>
@@ -8510,10 +8510,10 @@
     </row>
     <row r="400" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A400" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="B400" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="C400">
         <v>41.325833330000002</v>
@@ -8524,10 +8524,10 @@
     </row>
     <row r="401" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A401" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="B401" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="C401">
         <v>52.875900000000001</v>
@@ -8538,10 +8538,10 @@
     </row>
     <row r="402" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A402" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B402" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C402">
         <v>45.041666999999997</v>
@@ -8552,10 +8552,10 @@
     </row>
     <row r="403" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A403" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B403" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C403">
         <v>51.604444444000002</v>
@@ -8566,10 +8566,10 @@
     </row>
     <row r="404" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A404" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B404" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C404">
         <v>40.998699999999999</v>
@@ -8580,10 +8580,10 @@
     </row>
     <row r="405" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A405" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B405" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C405">
         <v>49.238999999999997</v>
@@ -8594,10 +8594,10 @@
     </row>
     <row r="406" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A406" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B406" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C406">
         <v>47.280999999999999</v>
@@ -8608,10 +8608,10 @@
     </row>
     <row r="407" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A407" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="B407" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="C407">
         <v>42.476388999999998</v>
@@ -8622,10 +8622,10 @@
     </row>
     <row r="408" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A408" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="B408" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="C408">
         <v>42.476388999999998</v>
@@ -8636,10 +8636,10 @@
     </row>
     <row r="409" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A409" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="B409" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="C409">
         <v>47.574891999999998</v>
@@ -8650,10 +8650,10 @@
     </row>
     <row r="410" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A410" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="B410" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="C410">
         <v>49.557211111000001</v>
@@ -8664,10 +8664,10 @@
     </row>
     <row r="411" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A411" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B411" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="C411">
         <v>44.263888889999997</v>
@@ -8678,10 +8678,10 @@
     </row>
     <row r="412" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A412" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="B412" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="C412">
         <v>63.085278000000002</v>
@@ -8692,10 +8692,10 @@
     </row>
     <row r="413" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A413" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B413" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C413">
         <v>10.223402999999999</v>
@@ -8706,10 +8706,10 @@
     </row>
     <row r="414" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A414" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="B414" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="C414">
         <v>35.894863888000003</v>
@@ -8720,10 +8720,10 @@
     </row>
     <row r="415" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A415" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B415" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C415">
         <v>52.431944000000001</v>
@@ -8734,10 +8734,10 @@
     </row>
     <row r="416" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A416" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B416" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C416">
         <v>58.914611000000001</v>
@@ -8748,10 +8748,10 @@
     </row>
     <row r="417" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A417" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B417" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C417">
         <v>39.944167</v>
@@ -8762,10 +8762,10 @@
     </row>
     <row r="418" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A418" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B418" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C418">
         <v>41.445833</v>
@@ -8776,10 +8776,10 @@
     </row>
     <row r="419" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A419" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B419" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C419">
         <v>56.190899999999999</v>
@@ -8790,10 +8790,10 @@
     </row>
     <row r="420" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A420" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B420" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C420">
         <v>51.538611111000002</v>
@@ -8804,10 +8804,10 @@
     </row>
     <row r="421" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A421" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B421" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C421">
         <v>51.542777999999998</v>
@@ -8818,10 +8818,10 @@
     </row>
     <row r="422" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A422" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B422" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C422">
         <v>46.825299999999999</v>
@@ -8832,10 +8832,10 @@
     </row>
     <row r="423" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A423" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B423" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C423">
         <v>52.590277776999997</v>
@@ -8846,10 +8846,10 @@
     </row>
     <row r="424" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A424" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B424" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="C424">
         <v>38.352178000000002</v>
@@ -8860,10 +8860,10 @@
     </row>
     <row r="425" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A425" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="B425" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="C425">
         <v>42.328611000000002</v>
@@ -8874,10 +8874,10 @@
     </row>
     <row r="426" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A426" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B426" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="C426">
         <v>40.358919999999998</v>
@@ -8888,20 +8888,20 @@
     </row>
     <row r="427" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A427" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="428" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A428" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
     </row>
     <row r="429" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A429" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B429" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="C429">
         <v>32.645561000000001</v>
@@ -8912,25 +8912,25 @@
     </row>
     <row r="430" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A430" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
     <row r="431" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A431" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="432" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A432" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
     </row>
     <row r="433" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A433" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="B433" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="C433">
         <v>66.499700000000004</v>
@@ -8941,10 +8941,10 @@
     </row>
     <row r="434" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A434" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B434" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="C434">
         <v>35.336666665999999</v>
@@ -8955,10 +8955,10 @@
     </row>
     <row r="435" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A435" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="B435" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="C435">
         <v>50.058056000000001</v>
@@ -8969,10 +8969,10 @@
     </row>
     <row r="436" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A436" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="B436" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="C436">
         <v>62.778469444000002</v>
@@ -8983,20 +8983,20 @@
     </row>
     <row r="437" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A437" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="438" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A438" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
     </row>
     <row r="439" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A439" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="B439" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="C439">
         <v>60.186893980000001</v>
@@ -9007,7 +9007,7 @@
     </row>
     <row r="440" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A440" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
   </sheetData>

--- a/Data/coordinates_clubs.xlsx
+++ b/Data/coordinates_clubs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/60387dca0f89eeaf/Fussballdaten/uefa_ranking/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="8_{F0F012FD-7D2A-45DE-98FC-5A5C236FAB14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{79C3FA1C-D2A6-4D6C-B33E-4D7D9C6A91C5}"/>
+  <xr:revisionPtr revIDLastSave="20" documentId="8_{F0F012FD-7D2A-45DE-98FC-5A5C236FAB14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F0992C5F-184D-46C7-B841-D545D671472F}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{013C904B-35F7-493B-A774-186F160190EF}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{013C904B-35F7-493B-A774-186F160190EF}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle2" sheetId="1" r:id="rId1"/>
@@ -127,9 +127,6 @@
     <t>Valencia</t>
   </si>
   <si>
-    <t>Estadio Misael Delgado</t>
-  </si>
-  <si>
     <t>Espanyol</t>
   </si>
   <si>
@@ -148,9 +145,6 @@
     <t>Real Madrid</t>
   </si>
   <si>
-    <t>Juan Ramón Loubriel Stadium</t>
-  </si>
-  <si>
     <t>FC Barcelona</t>
   </si>
   <si>
@@ -526,9 +520,6 @@
     <t>Celtic</t>
   </si>
   <si>
-    <t>Estádio da Várzea</t>
-  </si>
-  <si>
     <t>St. Johnstone</t>
   </si>
   <si>
@@ -2516,6 +2507,15 @@
   </si>
   <si>
     <t>longitude</t>
+  </si>
+  <si>
+    <t>Santiago Bernabéu</t>
+  </si>
+  <si>
+    <t>Mestalla Stadium</t>
+  </si>
+  <si>
+    <t>Celtic Park</t>
   </si>
 </sst>
 </file>
@@ -2912,7 +2912,7 @@
   <dimension ref="A1:D440"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2930,18 +2930,18 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>825</v>
+        <v>822</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>826</v>
+        <v>823</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="B2" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="C2">
         <v>40.171944000000003</v>
@@ -2952,10 +2952,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="B3" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="C3">
         <v>40.171944000000003</v>
@@ -2966,10 +2966,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C4" s="1">
         <v>54.174166999999997</v>
@@ -2980,10 +2980,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="B5" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="C5">
         <v>31.810300000000002</v>
@@ -2994,10 +2994,10 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="C6" s="1">
         <v>51.108055999999998</v>
@@ -3008,10 +3008,10 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="C7" s="1">
         <v>43.896110999999998</v>
@@ -3022,10 +3022,10 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C8" s="1">
         <v>41.380833000000003</v>
@@ -3036,10 +3036,10 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="B9" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C9">
         <v>47.541389000000002</v>
@@ -3050,10 +3050,10 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="B10" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="C10">
         <v>54.192777777000003</v>
@@ -3064,10 +3064,10 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B11" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C11">
         <v>48.218775000000001</v>
@@ -3078,10 +3078,10 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="B12" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="C12">
         <v>47.7483</v>
@@ -3092,10 +3092,10 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="B13" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="C13">
         <v>47.998888890000003</v>
@@ -3106,10 +3106,10 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="B14" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="C14">
         <v>46.980277999999998</v>
@@ -3120,10 +3120,10 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B15" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C15">
         <v>51.501666669999999</v>
@@ -3134,10 +3134,10 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="B16" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="C16">
         <v>49.513931999999997</v>
@@ -3148,10 +3148,10 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="B17" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="C17">
         <v>41.983018999999999</v>
@@ -3162,10 +3162,10 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="B18" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="C18">
         <v>41.812981000000001</v>
@@ -3176,10 +3176,10 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="B19" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="C19">
         <v>44.455083000000002</v>
@@ -3190,10 +3190,10 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="B20" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="C20">
         <v>53.895138887999998</v>
@@ -3204,10 +3204,10 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B21" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C21">
         <v>55.791400000000003</v>
@@ -3218,10 +3218,10 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="B22" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="C22">
         <v>41.722999999999999</v>
@@ -3232,10 +3232,10 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="B23" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="C23">
         <v>46.81194</v>
@@ -3246,10 +3246,10 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="B24" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="C24">
         <v>43.848056</v>
@@ -3260,10 +3260,10 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="B25" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="C25">
         <v>52.089722221999999</v>
@@ -3274,10 +3274,10 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B26" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C26">
         <v>50.433333333</v>
@@ -3288,10 +3288,10 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="B27" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="C27">
         <v>59.421292000000001</v>
@@ -3302,10 +3302,10 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="B28" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="C28">
         <v>60.442777999999997</v>
@@ -3316,10 +3316,10 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="B29" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="C29">
         <v>52.276383000000003</v>
@@ -3330,10 +3330,10 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="B30" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="C30">
         <v>43.238331000000002</v>
@@ -3344,10 +3344,10 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B31" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C31">
         <v>49.985833333000002</v>
@@ -3358,10 +3358,10 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B32" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C32">
         <v>45.025277776999999</v>
@@ -3372,10 +3372,10 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="B33" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="C33">
         <v>60.983055999999998</v>
@@ -3386,10 +3386,10 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C34" s="1">
         <v>55.803550000000001</v>
@@ -3400,10 +3400,10 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="B35" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="C35">
         <v>41.709617000000001</v>
@@ -3414,10 +3414,10 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="B36" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="C36">
         <v>46.023611000000002</v>
@@ -3428,10 +3428,10 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="B37" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="C37">
         <v>47.033264000000003</v>
@@ -3442,10 +3442,10 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B38" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C38">
         <v>47.143721999999997</v>
@@ -3456,10 +3456,10 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="B39" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="C39">
         <v>41.674824000000001</v>
@@ -3470,10 +3470,10 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="B40" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="C40">
         <v>56.116666670000001</v>
@@ -3484,10 +3484,10 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="B41" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="C41">
         <v>47.374400000000001</v>
@@ -3498,10 +3498,10 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="B42" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="C42">
         <v>40.149372999999997</v>
@@ -3512,10 +3512,10 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B43" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="C43">
         <v>55.815846999999998</v>
@@ -3526,10 +3526,10 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B44" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C44">
         <v>48.674722000000003</v>
@@ -3540,10 +3540,10 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B45" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C45">
         <v>47.961399999999998</v>
@@ -3554,10 +3554,10 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B46" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C46">
         <v>41.271352999999998</v>
@@ -3568,10 +3568,10 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B47" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C47">
         <v>41.161757999999999</v>
@@ -3582,10 +3582,10 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="B48" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="C48">
         <v>42.662970000000001</v>
@@ -3596,10 +3596,10 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="B49" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="C49">
         <v>49.546111111000002</v>
@@ -3610,10 +3610,10 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B50" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C50">
         <v>47.243011109999998</v>
@@ -3624,10 +3624,10 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
       <c r="B51" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="C51">
         <v>41.709617000000001</v>
@@ -3638,10 +3638,10 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="B52" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="C52">
         <v>42.16084</v>
@@ -3652,10 +3652,10 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="B53" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
       <c r="C53">
         <v>42.476388999999998</v>
@@ -3666,10 +3666,10 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B54" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C54">
         <v>51.554502777000003</v>
@@ -3680,10 +3680,10 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="B55" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="C55">
         <v>46.984400000000001</v>
@@ -3694,10 +3694,10 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B56" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C56">
         <v>48.020833000000003</v>
@@ -3708,10 +3708,10 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="B57" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="C57">
         <v>49.818618000000001</v>
@@ -3722,10 +3722,10 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="B58" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="C58">
         <v>52.798611111</v>
@@ -3736,10 +3736,10 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="B59" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="C59">
         <v>46.838332999999999</v>
@@ -3750,10 +3750,10 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B60" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="C60">
         <v>46.233333000000002</v>
@@ -3764,10 +3764,10 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="B61" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="C61">
         <v>50.776214000000003</v>
@@ -3778,10 +3778,10 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="B62" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="C62">
         <v>48.373333000000002</v>
@@ -3792,10 +3792,10 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B63" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="C63">
         <v>47.408332999999999</v>
@@ -3806,10 +3806,10 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="B64" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="C64">
         <v>41.172800000000002</v>
@@ -3820,10 +3820,10 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="B65" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="C65">
         <v>49.575353</v>
@@ -3834,10 +3834,10 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="B66" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="C66">
         <v>46.744816999999998</v>
@@ -3848,10 +3848,10 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="B67" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="C67">
         <v>42.255141666</v>
@@ -3862,10 +3862,10 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="B68" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="C68">
         <v>59.434472221999997</v>
@@ -3876,10 +3876,10 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B69" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C69">
         <v>54.825899999999997</v>
@@ -3890,10 +3890,10 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="B70" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="C70">
         <v>40.171425999999997</v>
@@ -3904,10 +3904,10 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B71" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C71">
         <v>52.078333333000003</v>
@@ -3918,10 +3918,10 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="B72" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
       <c r="C72">
         <v>47.140277777000001</v>
@@ -3932,10 +3932,10 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="B73" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="C73">
         <v>40.154604999999997</v>
@@ -3946,10 +3946,10 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="B74" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="C74">
         <v>49.75</v>
@@ -3960,10 +3960,10 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="B75" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="C75">
         <v>55.198472221999999</v>
@@ -3974,10 +3974,10 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B76" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C76">
         <v>49.594833000000001</v>
@@ -3988,10 +3988,10 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B77" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C77">
         <v>59.972952999999997</v>
@@ -4002,10 +4002,10 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B78" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C78">
         <v>48.559443999999999</v>
@@ -4016,10 +4016,10 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B79" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C79">
         <v>47.382790999999997</v>
@@ -4030,10 +4030,10 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B80" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C80">
         <v>50.933610999999999</v>
@@ -4044,10 +4044,10 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="B81" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="C81">
         <v>49.065556000000001</v>
@@ -4058,10 +4058,10 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C82">
         <v>52.457222000000002</v>
@@ -4072,10 +4072,10 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B83" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C83">
         <v>52.314166665999998</v>
@@ -4086,10 +4086,10 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B84" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C84">
         <v>57.159166665999997</v>
@@ -4100,10 +4100,10 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B85" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C85">
         <v>45.478054999999998</v>
@@ -4114,10 +4114,10 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="B86" t="s">
-        <v>802</v>
+        <v>799</v>
       </c>
       <c r="C86">
         <v>35.033889000000002</v>
@@ -4128,10 +4128,10 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="B87" t="s">
-        <v>801</v>
+        <v>798</v>
       </c>
       <c r="C87">
         <v>50.099716000000001</v>
@@ -4142,10 +4142,10 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="B88" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C88">
         <v>38.036111110999997</v>
@@ -4156,10 +4156,10 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B89" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C89">
         <v>34.926299999999998</v>
@@ -4170,10 +4170,10 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B90" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="C90">
         <v>34.700913999999997</v>
@@ -4184,10 +4184,10 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="B91" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="C91">
         <v>59.372500000000002</v>
@@ -4198,10 +4198,10 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
       <c r="B92" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
       <c r="C92">
         <v>41.446199999999997</v>
@@ -4212,10 +4212,10 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="B93" t="s">
-        <v>811</v>
+        <v>808</v>
       </c>
       <c r="C93">
         <v>38.920900000000003</v>
@@ -4226,10 +4226,10 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="B94" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="C94">
         <v>36.562600000000003</v>
@@ -4240,10 +4240,10 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="B95" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="C95">
         <v>40.154604999999997</v>
@@ -4254,10 +4254,10 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="B96" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="C96">
         <v>57.930595168000004</v>
@@ -4268,10 +4268,10 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="B97" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="C97">
         <v>34.937421999999998</v>
@@ -4282,10 +4282,10 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="B98" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="C98">
         <v>35.114542</v>
@@ -4296,10 +4296,10 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="B99" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="C99">
         <v>34.700913999999997</v>
@@ -4310,10 +4310,10 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="B100" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="C100">
         <v>40.600068999999998</v>
@@ -4324,10 +4324,10 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="B101" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="C101">
         <v>54.493136</v>
@@ -4341,7 +4341,7 @@
         <v>10</v>
       </c>
       <c r="B102" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="C102">
         <v>51.554867000000002</v>
@@ -4352,10 +4352,10 @@
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B103" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C103">
         <v>43.727778000000001</v>
@@ -4366,10 +4366,10 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B104" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C104">
         <v>41.933872000000001</v>
@@ -4380,10 +4380,10 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B105" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C105">
         <v>45.460833000000001</v>
@@ -4394,10 +4394,10 @@
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="B106" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C106">
         <v>37.502676000000001</v>
@@ -4408,10 +4408,10 @@
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B107" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C107">
         <v>51.216667000000001</v>
@@ -4422,10 +4422,10 @@
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B108" t="s">
-        <v>817</v>
+        <v>814</v>
       </c>
       <c r="C108">
         <v>45.708888999999999</v>
@@ -4436,10 +4436,10 @@
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
+        <v>33</v>
+      </c>
+      <c r="B109" t="s">
         <v>34</v>
-      </c>
-      <c r="B109" t="s">
-        <v>35</v>
       </c>
       <c r="C109">
         <v>43.277500000000003</v>
@@ -4450,10 +4450,10 @@
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B110" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C110">
         <v>40.436110999999997</v>
@@ -4464,10 +4464,10 @@
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="B111" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C111">
         <v>38.004857999999999</v>
@@ -4478,10 +4478,10 @@
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B112" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C112">
         <v>52.612499999999997</v>
@@ -4492,10 +4492,10 @@
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="B113" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="C113">
         <v>62.019348700000002</v>
@@ -4506,10 +4506,10 @@
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="B114" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="C114">
         <v>62.019348700000002</v>
@@ -4520,10 +4520,10 @@
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="B115" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="C115">
         <v>52.912222</v>
@@ -4534,10 +4534,10 @@
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="B116" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="C116">
         <v>54.869141999999997</v>
@@ -4548,10 +4548,10 @@
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="B117" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
       <c r="C117">
         <v>35.894863888000003</v>
@@ -4562,10 +4562,10 @@
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
       <c r="B118" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
       <c r="C118">
         <v>53.225453000000002</v>
@@ -4576,10 +4576,10 @@
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="B119" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="C119">
         <v>51.410832999999997</v>
@@ -4590,10 +4590,10 @@
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B120" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C120">
         <v>51.038255554999999</v>
@@ -4604,10 +4604,10 @@
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B121" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="C121">
         <v>31.751166666</v>
@@ -4618,10 +4618,10 @@
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="B122" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="C122">
         <v>41.039166666</v>
@@ -4632,10 +4632,10 @@
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="B123" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
       <c r="C123">
         <v>35.894863888000003</v>
@@ -4646,10 +4646,10 @@
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="B124" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="C124">
         <v>57.718888888000002</v>
@@ -4660,10 +4660,10 @@
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="B125" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="C125">
         <v>32.051729999999999</v>
@@ -4674,10 +4674,10 @@
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="B126" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
       <c r="C126">
         <v>53.361666999999997</v>
@@ -4688,10 +4688,10 @@
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B127" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C127">
         <v>51.4925</v>
@@ -4702,10 +4702,10 @@
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B128" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C128">
         <v>51.174583333000001</v>
@@ -4716,10 +4716,10 @@
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="B129" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="C129">
         <v>42.139861000000003</v>
@@ -4730,10 +4730,10 @@
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="B130" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="C130">
         <v>64.104167000000004</v>
@@ -4744,10 +4744,10 @@
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="B131" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="C131">
         <v>55.648853000000003</v>
@@ -4758,10 +4758,10 @@
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="B132" t="s">
-        <v>816</v>
+        <v>813</v>
       </c>
       <c r="C132">
         <v>46.962778</v>
@@ -4786,10 +4786,10 @@
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
       <c r="B134" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
       <c r="C134">
         <v>51.472777999999998</v>
@@ -4800,10 +4800,10 @@
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B135" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C135">
         <v>37.763708000000001</v>
@@ -4814,10 +4814,10 @@
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
       <c r="B136" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="C136">
         <v>52.977212000000002</v>
@@ -4828,24 +4828,24 @@
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B137" t="s">
-        <v>163</v>
+        <v>826</v>
       </c>
       <c r="C137">
-        <v>14.916111000000001</v>
+        <v>54.589100000000002</v>
       </c>
       <c r="D137">
-        <v>-23.512222000000001</v>
+        <v>-5.9626000000000001</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="B138" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="C138">
         <v>46.779677999999997</v>
@@ -4870,10 +4870,10 @@
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="B140" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="C140">
         <v>54.619517000000002</v>
@@ -4884,10 +4884,10 @@
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="B141" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C141">
         <v>51.193269000000001</v>
@@ -4898,10 +4898,10 @@
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="B142" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="C142">
         <v>55.132778000000002</v>
@@ -4912,10 +4912,10 @@
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="B143" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="C143">
         <v>51.885528000000001</v>
@@ -4926,10 +4926,10 @@
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="B144" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="C144">
         <v>54.624293999999999</v>
@@ -4940,10 +4940,10 @@
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="B145" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="C145">
         <v>49.492222222000002</v>
@@ -4954,10 +4954,10 @@
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="B146" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="C146">
         <v>44.313889000000003</v>
@@ -4968,10 +4968,10 @@
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="B147" t="s">
-        <v>788</v>
+        <v>785</v>
       </c>
       <c r="C147">
         <v>47.549573000000002</v>
@@ -4982,10 +4982,10 @@
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="B148" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="C148">
         <v>54.990633000000003</v>
@@ -4996,10 +4996,10 @@
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="B149" t="s">
-        <v>787</v>
+        <v>784</v>
       </c>
       <c r="C149">
         <v>59.345278</v>
@@ -5010,10 +5010,10 @@
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="B150" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="C150">
         <v>53.998944000000002</v>
@@ -5024,10 +5024,10 @@
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B151" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C151">
         <v>50.068610999999997</v>
@@ -5038,10 +5038,10 @@
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="B152" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="C152">
         <v>55.481943999999999</v>
@@ -5052,10 +5052,10 @@
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
       <c r="B153" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
       <c r="C153">
         <v>36.149355999999997</v>
@@ -5080,10 +5080,10 @@
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="B155" t="s">
-        <v>786</v>
+        <v>783</v>
       </c>
       <c r="C155">
         <v>55.702469000000001</v>
@@ -5094,10 +5094,10 @@
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="B156" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="C156">
         <v>49.472222221999999</v>
@@ -5108,10 +5108,10 @@
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="B157" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="C157">
         <v>54.897221999999999</v>
@@ -5122,10 +5122,10 @@
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B158" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
       <c r="C158">
         <v>48.0976</v>
@@ -5136,10 +5136,10 @@
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>764</v>
+        <v>761</v>
       </c>
       <c r="B159" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
       <c r="C159">
         <v>42.504833333000001</v>
@@ -5150,10 +5150,10 @@
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="B160" t="s">
-        <v>809</v>
+        <v>806</v>
       </c>
       <c r="C160">
         <v>49.231310999999998</v>
@@ -5164,10 +5164,10 @@
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="B161" s="4" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
       <c r="C161" s="4">
         <v>42.335493</v>
@@ -5178,10 +5178,10 @@
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B162" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
       <c r="C162">
         <v>47.816249999999997</v>
@@ -5192,10 +5192,10 @@
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="B163" t="s">
-        <v>780</v>
+        <v>777</v>
       </c>
       <c r="C163">
         <v>53.225974000000001</v>
@@ -5206,10 +5206,10 @@
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="B164" t="s">
-        <v>789</v>
+        <v>786</v>
       </c>
       <c r="C164">
         <v>54.092361111000002</v>
@@ -5220,10 +5220,10 @@
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="B165" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="C165">
         <v>40.171425999999997</v>
@@ -5234,10 +5234,10 @@
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="B166" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="C166">
         <v>47.173694439999998</v>
@@ -5248,10 +5248,10 @@
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="B167" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="C167">
         <v>47.173694439999998</v>
@@ -5262,10 +5262,10 @@
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="B168" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="C168">
         <v>40.987499999999997</v>
@@ -5276,10 +5276,10 @@
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="B169" t="s">
-        <v>779</v>
+        <v>776</v>
       </c>
       <c r="C169">
         <v>47.463999999999999</v>
@@ -5290,10 +5290,10 @@
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="B170" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="C170">
         <v>47.475277777000002</v>
@@ -5304,10 +5304,10 @@
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B171" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C171">
         <v>51.893894443999997</v>
@@ -5318,10 +5318,10 @@
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
-        <v>745</v>
+        <v>742</v>
       </c>
       <c r="B172" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
       <c r="C172">
         <v>64.075833000000003</v>
@@ -5332,10 +5332,10 @@
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="B173" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="C173">
         <v>48.898611109999997</v>
@@ -5346,10 +5346,10 @@
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="B174" t="s">
-        <v>793</v>
+        <v>790</v>
       </c>
       <c r="C174">
         <v>55.726373000000002</v>
@@ -5360,10 +5360,10 @@
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B175" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C175">
         <v>48.162306000000001</v>
@@ -5374,10 +5374,10 @@
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="B176" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="C176">
         <v>67.277500000000003</v>
@@ -5388,10 +5388,10 @@
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="B177" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="C177">
         <v>44.7761</v>
@@ -5402,10 +5402,10 @@
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
       <c r="B178" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
       <c r="C178">
         <v>42.444727999999998</v>
@@ -5416,10 +5416,10 @@
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
       <c r="B179" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
       <c r="C179">
         <v>42.444727999999998</v>
@@ -5430,10 +5430,10 @@
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
       <c r="B180" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
       <c r="C180">
         <v>42.444727999999998</v>
@@ -5444,10 +5444,10 @@
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B181" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
       <c r="C181">
         <v>44.772658</v>
@@ -5458,10 +5458,10 @@
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="B182" t="s">
-        <v>796</v>
+        <v>793</v>
       </c>
       <c r="C182">
         <v>42.359900000000003</v>
@@ -5472,10 +5472,10 @@
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="B183" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="C183">
         <v>41.4375</v>
@@ -5486,10 +5486,10 @@
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="B184" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="C184">
         <v>59.413068000000003</v>
@@ -5500,10 +5500,10 @@
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
       <c r="B185" t="s">
-        <v>757</v>
+        <v>754</v>
       </c>
       <c r="C185">
         <v>42.554083329999997</v>
@@ -5514,10 +5514,10 @@
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="B186" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="C186">
         <v>50.714964000000002</v>
@@ -5528,10 +5528,10 @@
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="B187" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="C187">
         <v>56.661700000000003</v>
@@ -5542,10 +5542,10 @@
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="B188" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="C188">
         <v>54.897221999999999</v>
@@ -5556,10 +5556,10 @@
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="B189" t="s">
-        <v>812</v>
+        <v>809</v>
       </c>
       <c r="C189">
         <v>40.410986000000001</v>
@@ -5570,10 +5570,10 @@
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="B190" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="C190">
         <v>42.142200000000003</v>
@@ -5584,10 +5584,10 @@
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="B191" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="C191">
         <v>56.502952000000001</v>
@@ -5598,10 +5598,10 @@
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="B192" t="s">
-        <v>795</v>
+        <v>792</v>
       </c>
       <c r="C192">
         <v>42.00222222</v>
@@ -5612,10 +5612,10 @@
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="B193" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C193">
         <v>50.427083000000003</v>
@@ -5626,10 +5626,10 @@
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B194" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C194">
         <v>43.860014</v>
@@ -5640,10 +5640,10 @@
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B195" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C195">
         <v>44.765155999999998</v>
@@ -5654,10 +5654,10 @@
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="B196" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="C196">
         <v>55.739167000000002</v>
@@ -5668,10 +5668,10 @@
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B197" s="4" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
       <c r="C197" s="4">
         <v>44.788611000000003</v>
@@ -5682,10 +5682,10 @@
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
       <c r="B198" t="s">
-        <v>783</v>
+        <v>780</v>
       </c>
       <c r="C198">
         <v>41.018056000000001</v>
@@ -5696,10 +5696,10 @@
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="B199" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="C199">
         <v>40.421199999999999</v>
@@ -5710,10 +5710,10 @@
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
       <c r="B200" s="4" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
       <c r="C200" s="4">
         <v>42.005732999999999</v>
@@ -5724,10 +5724,10 @@
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B201" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C201">
         <v>43.315528</v>
@@ -5738,10 +5738,10 @@
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="B202" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="C202">
         <v>44.75444444</v>
@@ -5752,10 +5752,10 @@
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
       <c r="B203" s="4" t="s">
-        <v>773</v>
+        <v>770</v>
       </c>
       <c r="C203" s="4">
         <v>42.018692000000001</v>
@@ -5766,10 +5766,10 @@
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="B204" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="C204">
         <v>56.961478999999997</v>
@@ -5780,10 +5780,10 @@
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="B205" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="C205">
         <v>54.668610999999999</v>
@@ -5794,10 +5794,10 @@
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="B206" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="C206">
         <v>54.668610999999999</v>
@@ -5808,10 +5808,10 @@
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
-        <v>751</v>
+        <v>748</v>
       </c>
       <c r="B207" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="C207">
         <v>43.362349000000002</v>
@@ -5822,10 +5822,10 @@
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="B208" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="C208">
         <v>43.873888888000003</v>
@@ -5836,10 +5836,10 @@
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="B209" t="s">
-        <v>773</v>
+        <v>770</v>
       </c>
       <c r="C209">
         <v>42.018692000000001</v>
@@ -5850,10 +5850,10 @@
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="B210" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C210">
         <v>42.015500000000003</v>
@@ -5864,10 +5864,10 @@
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="B211" t="s">
-        <v>782</v>
+        <v>779</v>
       </c>
       <c r="C211">
         <v>42.080817799999998</v>
@@ -5878,10 +5878,10 @@
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B212" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C212">
         <v>46.081780999999999</v>
@@ -5892,10 +5892,10 @@
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="B213" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="C213">
         <v>56.949591099999999</v>
@@ -5906,10 +5906,10 @@
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="B214" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="C214">
         <v>54.574547000000003</v>
@@ -5920,10 +5920,10 @@
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
       <c r="B215" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="C215">
         <v>42.784947000000003</v>
@@ -5934,10 +5934,10 @@
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="B216" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
       <c r="C216">
         <v>42.005732999999999</v>
@@ -5948,10 +5948,10 @@
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="B217" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="C217">
         <v>57.387300000000003</v>
@@ -5962,10 +5962,10 @@
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="B218" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="C218">
         <v>54.668610999999999</v>
@@ -5976,10 +5976,10 @@
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="B219" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="C219">
         <v>43.846666999999997</v>
@@ -5990,10 +5990,10 @@
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="B220" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
       <c r="C220">
         <v>35.894863888000003</v>
@@ -6004,10 +6004,10 @@
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="B221" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="C221">
         <v>40.985194444000001</v>
@@ -6018,10 +6018,10 @@
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="B222" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="C222">
         <v>41.103388887999998</v>
@@ -6032,10 +6032,10 @@
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="B223" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="C223">
         <v>39.207787000000003</v>
@@ -6046,10 +6046,10 @@
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
       <c r="B224" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
       <c r="C224">
         <v>53.225338000000001</v>
@@ -6060,10 +6060,10 @@
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B225" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C225">
         <v>40.325555999999999</v>
@@ -6074,10 +6074,10 @@
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B226" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C226">
         <v>44.870699999999999</v>
@@ -6088,10 +6088,10 @@
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="B227" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="C227">
         <v>54.453888999999997</v>
@@ -6102,10 +6102,10 @@
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="B228" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="C228">
         <v>54.602964</v>
@@ -6116,10 +6116,10 @@
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="B229" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C229">
         <v>45.818858333000001</v>
@@ -6130,10 +6130,10 @@
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="B230" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="C230">
         <v>50.296317000000002</v>
@@ -6158,10 +6158,10 @@
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="B232" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
       <c r="C232">
         <v>35.894863888000003</v>
@@ -6172,10 +6172,10 @@
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="B233" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="C233">
         <v>56.684166666000003</v>
@@ -6186,10 +6186,10 @@
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="B234" t="s">
-        <v>804</v>
+        <v>801</v>
       </c>
       <c r="C234">
         <v>59.29138889</v>
@@ -6200,10 +6200,10 @@
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="B235" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="C235">
         <v>31.273099999999999</v>
@@ -6214,10 +6214,10 @@
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="B236" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="C236">
         <v>32.783111110999997</v>
@@ -6228,10 +6228,10 @@
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B237" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C237">
         <v>52.514722222000003</v>
@@ -6242,10 +6242,10 @@
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B238" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C238">
         <v>55.961666665999999</v>
@@ -6256,10 +6256,10 @@
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="B239" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="C239">
         <v>35.882861110999997</v>
@@ -6270,10 +6270,10 @@
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="B240" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="C240">
         <v>43.519444</v>
@@ -6284,10 +6284,10 @@
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="B241" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="C241">
         <v>45.339202</v>
@@ -6298,10 +6298,10 @@
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="B242" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="C242">
         <v>43.345556000000002</v>
@@ -6312,10 +6312,10 @@
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="B243" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="C243">
         <v>43.345556000000002</v>
@@ -6326,10 +6326,10 @@
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="B244" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="C244">
         <v>59.434472221999997</v>
@@ -6340,10 +6340,10 @@
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="B245" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="C245">
         <v>57.734569999999998</v>
@@ -6354,10 +6354,10 @@
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="B246" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
       <c r="C246">
         <v>57.706111110999998</v>
@@ -6368,10 +6368,10 @@
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="B247" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="C247">
         <v>60.102221999999998</v>
@@ -6382,10 +6382,10 @@
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="B248" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="C248">
         <v>58.584166666000002</v>
@@ -6396,10 +6396,10 @@
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="B249" t="s">
-        <v>781</v>
+        <v>778</v>
       </c>
       <c r="C249">
         <v>61.4925</v>
@@ -6410,10 +6410,10 @@
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
       <c r="B250" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
       <c r="C250">
         <v>42.476388999999998</v>
@@ -6424,10 +6424,10 @@
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B251" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C251">
         <v>45.478054999999998</v>
@@ -6438,10 +6438,10 @@
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="B252" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="C252">
         <v>41.074472221999997</v>
@@ -6452,10 +6452,10 @@
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
       <c r="B253" s="4" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
       <c r="C253" s="4">
         <v>63.439413999999999</v>
@@ -6466,10 +6466,10 @@
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="B254" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="C254">
         <v>53.105556</v>
@@ -6480,10 +6480,10 @@
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="B255" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="C255">
         <v>49.485833333000002</v>
@@ -6494,10 +6494,10 @@
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="B256" t="s">
-        <v>805</v>
+        <v>802</v>
       </c>
       <c r="C256">
         <v>59.36347</v>
@@ -6508,10 +6508,10 @@
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B257" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C257">
         <v>18.083055555000001</v>
@@ -6522,10 +6522,10 @@
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="B258" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="C258">
         <v>51.031388999999997</v>
@@ -6536,10 +6536,10 @@
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="B259" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="C259">
         <v>50.626389000000003</v>
@@ -6550,10 +6550,10 @@
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="B260" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="C260">
         <v>42.616446000000003</v>
@@ -6564,10 +6564,10 @@
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="B261" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="C261">
         <v>42.466667000000001</v>
@@ -6578,10 +6578,10 @@
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="B262" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="C262">
         <v>41.642479999999999</v>
@@ -6592,10 +6592,10 @@
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="B263" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="C263">
         <v>42.905000000000001</v>
@@ -6606,10 +6606,10 @@
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="B264" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="C264">
         <v>40.625833</v>
@@ -6620,10 +6620,10 @@
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="B265" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="C265">
         <v>41.31898056</v>
@@ -6634,10 +6634,10 @@
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="B266" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="C266">
         <v>42.888055559999998</v>
@@ -6648,10 +6648,10 @@
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="B267" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="C267">
         <v>62.225245999999999</v>
@@ -6662,10 +6662,10 @@
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B268" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C268">
         <v>55.604225</v>
@@ -6676,10 +6676,10 @@
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="B269" t="s">
-        <v>815</v>
+        <v>812</v>
       </c>
       <c r="C269">
         <v>64.117221999999998</v>
@@ -6690,10 +6690,10 @@
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="B270" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="C270">
         <v>37.865389</v>
@@ -6704,10 +6704,10 @@
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="B271" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
       <c r="C271">
         <v>64.145683000000005</v>
@@ -6718,10 +6718,10 @@
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
       <c r="B272" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
       <c r="C272">
         <v>64.145683000000005</v>
@@ -6732,10 +6732,10 @@
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
       <c r="B273" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
       <c r="C273">
         <v>64.145683000000005</v>
@@ -6746,10 +6746,10 @@
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="B274" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="C274">
         <v>42.070031</v>
@@ -6760,10 +6760,10 @@
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B275" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C275">
         <v>48.293332999999997</v>
@@ -6774,10 +6774,10 @@
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="B276" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="C276">
         <v>54.849802779999997</v>
@@ -6788,10 +6788,10 @@
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B277" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C277">
         <v>48.293332999999997</v>
@@ -6802,10 +6802,10 @@
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="B278" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="C278">
         <v>52.397221999999999</v>
@@ -6816,10 +6816,10 @@
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="B279" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="C279">
         <v>54.39</v>
@@ -6830,10 +6830,10 @@
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="B280" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="C280">
         <v>52.220461</v>
@@ -6858,10 +6858,10 @@
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B282" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C282">
         <v>50.611944000000001</v>
@@ -6872,10 +6872,10 @@
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="B283" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="C283">
         <v>59.962752000000002</v>
@@ -6886,10 +6886,10 @@
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
       <c r="B284" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
       <c r="C284">
         <v>36.149355999999997</v>
@@ -6900,10 +6900,10 @@
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="B285" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="C285">
         <v>54.582500000000003</v>
@@ -6928,10 +6928,10 @@
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="B287" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="C287">
         <v>40.081200000000003</v>
@@ -6942,10 +6942,10 @@
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="B288" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="C288">
         <v>32.783111110999997</v>
@@ -6956,10 +6956,10 @@
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="B289" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="C289">
         <v>32.051729999999999</v>
@@ -6970,10 +6970,10 @@
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="B290" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="C290">
         <v>55.583611111000003</v>
@@ -7012,10 +7012,10 @@
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="B293" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="C293">
         <v>49.082500000000003</v>
@@ -7026,10 +7026,10 @@
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="B294" t="s">
-        <v>812</v>
+        <v>809</v>
       </c>
       <c r="C294">
         <v>40.410986000000001</v>
@@ -7040,10 +7040,10 @@
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="B295" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="C295">
         <v>62.733409999999999</v>
@@ -7054,10 +7054,10 @@
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
       <c r="B296" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
       <c r="C296">
         <v>36.149355999999997</v>
@@ -7068,10 +7068,10 @@
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="B297" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
       <c r="C297">
         <v>35.904722219999996</v>
@@ -7082,10 +7082,10 @@
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B298" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C298">
         <v>55.779947</v>
@@ -7096,10 +7096,10 @@
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="B299" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="C299">
         <v>49.229166999999997</v>
@@ -7110,10 +7110,10 @@
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="B300" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="C300">
         <v>47.490919443999999</v>
@@ -7124,10 +7124,10 @@
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="B301" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="C301">
         <v>47.490919443999999</v>
@@ -7138,10 +7138,10 @@
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="B302" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="C302">
         <v>45.955931</v>
@@ -7152,10 +7152,10 @@
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="B303" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="C303">
         <v>40.400162999999999</v>
@@ -7166,10 +7166,10 @@
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="B304" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="C304">
         <v>52.511499999999998</v>
@@ -7180,10 +7180,10 @@
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="B305" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="C305">
         <v>46.246667000000002</v>
@@ -7194,10 +7194,10 @@
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="B306" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="C306">
         <v>46.136966999999999</v>
@@ -7208,10 +7208,10 @@
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="B307" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C307">
         <v>45.818858333000001</v>
@@ -7222,10 +7222,10 @@
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="B308" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="C308">
         <v>46.5625</v>
@@ -7236,10 +7236,10 @@
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="B309" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
       <c r="C309">
         <v>46.668610999999999</v>
@@ -7250,10 +7250,10 @@
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="B310" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="C310">
         <v>46.081111</v>
@@ -7264,10 +7264,10 @@
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="B311" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="C311">
         <v>45.545000000000002</v>
@@ -7278,10 +7278,10 @@
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="B312" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="C312">
         <v>46.372931000000001</v>
@@ -7292,10 +7292,10 @@
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="B313" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="C313">
         <v>43.378700000000002</v>
@@ -7306,10 +7306,10 @@
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="B314" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
       <c r="C314">
         <v>59.385455999999998</v>
@@ -7320,10 +7320,10 @@
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="B315" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="C315">
         <v>62.105832999999997</v>
@@ -7334,10 +7334,10 @@
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="B316" t="s">
-        <v>810</v>
+        <v>807</v>
       </c>
       <c r="C316">
         <v>59.211111000000002</v>
@@ -7348,10 +7348,10 @@
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B317" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="C317">
         <v>45.240278000000004</v>
@@ -7362,10 +7362,10 @@
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="B318" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="C318">
         <v>44.815455999999998</v>
@@ -7376,10 +7376,10 @@
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B319" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C319">
         <v>43.705138888</v>
@@ -7390,10 +7390,10 @@
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="B320" t="s">
-        <v>800</v>
+        <v>797</v>
       </c>
       <c r="C320">
         <v>37.946168999999998</v>
@@ -7404,10 +7404,10 @@
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B321" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C321">
         <v>43.269722221999999</v>
@@ -7418,10 +7418,10 @@
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B322" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C322">
         <v>45.765224000000003</v>
@@ -7432,10 +7432,10 @@
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="B323" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="C323">
         <v>63.194722222000003</v>
@@ -7446,10 +7446,10 @@
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="B324" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="C324">
         <v>42.684258</v>
@@ -7460,10 +7460,10 @@
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B325" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C325">
         <v>55.791389000000002</v>
@@ -7474,10 +7474,10 @@
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="B326" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="C326">
         <v>42.705466999999999</v>
@@ -7488,10 +7488,10 @@
     </row>
     <row r="327" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="B327" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="C327">
         <v>42.133889000000003</v>
@@ -7502,10 +7502,10 @@
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="B328" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="C328">
         <v>43.533611110000002</v>
@@ -7516,10 +7516,10 @@
     </row>
     <row r="329" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="B329" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="C329">
         <v>42.675361000000002</v>
@@ -7530,10 +7530,10 @@
     </row>
     <row r="330" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B330" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C330">
         <v>43.401769444999999</v>
@@ -7544,10 +7544,10 @@
     </row>
     <row r="331" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="B331" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="C331">
         <v>58.878450000000001</v>
@@ -7558,10 +7558,10 @@
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="B332" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C332">
         <v>37.987169444000003</v>
@@ -7572,10 +7572,10 @@
     </row>
     <row r="333" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="B333" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="C333">
         <v>37.943033329999999</v>
@@ -7586,10 +7586,10 @@
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B334" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="C334">
         <v>40.613838999999999</v>
@@ -7600,10 +7600,10 @@
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B335" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C335">
         <v>48.841388887999997</v>
@@ -7614,10 +7614,10 @@
     </row>
     <row r="336" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="B336" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="C336">
         <v>41.31898056</v>
@@ -7628,10 +7628,10 @@
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="B337" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="C337">
         <v>50.306583000000003</v>
@@ -7642,10 +7642,10 @@
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="B338" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="C338">
         <v>53.436576109999997</v>
@@ -7656,10 +7656,10 @@
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B339" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C339">
         <v>51.441699999999997</v>
@@ -7670,10 +7670,10 @@
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B340" t="s">
-        <v>808</v>
+        <v>805</v>
       </c>
       <c r="C340">
         <v>50.414608999999999</v>
@@ -7684,10 +7684,10 @@
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B341" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C341">
         <v>19.448805555</v>
@@ -7698,10 +7698,10 @@
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="B342" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="C342">
         <v>49.604722221999999</v>
@@ -7712,10 +7712,10 @@
     </row>
     <row r="343" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="B343" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="C343">
         <v>56.465833330000002</v>
@@ -7726,10 +7726,10 @@
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B344" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C344">
         <v>55.853055554999997</v>
@@ -7740,10 +7740,10 @@
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B345" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C345">
         <v>51.345832999999999</v>
@@ -7754,10 +7754,10 @@
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B346" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C346">
         <v>48.560063999999997</v>
@@ -7768,10 +7768,10 @@
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B347" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="C347">
         <v>41.347861000000002</v>
@@ -7782,10 +7782,10 @@
     </row>
     <row r="348" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B348" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C348">
         <v>37.351700000000001</v>
@@ -7796,16 +7796,16 @@
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B349" t="s">
-        <v>37</v>
+        <v>824</v>
       </c>
       <c r="C349">
-        <v>18.393332999999998</v>
+        <v>40.453052999999997</v>
       </c>
       <c r="D349">
-        <v>-66.150833000000006</v>
+        <v>-3.6883439999999998</v>
       </c>
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.3">
@@ -7824,10 +7824,10 @@
     </row>
     <row r="351" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B351" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C351">
         <v>44.783200000000001</v>
@@ -7838,10 +7838,10 @@
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="B352" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="C352">
         <v>56.961371999999997</v>
@@ -7852,10 +7852,10 @@
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B353" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C353">
         <v>41.362755999999997</v>
@@ -7866,10 +7866,10 @@
     </row>
     <row r="354" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="B354" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="C354">
         <v>63.412500000000001</v>
@@ -7880,10 +7880,10 @@
     </row>
     <row r="355" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B355" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C355">
         <v>51.232700000000001</v>
@@ -7894,10 +7894,10 @@
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="B356" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C356">
         <v>50.834167000000001</v>
@@ -7908,10 +7908,10 @@
     </row>
     <row r="357" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B357" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C357">
         <v>55.796944000000003</v>
@@ -7922,10 +7922,10 @@
     </row>
     <row r="358" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B358" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
       <c r="C358">
         <v>41.562399999999997</v>
@@ -7936,10 +7936,10 @@
     </row>
     <row r="359" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
       <c r="B359" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C359">
         <v>43.971249999999998</v>
@@ -7950,10 +7950,10 @@
     </row>
     <row r="360" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A360" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B360" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C360">
         <v>40.827967000000001</v>
@@ -7964,10 +7964,10 @@
     </row>
     <row r="361" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A361" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="B361" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="C361">
         <v>40.332217</v>
@@ -7978,10 +7978,10 @@
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A362" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="B362" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C362">
         <v>59.286217000000001</v>
@@ -7992,10 +7992,10 @@
     </row>
     <row r="363" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A363" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="B363" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="C363">
         <v>44.437199999999997</v>
@@ -8006,10 +8006,10 @@
     </row>
     <row r="364" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A364" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B364" t="s">
-        <v>778</v>
+        <v>775</v>
       </c>
       <c r="C364">
         <v>51.962499999999999</v>
@@ -8020,10 +8020,10 @@
     </row>
     <row r="365" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A365" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B365" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C365">
         <v>47.988889</v>
@@ -8034,10 +8034,10 @@
     </row>
     <row r="366" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A366" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B366" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
       <c r="C366">
         <v>47.3536</v>
@@ -8048,10 +8048,10 @@
     </row>
     <row r="367" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A367" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="B367" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="C367">
         <v>45.862916669999997</v>
@@ -8062,10 +8062,10 @@
     </row>
     <row r="368" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A368" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="B368" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C368">
         <v>46.177778000000004</v>
@@ -8076,10 +8076,10 @@
     </row>
     <row r="369" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A369" t="s">
+        <v>31</v>
+      </c>
+      <c r="B369" t="s">
         <v>32</v>
-      </c>
-      <c r="B369" t="s">
-        <v>33</v>
       </c>
       <c r="C369">
         <v>37.383878000000003</v>
@@ -8090,10 +8090,10 @@
     </row>
     <row r="370" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A370" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="B370" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="C370">
         <v>53.283499999999997</v>
@@ -8104,10 +8104,10 @@
     </row>
     <row r="371" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A371" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="B371" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="C371">
         <v>40.785832999999997</v>
@@ -8118,10 +8118,10 @@
     </row>
     <row r="372" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A372" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="B372" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="C372">
         <v>35.945300000000003</v>
@@ -8132,10 +8132,10 @@
     </row>
     <row r="373" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A373" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="B373" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="C373">
         <v>39.728611999999998</v>
@@ -8146,10 +8146,10 @@
     </row>
     <row r="374" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A374" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="B374" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="C374">
         <v>60.366388888000003</v>
@@ -8160,10 +8160,10 @@
     </row>
     <row r="375" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A375" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B375" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C375">
         <v>48.198099999999997</v>
@@ -8174,10 +8174,10 @@
     </row>
     <row r="376" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A376" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="B376" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="C376">
         <v>49.6</v>
@@ -8188,10 +8188,10 @@
     </row>
     <row r="377" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A377" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="B377" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="C377">
         <v>50.066943999999999</v>
@@ -8202,10 +8202,10 @@
     </row>
     <row r="378" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A378" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="B378" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="C378">
         <v>48.166111000000001</v>
@@ -8216,10 +8216,10 @@
     </row>
     <row r="379" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A379" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B379" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C379">
         <v>47.046111000000003</v>
@@ -8230,10 +8230,10 @@
     </row>
     <row r="380" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A380" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B380" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C380">
         <v>38.752677777000002</v>
@@ -8244,10 +8244,10 @@
     </row>
     <row r="381" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A381" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="B381" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="C381">
         <v>51.141796999999997</v>
@@ -8258,10 +8258,10 @@
     </row>
     <row r="382" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A382" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="B382" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="C382">
         <v>54.270041999999997</v>
@@ -8272,10 +8272,10 @@
     </row>
     <row r="383" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A383" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="B383" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="C383">
         <v>55.261358999999999</v>
@@ -8286,10 +8286,10 @@
     </row>
     <row r="384" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A384" t="s">
-        <v>767</v>
+        <v>764</v>
       </c>
       <c r="B384" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C384">
         <v>43.971249999999998</v>
@@ -8300,10 +8300,10 @@
     </row>
     <row r="385" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A385" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
       <c r="B385" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C385">
         <v>43.971249999999998</v>
@@ -8314,10 +8314,10 @@
     </row>
     <row r="386" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A386" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
       <c r="B386" t="s">
-        <v>769</v>
+        <v>766</v>
       </c>
       <c r="C386">
         <v>43.929600000000001</v>
@@ -8328,10 +8328,10 @@
     </row>
     <row r="387" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A387" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B387" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C387">
         <v>55.817799999999998</v>
@@ -8342,10 +8342,10 @@
     </row>
     <row r="388" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A388" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="B388" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="C388">
         <v>47.078930999999997</v>
@@ -8356,10 +8356,10 @@
     </row>
     <row r="389" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A389" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B389" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C389">
         <v>38.761194443999997</v>
@@ -8370,10 +8370,10 @@
     </row>
     <row r="390" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A390" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B390" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C390">
         <v>41.933872000000001</v>
@@ -8384,10 +8384,10 @@
     </row>
     <row r="391" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A391" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B391" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C391">
         <v>56.409686000000001</v>
@@ -8398,10 +8398,10 @@
     </row>
     <row r="392" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A392" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="B392" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
       <c r="C392">
         <v>36.149355999999997</v>
@@ -8412,10 +8412,10 @@
     </row>
     <row r="393" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A393" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="B393" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="C393">
         <v>53.340921999999999</v>
@@ -8426,10 +8426,10 @@
     </row>
     <row r="394" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A394" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B394" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C394">
         <v>49.246667000000002</v>
@@ -8440,10 +8440,10 @@
     </row>
     <row r="395" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A395" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B395" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C395">
         <v>48.107472221999998</v>
@@ -8454,10 +8454,10 @@
     </row>
     <row r="396" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A396" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="B396" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C396">
         <v>50.609907999999997</v>
@@ -8468,10 +8468,10 @@
     </row>
     <row r="397" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A397" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
       <c r="B397" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="C397">
         <v>64.087423000000001</v>
@@ -8482,10 +8482,10 @@
     </row>
     <row r="398" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A398" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="B398" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="C398">
         <v>40.601388999999998</v>
@@ -8496,10 +8496,10 @@
     </row>
     <row r="399" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A399" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="B399" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C399">
         <v>50.883056000000003</v>
@@ -8510,10 +8510,10 @@
     </row>
     <row r="400" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A400" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="B400" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="C400">
         <v>41.325833330000002</v>
@@ -8524,10 +8524,10 @@
     </row>
     <row r="401" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A401" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="B401" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="C401">
         <v>52.875900000000001</v>
@@ -8538,10 +8538,10 @@
     </row>
     <row r="402" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A402" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B402" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C402">
         <v>45.041666999999997</v>
@@ -8566,10 +8566,10 @@
     </row>
     <row r="404" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A404" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="B404" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="C404">
         <v>40.998699999999999</v>
@@ -8580,10 +8580,10 @@
     </row>
     <row r="405" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A405" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B405" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C405">
         <v>49.238999999999997</v>
@@ -8594,10 +8594,10 @@
     </row>
     <row r="406" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A406" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B406" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C406">
         <v>47.280999999999999</v>
@@ -8608,10 +8608,10 @@
     </row>
     <row r="407" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A407" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="B407" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
       <c r="C407">
         <v>42.476388999999998</v>
@@ -8622,10 +8622,10 @@
     </row>
     <row r="408" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A408" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
       <c r="B408" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
       <c r="C408">
         <v>42.476388999999998</v>
@@ -8636,10 +8636,10 @@
     </row>
     <row r="409" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A409" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="B409" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="C409">
         <v>47.574891999999998</v>
@@ -8650,10 +8650,10 @@
     </row>
     <row r="410" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A410" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="B410" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="C410">
         <v>49.557211111000001</v>
@@ -8664,10 +8664,10 @@
     </row>
     <row r="411" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A411" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="B411" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="C411">
         <v>44.263888889999997</v>
@@ -8678,10 +8678,10 @@
     </row>
     <row r="412" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A412" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="B412" t="s">
-        <v>814</v>
+        <v>811</v>
       </c>
       <c r="C412">
         <v>63.085278000000002</v>
@@ -8695,21 +8695,21 @@
         <v>29</v>
       </c>
       <c r="B413" t="s">
-        <v>30</v>
+        <v>825</v>
       </c>
       <c r="C413">
-        <v>10.223402999999999</v>
+        <v>39.466667000000001</v>
       </c>
       <c r="D413">
-        <v>-68.011499999999998</v>
+        <v>-0.375</v>
       </c>
     </row>
     <row r="414" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A414" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="B414" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
       <c r="C414">
         <v>35.894863888000003</v>
@@ -8720,10 +8720,10 @@
     </row>
     <row r="415" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A415" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B415" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C415">
         <v>52.431944000000001</v>
@@ -8734,10 +8734,10 @@
     </row>
     <row r="416" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A416" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="B416" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="C416">
         <v>58.914611000000001</v>
@@ -8762,10 +8762,10 @@
     </row>
     <row r="418" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A418" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B418" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C418">
         <v>41.445833</v>
@@ -8776,10 +8776,10 @@
     </row>
     <row r="419" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A419" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="B419" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="C419">
         <v>56.190899999999999</v>
@@ -8804,10 +8804,10 @@
     </row>
     <row r="421" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A421" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B421" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C421">
         <v>51.542777999999998</v>
@@ -8818,10 +8818,10 @@
     </row>
     <row r="422" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A422" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B422" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C422">
         <v>46.825299999999999</v>
@@ -8846,10 +8846,10 @@
     </row>
     <row r="424" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A424" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="B424" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="C424">
         <v>38.352178000000002</v>
@@ -8860,10 +8860,10 @@
     </row>
     <row r="425" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A425" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="B425" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
       <c r="C425">
         <v>42.328611000000002</v>
@@ -8874,10 +8874,10 @@
     </row>
     <row r="426" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A426" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="B426" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="C426">
         <v>40.358919999999998</v>
@@ -8888,20 +8888,20 @@
     </row>
     <row r="427" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A427" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
     </row>
     <row r="428" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A428" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
     </row>
     <row r="429" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A429" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B429" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
       <c r="C429">
         <v>32.645561000000001</v>
@@ -8912,25 +8912,25 @@
     </row>
     <row r="430" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A430" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
     </row>
     <row r="431" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A431" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
     </row>
     <row r="432" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A432" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
     </row>
     <row r="433" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A433" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="B433" t="s">
-        <v>822</v>
+        <v>819</v>
       </c>
       <c r="C433">
         <v>66.499700000000004</v>
@@ -8941,10 +8941,10 @@
     </row>
     <row r="434" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A434" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="B434" t="s">
-        <v>821</v>
+        <v>818</v>
       </c>
       <c r="C434">
         <v>35.336666665999999</v>
@@ -8955,10 +8955,10 @@
     </row>
     <row r="435" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A435" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="B435" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="C435">
         <v>50.058056000000001</v>
@@ -8969,10 +8969,10 @@
     </row>
     <row r="436" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A436" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="B436" t="s">
-        <v>823</v>
+        <v>820</v>
       </c>
       <c r="C436">
         <v>62.778469444000002</v>
@@ -8983,20 +8983,20 @@
     </row>
     <row r="437" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A437" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
     </row>
     <row r="438" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A438" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
     </row>
     <row r="439" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A439" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="B439" t="s">
-        <v>819</v>
+        <v>816</v>
       </c>
       <c r="C439">
         <v>60.186893980000001</v>
@@ -9007,7 +9007,7 @@
     </row>
     <row r="440" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A440" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
     </row>
   </sheetData>

--- a/Data/coordinates_clubs.xlsx
+++ b/Data/coordinates_clubs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/60387dca0f89eeaf/Fussballdaten/uefa_ranking/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="20" documentId="8_{F0F012FD-7D2A-45DE-98FC-5A5C236FAB14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F0992C5F-184D-46C7-B841-D545D671472F}"/>
+  <xr:revisionPtr revIDLastSave="22" documentId="8_{F0F012FD-7D2A-45DE-98FC-5A5C236FAB14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DDE1A4D2-74C4-400E-9B3C-D49A35ABAF6D}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{013C904B-35F7-493B-A774-186F160190EF}"/>
+    <workbookView xWindow="27432" yWindow="2388" windowWidth="17280" windowHeight="8880" xr2:uid="{013C904B-35F7-493B-A774-186F160190EF}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle2" sheetId="1" r:id="rId1"/>
@@ -2911,8 +2911,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87FE9C0E-1B2A-4A6D-B2F5-2B6836317F9F}">
   <dimension ref="A1:D440"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" topLeftCell="A130" workbookViewId="0">
+      <selection activeCell="C137" sqref="C137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4834,10 +4834,10 @@
         <v>826</v>
       </c>
       <c r="C137">
-        <v>54.589100000000002</v>
+        <v>55.849696000000002</v>
       </c>
       <c r="D137">
-        <v>-5.9626000000000001</v>
+        <v>-4.2055426999999996</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.3">

--- a/Data/coordinates_clubs.xlsx
+++ b/Data/coordinates_clubs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/60387dca0f89eeaf/Fussballdaten/uefa_ranking/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="22" documentId="8_{F0F012FD-7D2A-45DE-98FC-5A5C236FAB14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DDE1A4D2-74C4-400E-9B3C-D49A35ABAF6D}"/>
+  <xr:revisionPtr revIDLastSave="31" documentId="8_{F0F012FD-7D2A-45DE-98FC-5A5C236FAB14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{974B4357-45BD-49D0-9EF2-7120D2D7DDF7}"/>
   <bookViews>
-    <workbookView xWindow="27432" yWindow="2388" windowWidth="17280" windowHeight="8880" xr2:uid="{013C904B-35F7-493B-A774-186F160190EF}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{013C904B-35F7-493B-A774-186F160190EF}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle2" sheetId="1" r:id="rId1"/>
@@ -193,9 +193,6 @@
     <t>Juventus</t>
   </si>
   <si>
-    <t>Orange Walk People's Stadium</t>
-  </si>
-  <si>
     <t>Internazionale</t>
   </si>
   <si>
@@ -706,9 +703,6 @@
     <t>Racing Genk</t>
   </si>
   <si>
-    <t>Parc Stenio Vincent</t>
-  </si>
-  <si>
     <t>AA Gent</t>
   </si>
   <si>
@@ -2516,6 +2510,12 @@
   </si>
   <si>
     <t>Celtic Park</t>
+  </si>
+  <si>
+    <t>Juventus Stadium</t>
+  </si>
+  <si>
+    <t>Cegeka Arena</t>
   </si>
 </sst>
 </file>
@@ -2911,8 +2911,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87FE9C0E-1B2A-4A6D-B2F5-2B6836317F9F}">
   <dimension ref="A1:D440"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A130" workbookViewId="0">
-      <selection activeCell="C137" sqref="C137"/>
+    <sheetView tabSelected="1" topLeftCell="A356" workbookViewId="0">
+      <selection activeCell="B442" sqref="B442"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2930,3658 +2930,3658 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>602</v>
-      </c>
-      <c r="B2" t="s">
-        <v>603</v>
-      </c>
-      <c r="C2">
-        <v>40.171944000000003</v>
-      </c>
-      <c r="D2">
-        <v>44.525832999999999</v>
+        <v>106</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="C2" s="4">
+        <v>37.763708000000001</v>
+      </c>
+      <c r="D2" s="4">
+        <v>-25.622589000000001</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>604</v>
+        <v>739</v>
       </c>
       <c r="B3" t="s">
-        <v>603</v>
+        <v>738</v>
       </c>
       <c r="C3">
-        <v>40.171944000000003</v>
+        <v>64.145683000000005</v>
       </c>
       <c r="D3">
-        <v>44.525832999999999</v>
+        <v>-21.967728000000001</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>175</v>
+        <v>736</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>176</v>
+        <v>738</v>
       </c>
       <c r="C4" s="1">
-        <v>54.174166999999997</v>
+        <v>64.145683000000005</v>
       </c>
       <c r="D4" s="2">
-        <v>37.603056000000002</v>
+        <v>-21.967728000000001</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>357</v>
+        <v>737</v>
       </c>
       <c r="B5" t="s">
-        <v>358</v>
+        <v>738</v>
       </c>
       <c r="C5">
-        <v>31.810300000000002</v>
+        <v>64.145683000000005</v>
       </c>
       <c r="D5">
-        <v>34.648299999999999</v>
+        <v>-21.967728000000001</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>457</v>
+        <v>740</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>458</v>
+        <v>772</v>
       </c>
       <c r="C6" s="1">
-        <v>51.108055999999998</v>
+        <v>64.075833000000003</v>
       </c>
       <c r="D6" s="2">
-        <v>71.401667000000003</v>
+        <v>-21.938611000000002</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>396</v>
+        <v>732</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>397</v>
+        <v>733</v>
       </c>
       <c r="C7" s="1">
-        <v>43.896110999999998</v>
+        <v>64.087423000000001</v>
       </c>
       <c r="D7" s="2">
-        <v>25.981389</v>
+        <v>-21.928864999999998</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>36</v>
+        <v>734</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>37</v>
+        <v>735</v>
       </c>
       <c r="C8" s="1">
-        <v>41.380833000000003</v>
+        <v>64.104167000000004</v>
       </c>
       <c r="D8" s="2">
-        <v>2.1225000000000001</v>
+        <v>-21.896667000000001</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>235</v>
+        <v>656</v>
       </c>
       <c r="B9" t="s">
-        <v>236</v>
+        <v>810</v>
       </c>
       <c r="C9">
-        <v>47.541389000000002</v>
+        <v>64.117221999999998</v>
       </c>
       <c r="D9">
-        <v>7.62</v>
+        <v>-21.852778000000001</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>497</v>
-      </c>
-      <c r="B10" t="s">
-        <v>498</v>
-      </c>
-      <c r="C10">
-        <v>54.192777777000003</v>
-      </c>
-      <c r="D10">
-        <v>28.475694443999998</v>
+        <v>731</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>766</v>
+      </c>
+      <c r="C10" s="4">
+        <v>63.439413999999999</v>
+      </c>
+      <c r="D10" s="4">
+        <v>-20.287949999999999</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>74</v>
-      </c>
-      <c r="B11" t="s">
-        <v>75</v>
-      </c>
-      <c r="C11">
-        <v>48.218775000000001</v>
-      </c>
-      <c r="D11">
-        <v>11.624752776999999</v>
+        <v>105</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>813</v>
+      </c>
+      <c r="C11" s="4">
+        <v>32.645561000000001</v>
+      </c>
+      <c r="D11" s="4">
+        <v>-16.928331</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>400</v>
+        <v>117</v>
       </c>
       <c r="B12" t="s">
-        <v>401</v>
+        <v>118</v>
       </c>
       <c r="C12">
-        <v>47.7483</v>
+        <v>38.752677777000002</v>
       </c>
       <c r="D12">
-        <v>26.651900000000001</v>
+        <v>-9.1846805549999999</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>469</v>
+        <v>112</v>
       </c>
       <c r="B13" t="s">
-        <v>470</v>
+        <v>111</v>
       </c>
       <c r="C13">
-        <v>47.998888890000003</v>
+        <v>38.761194443999997</v>
       </c>
       <c r="D13">
-        <v>17.618333329999999</v>
+        <v>-9.1607833329999995</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>503</v>
+        <v>113</v>
       </c>
       <c r="B14" t="s">
-        <v>504</v>
+        <v>114</v>
       </c>
       <c r="C14">
-        <v>46.980277999999998</v>
+        <v>41.362755999999997</v>
       </c>
       <c r="D14">
-        <v>28.866944</v>
+        <v>-8.7401859999999996</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>201</v>
+        <v>108</v>
       </c>
       <c r="B15" t="s">
-        <v>202</v>
+        <v>109</v>
       </c>
       <c r="C15">
-        <v>51.501666669999999</v>
+        <v>41.161757999999999</v>
       </c>
       <c r="D15">
-        <v>31.327222219999999</v>
+        <v>-8.583933</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>559</v>
+        <v>618</v>
       </c>
       <c r="B16" t="s">
-        <v>560</v>
+        <v>619</v>
       </c>
       <c r="C16">
-        <v>49.513931999999997</v>
+        <v>54.270041999999997</v>
       </c>
       <c r="D16">
-        <v>5.8897750000000002</v>
+        <v>-8.4872329999999998</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>673</v>
+        <v>613</v>
       </c>
       <c r="B17" t="s">
-        <v>674</v>
+        <v>614</v>
       </c>
       <c r="C17">
-        <v>41.983018999999999</v>
+        <v>51.885528000000001</v>
       </c>
       <c r="D17">
-        <v>44.103828</v>
+        <v>-8.4677500000000006</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>678</v>
+        <v>110</v>
       </c>
       <c r="B18" t="s">
-        <v>679</v>
+        <v>792</v>
       </c>
       <c r="C18">
-        <v>41.812981000000001</v>
+        <v>41.562399999999997</v>
       </c>
       <c r="D18">
-        <v>41.774458000000003</v>
+        <v>-8.4307999999999996</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>405</v>
+        <v>103</v>
       </c>
       <c r="B19" t="s">
-        <v>406</v>
+        <v>104</v>
       </c>
       <c r="C19">
-        <v>44.455083000000002</v>
+        <v>41.271352999999998</v>
       </c>
       <c r="D19">
-        <v>26.102443999999998</v>
+        <v>-8.3855810000000002</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>501</v>
+        <v>115</v>
       </c>
       <c r="B20" t="s">
-        <v>502</v>
+        <v>116</v>
       </c>
       <c r="C20">
-        <v>53.895138887999998</v>
+        <v>41.445833</v>
       </c>
       <c r="D20">
-        <v>27.560277777</v>
+        <v>-8.3011110000000006</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>179</v>
+        <v>609</v>
       </c>
       <c r="B21" t="s">
-        <v>180</v>
+        <v>610</v>
       </c>
       <c r="C21">
-        <v>55.791400000000003</v>
+        <v>54.990633000000003</v>
       </c>
       <c r="D21">
-        <v>37.559699999999999</v>
+        <v>-7.3360000000000003</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>676</v>
+        <v>657</v>
       </c>
       <c r="B22" t="s">
-        <v>677</v>
+        <v>655</v>
       </c>
       <c r="C22">
-        <v>41.722999999999999</v>
+        <v>62.019348700000002</v>
       </c>
       <c r="D22">
-        <v>44.789749999999998</v>
+        <v>-6.7811393999999998</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>511</v>
+        <v>654</v>
       </c>
       <c r="B23" t="s">
-        <v>512</v>
+        <v>655</v>
       </c>
       <c r="C23">
-        <v>46.81194</v>
+        <v>62.019348700000002</v>
       </c>
       <c r="D23">
-        <v>29.552779999999998</v>
+        <v>-6.7811393999999998</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>393</v>
+        <v>652</v>
       </c>
       <c r="B24" t="s">
-        <v>333</v>
+        <v>653</v>
       </c>
       <c r="C24">
-        <v>43.848056</v>
+        <v>62.105832999999997</v>
       </c>
       <c r="D24">
-        <v>25.963056000000002</v>
+        <v>-6.7233330000000002</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>495</v>
+        <v>634</v>
       </c>
       <c r="B25" t="s">
-        <v>496</v>
+        <v>619</v>
       </c>
       <c r="C25">
-        <v>52.089722221999999</v>
+        <v>55.132778000000002</v>
       </c>
       <c r="D25">
-        <v>23.68375</v>
+        <v>-6.6602779999999999</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>213</v>
+        <v>658</v>
       </c>
       <c r="B26" t="s">
-        <v>214</v>
+        <v>659</v>
       </c>
       <c r="C26">
-        <v>50.433333333</v>
+        <v>62.225245999999999</v>
       </c>
       <c r="D26">
-        <v>30.521666666000002</v>
+        <v>-6.5792010000000003</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>664</v>
+        <v>616</v>
       </c>
       <c r="B27" t="s">
-        <v>665</v>
+        <v>617</v>
       </c>
       <c r="C27">
-        <v>59.421292000000001</v>
+        <v>53.998944000000002</v>
       </c>
       <c r="D27">
-        <v>24.732050000000001</v>
+        <v>-6.4169169999999998</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>548</v>
+        <v>620</v>
       </c>
       <c r="B28" t="s">
-        <v>414</v>
+        <v>621</v>
       </c>
       <c r="C28">
-        <v>60.442777999999997</v>
+        <v>53.283499999999997</v>
       </c>
       <c r="D28">
-        <v>22.291667</v>
+        <v>-6.3737399999999997</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>459</v>
+        <v>635</v>
       </c>
       <c r="B29" t="s">
-        <v>460</v>
+        <v>636</v>
       </c>
       <c r="C29">
-        <v>52.276383000000003</v>
+        <v>54.453888999999997</v>
       </c>
       <c r="D29">
-        <v>76.949712000000005</v>
+        <v>-6.3363889999999996</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>465</v>
+        <v>611</v>
       </c>
       <c r="B30" t="s">
-        <v>466</v>
+        <v>612</v>
       </c>
       <c r="C30">
-        <v>43.238331000000002</v>
+        <v>53.340921999999999</v>
       </c>
       <c r="D30">
-        <v>76.924350000000004</v>
+        <v>-6.3166190000000002</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>211</v>
+        <v>615</v>
       </c>
       <c r="B31" t="s">
-        <v>212</v>
+        <v>789</v>
       </c>
       <c r="C31">
-        <v>49.985833333000002</v>
+        <v>53.361666999999997</v>
       </c>
       <c r="D31">
-        <v>30.008333332999999</v>
+        <v>-6.2750000000000004</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>163</v>
+        <v>628</v>
       </c>
       <c r="B32" t="s">
-        <v>164</v>
+        <v>629</v>
       </c>
       <c r="C32">
-        <v>45.025277776999999</v>
+        <v>54.869141999999997</v>
       </c>
       <c r="D32">
-        <v>38.999444443999998</v>
+        <v>-6.262867</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>551</v>
+        <v>42</v>
       </c>
       <c r="B33" t="s">
-        <v>552</v>
+        <v>43</v>
       </c>
       <c r="C33">
-        <v>60.983055999999998</v>
+        <v>37.351700000000001</v>
       </c>
       <c r="D33">
-        <v>25.634167000000001</v>
+        <v>-5.9822199999999999</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>165</v>
+        <v>31</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>166</v>
+        <v>32</v>
       </c>
       <c r="C34" s="1">
-        <v>55.803550000000001</v>
+        <v>37.383878000000003</v>
       </c>
       <c r="D34" s="2">
-        <v>37.741168999999999</v>
+        <v>-5.9704670000000002</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>680</v>
+        <v>624</v>
       </c>
       <c r="B35" t="s">
-        <v>681</v>
+        <v>625</v>
       </c>
       <c r="C35">
-        <v>41.709617000000001</v>
+        <v>54.582500000000003</v>
       </c>
       <c r="D35">
-        <v>44.746246999999997</v>
+        <v>-5.9550000000000001</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>249</v>
+        <v>630</v>
       </c>
       <c r="B36" t="s">
-        <v>250</v>
+        <v>631</v>
       </c>
       <c r="C36">
-        <v>46.023611000000002</v>
+        <v>54.619517000000002</v>
       </c>
       <c r="D36">
-        <v>8.9616670000000003</v>
+        <v>-5.9472719999999999</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>247</v>
+        <v>632</v>
       </c>
       <c r="B37" t="s">
-        <v>248</v>
+        <v>633</v>
       </c>
       <c r="C37">
-        <v>47.033264000000003</v>
+        <v>54.624293999999999</v>
       </c>
       <c r="D37">
-        <v>8.3051870000000001</v>
+        <v>-5.9219249999999999</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>215</v>
+        <v>626</v>
       </c>
       <c r="B38" t="s">
-        <v>216</v>
+        <v>627</v>
       </c>
       <c r="C38">
-        <v>47.143721999999997</v>
+        <v>54.602964</v>
       </c>
       <c r="D38">
-        <v>37.558332999999998</v>
+        <v>-5.8913190000000002</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>671</v>
+        <v>622</v>
       </c>
       <c r="B39" t="s">
-        <v>672</v>
+        <v>623</v>
       </c>
       <c r="C39">
-        <v>41.674824000000001</v>
+        <v>54.849802779999997</v>
       </c>
       <c r="D39">
-        <v>44.859751000000003</v>
+        <v>-5.8262583299999999</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>312</v>
+        <v>729</v>
       </c>
       <c r="B40" t="s">
-        <v>313</v>
+        <v>727</v>
       </c>
       <c r="C40">
-        <v>56.116666670000001</v>
+        <v>36.149355999999997</v>
       </c>
       <c r="D40">
-        <v>8.9516666699999998</v>
+        <v>-5.3503420000000004</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>513</v>
+        <v>728</v>
       </c>
       <c r="B41" t="s">
-        <v>514</v>
+        <v>727</v>
       </c>
       <c r="C41">
-        <v>47.374400000000001</v>
+        <v>36.149355999999997</v>
       </c>
       <c r="D41">
-        <v>28.819199999999999</v>
+        <v>-5.3503420000000004</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>596</v>
+        <v>730</v>
       </c>
       <c r="B42" t="s">
-        <v>597</v>
+        <v>727</v>
       </c>
       <c r="C42">
-        <v>40.149372999999997</v>
+        <v>36.149355999999997</v>
       </c>
       <c r="D42">
-        <v>44.476449000000002</v>
+        <v>-5.3503420000000004</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>320</v>
+        <v>726</v>
       </c>
       <c r="B43" t="s">
-        <v>321</v>
+        <v>727</v>
       </c>
       <c r="C43">
-        <v>55.815846999999998</v>
+        <v>36.149355999999997</v>
       </c>
       <c r="D43">
-        <v>12.353289</v>
+        <v>-5.3503420000000004</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>203</v>
+        <v>149</v>
       </c>
       <c r="B44" t="s">
-        <v>204</v>
+        <v>150</v>
       </c>
       <c r="C44">
-        <v>48.674722000000003</v>
+        <v>55.604225</v>
       </c>
       <c r="D44">
-        <v>33.103611000000001</v>
+        <v>-4.5081220000000002</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>207</v>
+        <v>157</v>
       </c>
       <c r="B45" t="s">
-        <v>208</v>
+        <v>158</v>
       </c>
       <c r="C45">
-        <v>47.961399999999998</v>
+        <v>55.853055554999997</v>
       </c>
       <c r="D45">
-        <v>37.808</v>
+        <v>-4.3091666660000003</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>104</v>
+        <v>159</v>
       </c>
       <c r="B46" t="s">
-        <v>105</v>
+        <v>824</v>
       </c>
       <c r="C46">
-        <v>41.271352999999998</v>
+        <v>55.849696000000002</v>
       </c>
       <c r="D46">
-        <v>-8.3855810000000002</v>
+        <v>-4.2055426999999996</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>109</v>
+        <v>724</v>
       </c>
       <c r="B47" t="s">
-        <v>110</v>
+        <v>725</v>
       </c>
       <c r="C47">
-        <v>41.161757999999999</v>
+        <v>53.225453000000002</v>
       </c>
       <c r="D47">
-        <v>-8.583933</v>
+        <v>-4.1501390000000002</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>585</v>
+        <v>153</v>
       </c>
       <c r="B48" t="s">
-        <v>586</v>
+        <v>154</v>
       </c>
       <c r="C48">
-        <v>42.662970000000001</v>
+        <v>55.779947</v>
       </c>
       <c r="D48">
-        <v>21.156880000000001</v>
+        <v>-3.9800779999999998</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>561</v>
+        <v>40</v>
       </c>
       <c r="B49" t="s">
-        <v>562</v>
+        <v>41</v>
       </c>
       <c r="C49">
-        <v>49.546111111000002</v>
+        <v>40.325555999999999</v>
       </c>
       <c r="D49">
-        <v>5.903369444</v>
+        <v>-3.7147220000000001</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>183</v>
+        <v>35</v>
       </c>
       <c r="B50" t="s">
-        <v>184</v>
+        <v>822</v>
       </c>
       <c r="C50">
-        <v>47.243011109999998</v>
+        <v>40.453052999999997</v>
       </c>
       <c r="D50">
-        <v>39.76105278</v>
+        <v>-3.6883439999999998</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>683</v>
+        <v>712</v>
       </c>
       <c r="B51" t="s">
-        <v>681</v>
+        <v>713</v>
       </c>
       <c r="C51">
-        <v>41.709617000000001</v>
+        <v>52.912222</v>
       </c>
       <c r="D51">
-        <v>44.746246999999997</v>
+        <v>-3.6013890000000002</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>684</v>
+        <v>38</v>
       </c>
       <c r="B52" t="s">
-        <v>685</v>
+        <v>39</v>
       </c>
       <c r="C52">
-        <v>42.16084</v>
+        <v>40.436110999999997</v>
       </c>
       <c r="D52">
-        <v>42.330640000000002</v>
+        <v>-3.5994440000000001</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>760</v>
+        <v>23</v>
       </c>
       <c r="B53" t="s">
-        <v>758</v>
+        <v>24</v>
       </c>
       <c r="C53">
-        <v>42.476388999999998</v>
+        <v>37.152966999999997</v>
       </c>
       <c r="D53">
-        <v>1.4876670000000001</v>
+        <v>-3.595736</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>70</v>
+        <v>160</v>
       </c>
       <c r="B54" t="s">
-        <v>71</v>
+        <v>161</v>
       </c>
       <c r="C54">
-        <v>51.554502777000003</v>
+        <v>56.409686000000001</v>
       </c>
       <c r="D54">
-        <v>7.0675888880000004</v>
+        <v>-3.476928</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>505</v>
+        <v>722</v>
       </c>
       <c r="B55" t="s">
-        <v>506</v>
+        <v>723</v>
       </c>
       <c r="C55">
-        <v>46.984400000000001</v>
+        <v>52.511499999999998</v>
       </c>
       <c r="D55">
-        <v>28.667000000000002</v>
+        <v>-3.3228800000000001</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>199</v>
+        <v>718</v>
       </c>
       <c r="B56" t="s">
-        <v>200</v>
+        <v>719</v>
       </c>
       <c r="C56">
-        <v>48.020833000000003</v>
+        <v>51.410832999999997</v>
       </c>
       <c r="D56">
-        <v>37.809722000000001</v>
+        <v>-3.2652779999999999</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>461</v>
+        <v>710</v>
       </c>
       <c r="B57" t="s">
-        <v>462</v>
+        <v>711</v>
       </c>
       <c r="C57">
-        <v>49.818618000000001</v>
+        <v>51.472777999999998</v>
       </c>
       <c r="D57">
-        <v>73.075121999999993</v>
+        <v>-3.2030560000000001</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>493</v>
+        <v>155</v>
       </c>
       <c r="B58" t="s">
-        <v>494</v>
+        <v>156</v>
       </c>
       <c r="C58">
-        <v>52.798611111</v>
+        <v>55.961666665999999</v>
       </c>
       <c r="D58">
-        <v>27.538194443999998</v>
+        <v>-3.1655555550000001</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>507</v>
+        <v>714</v>
       </c>
       <c r="B59" t="s">
-        <v>508</v>
+        <v>715</v>
       </c>
       <c r="C59">
-        <v>46.838332999999999</v>
+        <v>53.225338000000001</v>
       </c>
       <c r="D59">
-        <v>29.557500000000001</v>
+        <v>-3.0765039999999999</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>239</v>
+        <v>720</v>
       </c>
       <c r="B60" t="s">
-        <v>240</v>
+        <v>721</v>
       </c>
       <c r="C60">
-        <v>46.233333000000002</v>
+        <v>52.977212000000002</v>
       </c>
       <c r="D60">
-        <v>7.3763889999999996</v>
+        <v>-3.0696460000000001</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>280</v>
+        <v>716</v>
       </c>
       <c r="B61" t="s">
-        <v>281</v>
+        <v>717</v>
       </c>
       <c r="C61">
-        <v>50.776214000000003</v>
+        <v>52.875900000000001</v>
       </c>
       <c r="D61">
-        <v>15.049972</v>
+        <v>-3.0263100000000001</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>471</v>
+        <v>13</v>
       </c>
       <c r="B62" t="s">
-        <v>273</v>
+        <v>14</v>
       </c>
       <c r="C62">
-        <v>48.373333000000002</v>
+        <v>53.438888888000001</v>
       </c>
       <c r="D62">
-        <v>17.591667000000001</v>
+        <v>-2.966388888</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>243</v>
+        <v>8</v>
       </c>
       <c r="B63" t="s">
-        <v>244</v>
+        <v>9</v>
       </c>
       <c r="C63">
-        <v>47.408332999999999</v>
+        <v>53.430833333000002</v>
       </c>
       <c r="D63">
-        <v>9.3063889999999994</v>
+        <v>-2.9608333330000001</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>701</v>
+        <v>33</v>
       </c>
       <c r="B64" t="s">
-        <v>702</v>
+        <v>34</v>
       </c>
       <c r="C64">
-        <v>41.172800000000002</v>
+        <v>43.277500000000003</v>
       </c>
       <c r="D64">
-        <v>20.684200000000001</v>
+        <v>-2.8393199999999998</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>557</v>
+        <v>15</v>
       </c>
       <c r="B65" t="s">
-        <v>558</v>
+        <v>16</v>
       </c>
       <c r="C65">
-        <v>49.575353</v>
+        <v>53.463055554999997</v>
       </c>
       <c r="D65">
-        <v>6.1582970000000001</v>
+        <v>-2.2913888880000002</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>245</v>
+        <v>6</v>
       </c>
       <c r="B66" t="s">
-        <v>246</v>
+        <v>7</v>
       </c>
       <c r="C66">
-        <v>46.744816999999998</v>
+        <v>53.789064000000003</v>
       </c>
       <c r="D66">
-        <v>7.6060749999999997</v>
+        <v>-2.2302249999999999</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>682</v>
+        <v>11</v>
       </c>
       <c r="B67" t="s">
-        <v>492</v>
+        <v>12</v>
       </c>
       <c r="C67">
-        <v>42.255141666</v>
+        <v>53.483055555</v>
       </c>
       <c r="D67">
-        <v>42.683086111000001</v>
+        <v>-2.2002777770000002</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>662</v>
+        <v>19</v>
       </c>
       <c r="B68" t="s">
-        <v>663</v>
+        <v>20</v>
       </c>
       <c r="C68">
-        <v>59.434472221999997</v>
+        <v>52.590277776999997</v>
       </c>
       <c r="D68">
-        <v>24.783444444000001</v>
+        <v>-2.1302777769999999</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>173</v>
+        <v>151</v>
       </c>
       <c r="B69" t="s">
-        <v>174</v>
+        <v>152</v>
       </c>
       <c r="C69">
-        <v>54.825899999999997</v>
+        <v>57.159166665999997</v>
       </c>
       <c r="D69">
-        <v>56.061399999999999</v>
+        <v>-2.0888888880000001</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>607</v>
+        <v>27</v>
       </c>
       <c r="B70" t="s">
-        <v>608</v>
+        <v>28</v>
       </c>
       <c r="C70">
-        <v>40.171425999999997</v>
+        <v>43.301378</v>
       </c>
       <c r="D70">
-        <v>44.449938000000003</v>
+        <v>-1.973617</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>121</v>
+        <v>99</v>
       </c>
       <c r="B71" t="s">
-        <v>122</v>
+        <v>100</v>
       </c>
       <c r="C71">
-        <v>52.078333333000003</v>
+        <v>48.107472221999998</v>
       </c>
       <c r="D71">
-        <v>5.1458333329999997</v>
+        <v>-1.712861111</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>710</v>
+        <v>2</v>
       </c>
       <c r="B72" t="s">
-        <v>711</v>
+        <v>3</v>
       </c>
       <c r="C72">
-        <v>47.140277777000001</v>
+        <v>52.620277776999998</v>
       </c>
       <c r="D72">
-        <v>9.5102777770000007</v>
+        <v>-1.142222222</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>600</v>
+        <v>93</v>
       </c>
       <c r="B73" t="s">
-        <v>599</v>
+        <v>94</v>
       </c>
       <c r="C73">
-        <v>40.154604999999997</v>
+        <v>44.870699999999999</v>
       </c>
       <c r="D73">
-        <v>44.475231000000001</v>
+        <v>-0.61706899999999998</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>276</v>
+        <v>29</v>
       </c>
       <c r="B74" t="s">
-        <v>277</v>
+        <v>823</v>
       </c>
       <c r="C74">
-        <v>49.75</v>
+        <v>39.466667000000001</v>
       </c>
       <c r="D74">
-        <v>13.385555999999999</v>
+        <v>-0.375</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>499</v>
+        <v>4</v>
       </c>
       <c r="B75" t="s">
-        <v>500</v>
+        <v>5</v>
       </c>
       <c r="C75">
-        <v>55.198472221999999</v>
+        <v>51.481666666000002</v>
       </c>
       <c r="D75">
-        <v>30.229305555</v>
+        <v>-0.191111111</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>209</v>
+        <v>10</v>
       </c>
       <c r="B76" t="s">
-        <v>210</v>
+        <v>819</v>
       </c>
       <c r="C76">
-        <v>49.594833000000001</v>
+        <v>51.554867000000002</v>
       </c>
       <c r="D76">
-        <v>34.549444000000001</v>
+        <v>-0.109112</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>169</v>
+        <v>25</v>
       </c>
       <c r="B77" t="s">
-        <v>170</v>
+        <v>26</v>
       </c>
       <c r="C77">
-        <v>59.972952999999997</v>
+        <v>39.944167</v>
       </c>
       <c r="D77">
-        <v>30.220533</v>
+        <v>-0.10361099999999999</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>205</v>
+        <v>17</v>
       </c>
       <c r="B78" t="s">
-        <v>206</v>
+        <v>18</v>
       </c>
       <c r="C78">
-        <v>48.559443999999999</v>
+        <v>51.604444444000002</v>
       </c>
       <c r="D78">
-        <v>39.321111000000002</v>
+        <v>-6.6388887999999993E-2</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>241</v>
+        <v>21</v>
       </c>
       <c r="B79" t="s">
-        <v>242</v>
+        <v>22</v>
       </c>
       <c r="C79">
-        <v>47.382790999999997</v>
+        <v>51.538611111000002</v>
       </c>
       <c r="D79">
-        <v>8.5038009999999993</v>
+        <v>-1.6388888000000001E-2</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>56</v>
+        <v>758</v>
       </c>
       <c r="B80" t="s">
-        <v>57</v>
+        <v>756</v>
       </c>
       <c r="C80">
-        <v>50.933610999999999</v>
+        <v>42.476388999999998</v>
       </c>
       <c r="D80">
-        <v>6.875</v>
+        <v>1.4876670000000001</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>267</v>
+        <v>760</v>
       </c>
       <c r="B81" t="s">
-        <v>268</v>
+        <v>756</v>
       </c>
       <c r="C81">
-        <v>49.065556000000001</v>
+        <v>42.476388999999998</v>
       </c>
       <c r="D81">
-        <v>17.471461000000001</v>
+        <v>1.4876670000000001</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>80</v>
+        <v>755</v>
       </c>
       <c r="B82" t="s">
-        <v>81</v>
+        <v>756</v>
       </c>
       <c r="C82">
-        <v>52.457222000000002</v>
+        <v>42.476388999999998</v>
       </c>
       <c r="D82">
-        <v>13.568056</v>
+        <v>1.4876670000000001</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>129</v>
+        <v>757</v>
       </c>
       <c r="B83" t="s">
-        <v>130</v>
+        <v>756</v>
       </c>
       <c r="C83">
-        <v>52.314166665999998</v>
+        <v>42.476388999999998</v>
       </c>
       <c r="D83">
-        <v>4.9419444439999998</v>
+        <v>1.4876670000000001</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>152</v>
+        <v>759</v>
       </c>
       <c r="B84" t="s">
-        <v>153</v>
+        <v>801</v>
       </c>
       <c r="C84">
-        <v>57.159166665999997</v>
+        <v>42.504833333000001</v>
       </c>
       <c r="D84">
-        <v>-2.0888888880000001</v>
+        <v>1.5166388879999999</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="B85" t="s">
-        <v>48</v>
+        <v>802</v>
       </c>
       <c r="C85">
-        <v>45.478054999999998</v>
+        <v>41.347861000000002</v>
       </c>
       <c r="D85">
-        <v>9.1239469999999994</v>
+        <v>2.0756670000000002</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>284</v>
-      </c>
-      <c r="B86" t="s">
-        <v>799</v>
-      </c>
-      <c r="C86">
-        <v>35.033889000000002</v>
-      </c>
-      <c r="D86">
-        <v>33.765000000000001</v>
+        <v>36</v>
+      </c>
+      <c r="B86" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C86" s="4">
+        <v>41.380833000000003</v>
+      </c>
+      <c r="D86" s="4">
+        <v>2.1225000000000001</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>272</v>
+        <v>87</v>
       </c>
       <c r="B87" t="s">
-        <v>798</v>
+        <v>88</v>
       </c>
       <c r="C87">
-        <v>50.099716000000001</v>
+        <v>48.841388887999997</v>
       </c>
       <c r="D87">
-        <v>14.416122</v>
+        <v>2.253055555</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>257</v>
+        <v>224</v>
       </c>
       <c r="B88" t="s">
-        <v>258</v>
+        <v>225</v>
       </c>
       <c r="C88">
-        <v>38.036111110999997</v>
+        <v>51.216667000000001</v>
       </c>
       <c r="D88">
-        <v>23.787500000000001</v>
+        <v>2.8863889999999999</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>290</v>
+        <v>85</v>
       </c>
       <c r="B89" t="s">
-        <v>291</v>
+        <v>86</v>
       </c>
       <c r="C89">
-        <v>34.926299999999998</v>
+        <v>50.611944000000001</v>
       </c>
       <c r="D89">
-        <v>33.597747222000002</v>
+        <v>3.1305559999999999</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>292</v>
+        <v>230</v>
       </c>
       <c r="B90" t="s">
-        <v>286</v>
+        <v>231</v>
       </c>
       <c r="C90">
-        <v>34.700913999999997</v>
+        <v>51.193269000000001</v>
       </c>
       <c r="D90">
-        <v>33.022975000000002</v>
+        <v>3.181311</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>380</v>
+        <v>226</v>
       </c>
       <c r="B91" t="s">
-        <v>381</v>
+        <v>227</v>
       </c>
       <c r="C91">
-        <v>59.372500000000002</v>
+        <v>50.883056000000003</v>
       </c>
       <c r="D91">
-        <v>18</v>
+        <v>3.4288889999999999</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>705</v>
+        <v>222</v>
       </c>
       <c r="B92" t="s">
-        <v>706</v>
+        <v>223</v>
       </c>
       <c r="C92">
-        <v>41.446199999999997</v>
+        <v>51.031388999999997</v>
       </c>
       <c r="D92">
-        <v>22.637708</v>
+        <v>3.766111</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>348</v>
+        <v>81</v>
       </c>
       <c r="B93" t="s">
-        <v>808</v>
+        <v>82</v>
       </c>
       <c r="C93">
-        <v>38.920900000000003</v>
+        <v>49.246667000000002</v>
       </c>
       <c r="D93">
-        <v>27.811800000000002</v>
+        <v>4.0250000000000004</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>336</v>
+        <v>216</v>
       </c>
       <c r="B94" t="s">
-        <v>337</v>
+        <v>217</v>
       </c>
       <c r="C94">
-        <v>36.562600000000003</v>
+        <v>50.834167000000001</v>
       </c>
       <c r="D94">
-        <v>32.079099999999997</v>
+        <v>4.2983330000000004</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>601</v>
+        <v>83</v>
       </c>
       <c r="B95" t="s">
-        <v>599</v>
+        <v>84</v>
       </c>
       <c r="C95">
-        <v>40.154604999999997</v>
+        <v>45.460833000000001</v>
       </c>
       <c r="D95">
-        <v>44.475231000000001</v>
+        <v>4.3899999999999997</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>293</v>
+        <v>218</v>
       </c>
       <c r="B96" t="s">
-        <v>294</v>
+        <v>803</v>
       </c>
       <c r="C96">
-        <v>57.930595168000004</v>
+        <v>50.414608999999999</v>
       </c>
       <c r="D96">
-        <v>12.504277315</v>
+        <v>4.4537870000000002</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>287</v>
+        <v>228</v>
       </c>
       <c r="B97" t="s">
-        <v>288</v>
+        <v>229</v>
       </c>
       <c r="C97">
-        <v>34.937421999999998</v>
+        <v>51.232700000000001</v>
       </c>
       <c r="D97">
-        <v>33.620922</v>
+        <v>4.4715749999999996</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>289</v>
+        <v>126</v>
       </c>
       <c r="B98" t="s">
-        <v>788</v>
+        <v>127</v>
       </c>
       <c r="C98">
-        <v>35.114542</v>
+        <v>51.893894443999997</v>
       </c>
       <c r="D98">
-        <v>33.362864000000002</v>
+        <v>4.5232527769999997</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>285</v>
+        <v>122</v>
       </c>
       <c r="B99" t="s">
-        <v>286</v>
+        <v>123</v>
       </c>
       <c r="C99">
-        <v>34.700913999999997</v>
+        <v>52.612499999999997</v>
       </c>
       <c r="D99">
-        <v>33.022975000000002</v>
+        <v>4.7416669999999996</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>255</v>
+        <v>128</v>
       </c>
       <c r="B100" t="s">
-        <v>256</v>
+        <v>129</v>
       </c>
       <c r="C100">
-        <v>40.600068999999998</v>
+        <v>52.314166665999998</v>
       </c>
       <c r="D100">
-        <v>22.9695</v>
+        <v>4.9419444439999998</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>437</v>
+        <v>101</v>
       </c>
       <c r="B101" t="s">
-        <v>438</v>
+        <v>102</v>
       </c>
       <c r="C101">
-        <v>54.493136</v>
+        <v>45.765224000000003</v>
       </c>
       <c r="D101">
-        <v>18.531213999999999</v>
+        <v>4.9821309999999999</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>10</v>
+        <v>130</v>
       </c>
       <c r="B102" t="s">
-        <v>821</v>
+        <v>131</v>
       </c>
       <c r="C102">
-        <v>51.554867000000002</v>
+        <v>51.542777999999998</v>
       </c>
       <c r="D102">
-        <v>-0.109112</v>
+        <v>5.0669440000000003</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>96</v>
+        <v>120</v>
       </c>
       <c r="B103" t="s">
-        <v>97</v>
+        <v>121</v>
       </c>
       <c r="C103">
-        <v>43.727778000000001</v>
+        <v>52.078333333000003</v>
       </c>
       <c r="D103">
-        <v>7.4155559999999996</v>
+        <v>5.1458333329999997</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>49</v>
+        <v>304</v>
       </c>
       <c r="B104" t="s">
-        <v>50</v>
+        <v>305</v>
       </c>
       <c r="C104">
-        <v>41.933872000000001</v>
+        <v>59.413068000000003</v>
       </c>
       <c r="D104">
-        <v>12.454713999999999</v>
+        <v>5.2793789999999996</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>84</v>
+        <v>298</v>
       </c>
       <c r="B105" t="s">
-        <v>85</v>
+        <v>299</v>
       </c>
       <c r="C105">
-        <v>45.460833000000001</v>
+        <v>60.366388888000003</v>
       </c>
       <c r="D105">
-        <v>4.3899999999999997</v>
+        <v>5.3569444439999998</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>253</v>
+        <v>91</v>
       </c>
       <c r="B106" t="s">
-        <v>254</v>
+        <v>92</v>
       </c>
       <c r="C106">
-        <v>37.502676000000001</v>
+        <v>43.269722221999999</v>
       </c>
       <c r="D106">
-        <v>22.388677999999999</v>
+        <v>5.3958333329999997</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>226</v>
+        <v>124</v>
       </c>
       <c r="B107" t="s">
-        <v>227</v>
+        <v>125</v>
       </c>
       <c r="C107">
-        <v>51.216667000000001</v>
+        <v>51.441699999999997</v>
       </c>
       <c r="D107">
-        <v>2.8863889999999999</v>
+        <v>5.4673999999999996</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>46</v>
+        <v>221</v>
       </c>
       <c r="B108" t="s">
-        <v>814</v>
+        <v>826</v>
       </c>
       <c r="C108">
-        <v>45.708888999999999</v>
+        <v>51.005021200000002</v>
       </c>
       <c r="D108">
-        <v>9.6808329999999998</v>
+        <v>5.5334054999999998</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>33</v>
+        <v>219</v>
       </c>
       <c r="B109" t="s">
-        <v>34</v>
+        <v>220</v>
       </c>
       <c r="C109">
-        <v>43.277500000000003</v>
+        <v>50.609907999999997</v>
       </c>
       <c r="D109">
-        <v>-2.8393199999999998</v>
+        <v>5.5433440000000003</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>38</v>
+        <v>308</v>
       </c>
       <c r="B110" t="s">
-        <v>39</v>
+        <v>309</v>
       </c>
       <c r="C110">
-        <v>40.436110999999997</v>
+        <v>58.914611000000001</v>
       </c>
       <c r="D110">
-        <v>-3.5994440000000001</v>
+        <v>5.730442</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>264</v>
+        <v>565</v>
       </c>
       <c r="B111" t="s">
-        <v>265</v>
+        <v>566</v>
       </c>
       <c r="C111">
-        <v>38.004857999999999</v>
+        <v>49.557211111000001</v>
       </c>
       <c r="D111">
-        <v>23.689755999999999</v>
+        <v>5.8564861109999997</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>123</v>
+        <v>557</v>
       </c>
       <c r="B112" t="s">
-        <v>124</v>
+        <v>558</v>
       </c>
       <c r="C112">
-        <v>52.612499999999997</v>
+        <v>49.513931999999997</v>
       </c>
       <c r="D112">
-        <v>4.7416669999999996</v>
+        <v>5.8897750000000002</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>659</v>
+        <v>119</v>
       </c>
       <c r="B113" t="s">
-        <v>657</v>
+        <v>773</v>
       </c>
       <c r="C113">
-        <v>62.019348700000002</v>
+        <v>51.962499999999999</v>
       </c>
       <c r="D113">
-        <v>-6.7811393999999998</v>
+        <v>5.8930559999999996</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>656</v>
+        <v>559</v>
       </c>
       <c r="B114" t="s">
-        <v>657</v>
+        <v>560</v>
       </c>
       <c r="C114">
-        <v>62.019348700000002</v>
+        <v>49.546111111000002</v>
       </c>
       <c r="D114">
-        <v>-6.7811393999999998</v>
+        <v>5.903369444</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>714</v>
+        <v>567</v>
       </c>
       <c r="B115" t="s">
-        <v>715</v>
+        <v>568</v>
       </c>
       <c r="C115">
-        <v>52.912222</v>
+        <v>49.485833333000002</v>
       </c>
       <c r="D115">
-        <v>-3.6013890000000002</v>
+        <v>5.9769444439999999</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>630</v>
+        <v>563</v>
       </c>
       <c r="B116" t="s">
-        <v>631</v>
+        <v>564</v>
       </c>
       <c r="C116">
-        <v>54.869141999999997</v>
+        <v>49.492222222000002</v>
       </c>
       <c r="D116">
-        <v>-6.262867</v>
+        <v>5.9897222220000002</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>697</v>
+        <v>540</v>
       </c>
       <c r="B117" t="s">
-        <v>687</v>
+        <v>541</v>
       </c>
       <c r="C117">
-        <v>35.894863888000003</v>
+        <v>50.626389000000003</v>
       </c>
       <c r="D117">
-        <v>14.415372222</v>
+        <v>6.045833</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>726</v>
+        <v>553</v>
       </c>
       <c r="B118" t="s">
-        <v>727</v>
+        <v>554</v>
       </c>
       <c r="C118">
-        <v>53.225453000000002</v>
+        <v>49.472222221999999</v>
       </c>
       <c r="D118">
-        <v>-4.1501390000000002</v>
+        <v>6.0847222219999999</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>720</v>
+        <v>235</v>
       </c>
       <c r="B119" t="s">
-        <v>721</v>
+        <v>236</v>
       </c>
       <c r="C119">
-        <v>51.410832999999997</v>
+        <v>46.177778000000004</v>
       </c>
       <c r="D119">
-        <v>-3.2652779999999999</v>
+        <v>6.1275000000000004</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>58</v>
+        <v>561</v>
       </c>
       <c r="B120" t="s">
-        <v>59</v>
+        <v>562</v>
       </c>
       <c r="C120">
-        <v>51.038255554999999</v>
+        <v>49.604722221999999</v>
       </c>
       <c r="D120">
-        <v>7.0022055549999997</v>
+        <v>6.1402777769999997</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>362</v>
+        <v>555</v>
       </c>
       <c r="B121" t="s">
-        <v>363</v>
+        <v>556</v>
       </c>
       <c r="C121">
-        <v>31.751166666</v>
+        <v>49.575353</v>
       </c>
       <c r="D121">
-        <v>35.190616665999997</v>
+        <v>6.1582970000000001</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>346</v>
+        <v>71</v>
       </c>
       <c r="B122" t="s">
-        <v>347</v>
+        <v>72</v>
       </c>
       <c r="C122">
-        <v>41.039166666</v>
+        <v>51.174583333000001</v>
       </c>
       <c r="D122">
-        <v>28.994166666000002</v>
+        <v>6.3854638880000003</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>686</v>
+        <v>55</v>
       </c>
       <c r="B123" t="s">
-        <v>687</v>
+        <v>56</v>
       </c>
       <c r="C123">
-        <v>35.894863888000003</v>
+        <v>50.933610999999999</v>
       </c>
       <c r="D123">
-        <v>14.415372222</v>
+        <v>6.875</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>374</v>
+        <v>57</v>
       </c>
       <c r="B124" t="s">
-        <v>375</v>
+        <v>58</v>
       </c>
       <c r="C124">
-        <v>57.718888888000002</v>
+        <v>51.038255554999999</v>
       </c>
       <c r="D124">
-        <v>11.930833333000001</v>
+        <v>7.0022055549999997</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>361</v>
+        <v>69</v>
       </c>
       <c r="B125" t="s">
-        <v>356</v>
+        <v>70</v>
       </c>
       <c r="C125">
-        <v>32.051729999999999</v>
+        <v>51.554502777000003</v>
       </c>
       <c r="D125">
-        <v>34.761479999999999</v>
+        <v>7.0675888880000004</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>617</v>
+        <v>302</v>
       </c>
       <c r="B126" t="s">
-        <v>791</v>
+        <v>303</v>
       </c>
       <c r="C126">
-        <v>53.361666999999997</v>
+        <v>62.733409999999999</v>
       </c>
       <c r="D126">
-        <v>-6.2750000000000004</v>
+        <v>7.1481300000000001</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>68</v>
+        <v>89</v>
       </c>
       <c r="B127" t="s">
-        <v>69</v>
+        <v>90</v>
       </c>
       <c r="C127">
-        <v>51.4925</v>
+        <v>43.705138888</v>
       </c>
       <c r="D127">
-        <v>7.4516669999999996</v>
+        <v>7.192583333</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>72</v>
+        <v>237</v>
       </c>
       <c r="B128" t="s">
-        <v>73</v>
+        <v>238</v>
       </c>
       <c r="C128">
-        <v>51.174583333000001</v>
+        <v>46.233333000000002</v>
       </c>
       <c r="D128">
-        <v>6.3854638880000003</v>
+        <v>7.3763889999999996</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>386</v>
+        <v>95</v>
       </c>
       <c r="B129" t="s">
-        <v>387</v>
+        <v>96</v>
       </c>
       <c r="C129">
-        <v>42.139861000000003</v>
+        <v>43.727778000000001</v>
       </c>
       <c r="D129">
-        <v>24.764444000000001</v>
+        <v>7.4155559999999996</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>736</v>
+        <v>67</v>
       </c>
       <c r="B130" t="s">
-        <v>737</v>
+        <v>68</v>
       </c>
       <c r="C130">
-        <v>64.104167000000004</v>
+        <v>51.4925</v>
       </c>
       <c r="D130">
-        <v>-21.896667000000001</v>
+        <v>7.4516669999999996</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>324</v>
+        <v>232</v>
       </c>
       <c r="B131" t="s">
-        <v>325</v>
+        <v>811</v>
       </c>
       <c r="C131">
-        <v>55.648853000000003</v>
+        <v>46.962778</v>
       </c>
       <c r="D131">
-        <v>12.418358</v>
+        <v>7.4649999999999999</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>234</v>
+        <v>243</v>
       </c>
       <c r="B132" t="s">
-        <v>813</v>
+        <v>244</v>
       </c>
       <c r="C132">
-        <v>46.962778</v>
+        <v>46.744816999999998</v>
       </c>
       <c r="D132">
-        <v>7.4649999999999999</v>
+        <v>7.6060749999999997</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>6</v>
+        <v>233</v>
       </c>
       <c r="B133" t="s">
-        <v>7</v>
+        <v>234</v>
       </c>
       <c r="C133">
-        <v>53.789064000000003</v>
+        <v>47.541389000000002</v>
       </c>
       <c r="D133">
-        <v>-2.2302249999999999</v>
+        <v>7.62</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>712</v>
+        <v>51</v>
       </c>
       <c r="B134" t="s">
-        <v>713</v>
+        <v>825</v>
       </c>
       <c r="C134">
-        <v>51.472777999999998</v>
+        <v>45.109627600000003</v>
       </c>
       <c r="D134">
-        <v>-3.2030560000000001</v>
+        <v>7.6412430999999996</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>107</v>
+        <v>44</v>
       </c>
       <c r="B135" t="s">
-        <v>108</v>
+        <v>45</v>
       </c>
       <c r="C135">
-        <v>37.763708000000001</v>
+        <v>45.041666999999997</v>
       </c>
       <c r="D135">
-        <v>-25.622589000000001</v>
+        <v>7.65</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>722</v>
+        <v>97</v>
       </c>
       <c r="B136" t="s">
-        <v>723</v>
+        <v>98</v>
       </c>
       <c r="C136">
-        <v>52.977212000000002</v>
+        <v>48.560063999999997</v>
       </c>
       <c r="D136">
-        <v>-3.0696460000000001</v>
+        <v>7.754969</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>160</v>
+        <v>63</v>
       </c>
       <c r="B137" t="s">
-        <v>826</v>
+        <v>64</v>
       </c>
       <c r="C137">
-        <v>55.849696000000002</v>
+        <v>47.988889</v>
       </c>
       <c r="D137">
-        <v>-4.2055426999999996</v>
+        <v>7.8930559999999996</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>398</v>
+        <v>245</v>
       </c>
       <c r="B138" t="s">
-        <v>399</v>
+        <v>246</v>
       </c>
       <c r="C138">
-        <v>46.779677999999997</v>
+        <v>47.033264000000003</v>
       </c>
       <c r="D138">
-        <v>23.577247</v>
+        <v>8.3051870000000001</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>4</v>
+        <v>315</v>
       </c>
       <c r="B139" t="s">
-        <v>5</v>
+        <v>316</v>
       </c>
       <c r="C139">
-        <v>51.481666666000002</v>
+        <v>55.481943999999999</v>
       </c>
       <c r="D139">
-        <v>-0.191111111</v>
+        <v>8.4394439999999999</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>632</v>
+        <v>239</v>
       </c>
       <c r="B140" t="s">
-        <v>633</v>
+        <v>240</v>
       </c>
       <c r="C140">
-        <v>54.619517000000002</v>
+        <v>47.382790999999997</v>
       </c>
       <c r="D140">
-        <v>-5.9472719999999999</v>
+        <v>8.5038009999999993</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>232</v>
+        <v>65</v>
       </c>
       <c r="B141" t="s">
-        <v>233</v>
+        <v>66</v>
       </c>
       <c r="C141">
-        <v>51.193269000000001</v>
+        <v>50.068610999999997</v>
       </c>
       <c r="D141">
-        <v>3.181311</v>
+        <v>8.6452779999999994</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>636</v>
+        <v>59</v>
       </c>
       <c r="B142" t="s">
-        <v>621</v>
+        <v>60</v>
       </c>
       <c r="C142">
-        <v>55.132778000000002</v>
+        <v>49.238999999999997</v>
       </c>
       <c r="D142">
-        <v>-6.6602779999999999</v>
+        <v>8.8882779999999997</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>615</v>
+        <v>310</v>
       </c>
       <c r="B143" t="s">
-        <v>616</v>
+        <v>311</v>
       </c>
       <c r="C143">
-        <v>51.885528000000001</v>
+        <v>56.116666670000001</v>
       </c>
       <c r="D143">
-        <v>-8.4677500000000006</v>
+        <v>8.9516666699999998</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>634</v>
+        <v>247</v>
       </c>
       <c r="B144" t="s">
-        <v>635</v>
+        <v>248</v>
       </c>
       <c r="C144">
-        <v>54.624293999999999</v>
+        <v>46.023611000000002</v>
       </c>
       <c r="D144">
-        <v>-5.9219249999999999</v>
+        <v>8.9616670000000003</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>565</v>
+        <v>47</v>
       </c>
       <c r="B145" t="s">
-        <v>566</v>
+        <v>48</v>
       </c>
       <c r="C145">
-        <v>49.492222222000002</v>
+        <v>45.478054999999998</v>
       </c>
       <c r="D145">
-        <v>5.9897222220000002</v>
+        <v>9.1239469999999994</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>407</v>
+        <v>52</v>
       </c>
       <c r="B146" t="s">
-        <v>408</v>
+        <v>48</v>
       </c>
       <c r="C146">
-        <v>44.313889000000003</v>
+        <v>45.478054999999998</v>
       </c>
       <c r="D146">
-        <v>23.784167</v>
+        <v>9.1239469999999994</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>433</v>
+        <v>241</v>
       </c>
       <c r="B147" t="s">
-        <v>785</v>
+        <v>242</v>
       </c>
       <c r="C147">
-        <v>47.549573000000002</v>
+        <v>47.408332999999999</v>
       </c>
       <c r="D147">
-        <v>21.638881999999999</v>
+        <v>9.3063889999999994</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>611</v>
+        <v>312</v>
       </c>
       <c r="B148" t="s">
-        <v>612</v>
+        <v>787</v>
       </c>
       <c r="C148">
-        <v>54.990633000000003</v>
+        <v>55.261358999999999</v>
       </c>
       <c r="D148">
-        <v>-7.3360000000000003</v>
+        <v>9.4877909999999996</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>379</v>
+        <v>708</v>
       </c>
       <c r="B149" t="s">
-        <v>784</v>
+        <v>709</v>
       </c>
       <c r="C149">
-        <v>59.345278</v>
+        <v>47.140277777000001</v>
       </c>
       <c r="D149">
-        <v>18.078889</v>
+        <v>9.5102777770000007</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>618</v>
+        <v>297</v>
       </c>
       <c r="B150" t="s">
-        <v>619</v>
+        <v>805</v>
       </c>
       <c r="C150">
-        <v>53.998944000000002</v>
+        <v>59.211111000000002</v>
       </c>
       <c r="D150">
-        <v>-6.4169169999999998</v>
+        <v>9.5897220000000001</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>66</v>
+        <v>132</v>
       </c>
       <c r="B151" t="s">
-        <v>67</v>
+        <v>793</v>
       </c>
       <c r="C151">
-        <v>50.068610999999997</v>
+        <v>47.3536</v>
       </c>
       <c r="D151">
-        <v>8.6452779999999994</v>
+        <v>9.6372</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>317</v>
+        <v>46</v>
       </c>
       <c r="B152" t="s">
-        <v>318</v>
+        <v>812</v>
       </c>
       <c r="C152">
-        <v>55.481943999999999</v>
+        <v>45.708888999999999</v>
       </c>
       <c r="D152">
-        <v>8.4394439999999999</v>
+        <v>9.6808329999999998</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>731</v>
+        <v>324</v>
       </c>
       <c r="B153" t="s">
-        <v>729</v>
+        <v>313</v>
       </c>
       <c r="C153">
-        <v>36.149355999999997</v>
+        <v>56.465833330000002</v>
       </c>
       <c r="D153">
-        <v>-5.3503420000000004</v>
+        <v>10.010277779999999</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>13</v>
+        <v>320</v>
       </c>
       <c r="B154" t="s">
-        <v>14</v>
+        <v>321</v>
       </c>
       <c r="C154">
-        <v>53.438888888000001</v>
+        <v>56.190899999999999</v>
       </c>
       <c r="D154">
-        <v>-2.966388888</v>
+        <v>10.209300000000001</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>319</v>
+        <v>300</v>
       </c>
       <c r="B155" t="s">
-        <v>783</v>
+        <v>301</v>
       </c>
       <c r="C155">
-        <v>55.702469000000001</v>
+        <v>63.412500000000001</v>
       </c>
       <c r="D155">
-        <v>12.572203</v>
+        <v>10.404999999999999</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>555</v>
+        <v>61</v>
       </c>
       <c r="B156" t="s">
-        <v>556</v>
+        <v>62</v>
       </c>
       <c r="C156">
-        <v>49.472222221999999</v>
+        <v>52.431944000000001</v>
       </c>
       <c r="D156">
-        <v>6.0847222219999999</v>
+        <v>10.803889</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>527</v>
+        <v>295</v>
       </c>
       <c r="B157" t="s">
-        <v>519</v>
+        <v>296</v>
       </c>
       <c r="C157">
-        <v>54.897221999999999</v>
+        <v>59.962752000000002</v>
       </c>
       <c r="D157">
-        <v>23.936944</v>
+        <v>11.063458000000001</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>140</v>
+        <v>293</v>
       </c>
       <c r="B158" t="s">
-        <v>781</v>
+        <v>294</v>
       </c>
       <c r="C158">
-        <v>48.0976</v>
+        <v>59.286217000000001</v>
       </c>
       <c r="D158">
-        <v>16.3109</v>
+        <v>11.097607999999999</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>761</v>
+        <v>73</v>
       </c>
       <c r="B159" t="s">
-        <v>803</v>
+        <v>74</v>
       </c>
       <c r="C159">
-        <v>42.504833333000001</v>
+        <v>48.218775000000001</v>
       </c>
       <c r="D159">
-        <v>1.5166388879999999</v>
+        <v>11.624752776999999</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>271</v>
+        <v>372</v>
       </c>
       <c r="B160" t="s">
-        <v>806</v>
+        <v>373</v>
       </c>
       <c r="C160">
-        <v>49.231310999999998</v>
+        <v>57.718888888000002</v>
       </c>
       <c r="D160">
-        <v>17.669425</v>
+        <v>11.930833333000001</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>463</v>
-      </c>
-      <c r="B161" s="4" t="s">
-        <v>769</v>
-      </c>
-      <c r="C161" s="4">
-        <v>42.335493</v>
-      </c>
-      <c r="D161" s="4">
-        <v>69.593568000000005</v>
+        <v>369</v>
+      </c>
+      <c r="B161" t="s">
+        <v>798</v>
+      </c>
+      <c r="C161">
+        <v>57.706111110999998</v>
+      </c>
+      <c r="D161">
+        <v>11.980555555</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>147</v>
+        <v>75</v>
       </c>
       <c r="B162" t="s">
-        <v>796</v>
+        <v>76</v>
       </c>
       <c r="C162">
-        <v>47.816249999999997</v>
+        <v>51.345832999999999</v>
       </c>
       <c r="D162">
-        <v>12.998222222000001</v>
+        <v>12.348056</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>464</v>
+        <v>318</v>
       </c>
       <c r="B163" t="s">
-        <v>777</v>
+        <v>319</v>
       </c>
       <c r="C163">
-        <v>53.225974000000001</v>
+        <v>55.815846999999998</v>
       </c>
       <c r="D163">
-        <v>63.636578</v>
+        <v>12.353289</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>491</v>
+        <v>322</v>
       </c>
       <c r="B164" t="s">
-        <v>786</v>
+        <v>323</v>
       </c>
       <c r="C164">
-        <v>54.092361111000002</v>
+        <v>55.648853000000003</v>
       </c>
       <c r="D164">
-        <v>28.319722221999999</v>
+        <v>12.418358</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
-        <v>598</v>
+        <v>763</v>
       </c>
       <c r="B165" t="s">
-        <v>608</v>
+        <v>764</v>
       </c>
       <c r="C165">
-        <v>40.171425999999997</v>
+        <v>43.929600000000001</v>
       </c>
       <c r="D165">
-        <v>44.449938000000003</v>
+        <v>12.4427</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
-        <v>431</v>
+        <v>49</v>
       </c>
       <c r="B166" t="s">
-        <v>432</v>
+        <v>50</v>
       </c>
       <c r="C166">
-        <v>47.173694439999998</v>
+        <v>41.933872000000001</v>
       </c>
       <c r="D166">
-        <v>18.415361109999999</v>
+        <v>12.454713999999999</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
-        <v>435</v>
+        <v>54</v>
       </c>
       <c r="B167" t="s">
-        <v>432</v>
+        <v>50</v>
       </c>
       <c r="C167">
-        <v>47.173694439999998</v>
+        <v>41.933872000000001</v>
       </c>
       <c r="D167">
-        <v>18.415361109999999</v>
+        <v>12.454713999999999</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
-        <v>344</v>
+        <v>761</v>
       </c>
       <c r="B168" t="s">
-        <v>345</v>
+        <v>50</v>
       </c>
       <c r="C168">
-        <v>40.987499999999997</v>
+        <v>43.971249999999998</v>
       </c>
       <c r="D168">
-        <v>29.036666665999999</v>
+        <v>12.476972</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
-        <v>434</v>
+        <v>762</v>
       </c>
       <c r="B169" t="s">
-        <v>776</v>
+        <v>50</v>
       </c>
       <c r="C169">
-        <v>47.463999999999999</v>
+        <v>43.971249999999998</v>
       </c>
       <c r="D169">
-        <v>18.5868</v>
+        <v>12.476972</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
-        <v>429</v>
+        <v>765</v>
       </c>
       <c r="B170" t="s">
-        <v>430</v>
+        <v>50</v>
       </c>
       <c r="C170">
-        <v>47.475277777000002</v>
+        <v>43.971249999999998</v>
       </c>
       <c r="D170">
-        <v>19.096111110999999</v>
+        <v>12.476972</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
-        <v>127</v>
+        <v>291</v>
       </c>
       <c r="B171" t="s">
-        <v>128</v>
+        <v>292</v>
       </c>
       <c r="C171">
-        <v>51.893894443999997</v>
+        <v>57.930595168000004</v>
       </c>
       <c r="D171">
-        <v>4.5232527769999997</v>
+        <v>12.504277315</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
-        <v>742</v>
+        <v>317</v>
       </c>
       <c r="B172" t="s">
-        <v>774</v>
+        <v>781</v>
       </c>
       <c r="C172">
-        <v>64.075833000000003</v>
+        <v>55.702469000000001</v>
       </c>
       <c r="D172">
-        <v>-21.938611000000002</v>
+        <v>12.572203</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
-        <v>472</v>
+        <v>575</v>
       </c>
       <c r="B173" t="s">
-        <v>473</v>
+        <v>576</v>
       </c>
       <c r="C173">
-        <v>48.898611109999997</v>
+        <v>56.684166666000003</v>
       </c>
       <c r="D173">
-        <v>18.044722220000001</v>
+        <v>12.866388887999999</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
-        <v>517</v>
+        <v>370</v>
       </c>
       <c r="B174" t="s">
-        <v>790</v>
+        <v>371</v>
       </c>
       <c r="C174">
-        <v>55.726373000000002</v>
+        <v>57.734569999999998</v>
       </c>
       <c r="D174">
-        <v>21.109618000000001</v>
+        <v>12.934334</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
-        <v>134</v>
+        <v>367</v>
       </c>
       <c r="B175" t="s">
-        <v>135</v>
+        <v>368</v>
       </c>
       <c r="C175">
-        <v>48.162306000000001</v>
+        <v>55.583611111000003</v>
       </c>
       <c r="D175">
-        <v>16.386693999999999</v>
+        <v>12.987777777</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
-        <v>308</v>
+        <v>146</v>
       </c>
       <c r="B176" t="s">
-        <v>309</v>
+        <v>794</v>
       </c>
       <c r="C176">
-        <v>67.277500000000003</v>
+        <v>47.816249999999997</v>
       </c>
       <c r="D176">
-        <v>14.384166666</v>
+        <v>12.998222222000001</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
-        <v>531</v>
+        <v>77</v>
       </c>
       <c r="B177" t="s">
-        <v>532</v>
+        <v>78</v>
       </c>
       <c r="C177">
-        <v>44.7761</v>
+        <v>52.514722222000003</v>
       </c>
       <c r="D177">
-        <v>17.1996</v>
+        <v>13.239444444</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
-        <v>749</v>
+        <v>274</v>
       </c>
       <c r="B178" t="s">
-        <v>750</v>
+        <v>275</v>
       </c>
       <c r="C178">
-        <v>42.444727999999998</v>
+        <v>49.75</v>
       </c>
       <c r="D178">
-        <v>19.264378000000001</v>
+        <v>13.385555999999999</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
-        <v>751</v>
+        <v>79</v>
       </c>
       <c r="B179" t="s">
-        <v>750</v>
+        <v>80</v>
       </c>
       <c r="C179">
-        <v>42.444727999999998</v>
+        <v>52.457222000000002</v>
       </c>
       <c r="D179">
-        <v>19.264378000000001</v>
+        <v>13.568056</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
-        <v>755</v>
+        <v>478</v>
       </c>
       <c r="B180" t="s">
-        <v>750</v>
+        <v>479</v>
       </c>
       <c r="C180">
-        <v>42.444727999999998</v>
+        <v>45.955931</v>
       </c>
       <c r="D180">
-        <v>19.264378000000001</v>
+        <v>13.641563</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
-        <v>185</v>
+        <v>53</v>
       </c>
       <c r="B181" t="s">
-        <v>771</v>
+        <v>188</v>
       </c>
       <c r="C181">
-        <v>44.772658</v>
+        <v>40.827967000000001</v>
       </c>
       <c r="D181">
-        <v>20.421638999999999</v>
+        <v>14.193008000000001</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
-        <v>756</v>
+        <v>147</v>
       </c>
       <c r="B182" t="s">
-        <v>793</v>
+        <v>141</v>
       </c>
       <c r="C182">
-        <v>42.359900000000003</v>
+        <v>48.293332999999997</v>
       </c>
       <c r="D182">
-        <v>19.3264</v>
+        <v>14.276389</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
-        <v>591</v>
+        <v>140</v>
       </c>
       <c r="B183" t="s">
-        <v>592</v>
+        <v>141</v>
       </c>
       <c r="C183">
-        <v>41.4375</v>
+        <v>48.293332999999997</v>
       </c>
       <c r="D183">
-        <v>22.768899999999999</v>
+        <v>14.276389</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
-        <v>306</v>
+        <v>332</v>
       </c>
       <c r="B184" t="s">
-        <v>307</v>
+        <v>333</v>
       </c>
       <c r="C184">
-        <v>59.413068000000003</v>
+        <v>45.339202</v>
       </c>
       <c r="D184">
-        <v>5.2793789999999996</v>
+        <v>14.380959000000001</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
-        <v>753</v>
+        <v>306</v>
       </c>
       <c r="B185" t="s">
-        <v>754</v>
+        <v>307</v>
       </c>
       <c r="C185">
-        <v>42.554083329999997</v>
+        <v>67.277500000000003</v>
       </c>
       <c r="D185">
-        <v>19.102944440000002</v>
+        <v>14.384166666</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
-        <v>269</v>
+        <v>693</v>
       </c>
       <c r="B186" t="s">
-        <v>270</v>
+        <v>694</v>
       </c>
       <c r="C186">
-        <v>50.714964000000002</v>
+        <v>35.945300000000003</v>
       </c>
       <c r="D186">
-        <v>15.162224999999999</v>
+        <v>14.4148</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
-        <v>581</v>
+        <v>695</v>
       </c>
       <c r="B187" t="s">
-        <v>582</v>
+        <v>685</v>
       </c>
       <c r="C187">
-        <v>56.661700000000003</v>
+        <v>35.894863888000003</v>
       </c>
       <c r="D187">
-        <v>23.7563</v>
+        <v>14.415372222</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
-        <v>518</v>
+        <v>684</v>
       </c>
       <c r="B188" t="s">
-        <v>519</v>
+        <v>685</v>
       </c>
       <c r="C188">
-        <v>54.897221999999999</v>
+        <v>35.894863888000003</v>
       </c>
       <c r="D188">
-        <v>23.936944</v>
+        <v>14.415372222</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
-        <v>422</v>
+        <v>688</v>
       </c>
       <c r="B189" t="s">
-        <v>809</v>
+        <v>685</v>
       </c>
       <c r="C189">
-        <v>40.410986000000001</v>
+        <v>35.894863888000003</v>
       </c>
       <c r="D189">
-        <v>49.897711000000001</v>
+        <v>14.415372222</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
-        <v>643</v>
+        <v>692</v>
       </c>
       <c r="B190" t="s">
-        <v>644</v>
+        <v>685</v>
       </c>
       <c r="C190">
-        <v>42.142200000000003</v>
+        <v>35.894863888000003</v>
       </c>
       <c r="D190">
-        <v>20.700299999999999</v>
+        <v>14.415372222</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
-        <v>575</v>
+        <v>689</v>
       </c>
       <c r="B191" t="s">
-        <v>576</v>
+        <v>685</v>
       </c>
       <c r="C191">
-        <v>56.502952000000001</v>
+        <v>35.894863888000003</v>
       </c>
       <c r="D191">
-        <v>20.995424</v>
+        <v>14.415372222</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
-        <v>708</v>
+        <v>270</v>
       </c>
       <c r="B192" t="s">
-        <v>792</v>
+        <v>796</v>
       </c>
       <c r="C192">
-        <v>42.00222222</v>
+        <v>50.099716000000001</v>
       </c>
       <c r="D192">
-        <v>21.36</v>
+        <v>14.416122</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
-        <v>274</v>
+        <v>686</v>
       </c>
       <c r="B193" t="s">
-        <v>275</v>
+        <v>687</v>
       </c>
       <c r="C193">
-        <v>50.427083000000003</v>
+        <v>35.904722219999996</v>
       </c>
       <c r="D193">
-        <v>14.914783</v>
+        <v>14.434722219999999</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
-        <v>197</v>
+        <v>276</v>
       </c>
       <c r="B194" t="s">
-        <v>198</v>
+        <v>277</v>
       </c>
       <c r="C194">
-        <v>43.860014</v>
+        <v>50.066943999999999</v>
       </c>
       <c r="D194">
-        <v>20.132608000000001</v>
+        <v>14.471389</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
-        <v>190</v>
+        <v>690</v>
       </c>
       <c r="B195" t="s">
-        <v>191</v>
+        <v>691</v>
       </c>
       <c r="C195">
-        <v>44.765155999999998</v>
+        <v>35.882861110999997</v>
       </c>
       <c r="D195">
-        <v>20.472152999999999</v>
+        <v>14.513027777</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
-        <v>524</v>
+        <v>437</v>
       </c>
       <c r="B196" t="s">
-        <v>525</v>
+        <v>438</v>
       </c>
       <c r="C196">
-        <v>55.739167000000002</v>
+        <v>53.436576109999997</v>
       </c>
       <c r="D196">
-        <v>24.359444</v>
+        <v>14.51865806</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
-        <v>194</v>
-      </c>
-      <c r="B197" s="4" t="s">
-        <v>782</v>
-      </c>
-      <c r="C197" s="4">
-        <v>44.788611000000003</v>
-      </c>
-      <c r="D197" s="4">
-        <v>20.459167000000001</v>
+        <v>485</v>
+      </c>
+      <c r="B197" t="s">
+        <v>486</v>
+      </c>
+      <c r="C197">
+        <v>46.081111</v>
+      </c>
+      <c r="D197">
+        <v>14.521388999999999</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
-        <v>707</v>
+        <v>476</v>
       </c>
       <c r="B198" t="s">
-        <v>780</v>
+        <v>477</v>
       </c>
       <c r="C198">
-        <v>41.018056000000001</v>
+        <v>46.136966999999999</v>
       </c>
       <c r="D198">
-        <v>21.338889000000002</v>
+        <v>14.602342999999999</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
-        <v>421</v>
+        <v>365</v>
       </c>
       <c r="B199" t="s">
-        <v>810</v>
+        <v>366</v>
       </c>
       <c r="C199">
-        <v>40.421199999999999</v>
+        <v>63.194722222000003</v>
       </c>
       <c r="D199">
-        <v>49.9968</v>
+        <v>14.655833333</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
-        <v>703</v>
-      </c>
-      <c r="B200" s="4" t="s">
-        <v>743</v>
-      </c>
-      <c r="C200" s="4">
-        <v>42.005732999999999</v>
-      </c>
-      <c r="D200" s="4">
-        <v>21.425592000000002</v>
+        <v>144</v>
+      </c>
+      <c r="B200" t="s">
+        <v>145</v>
+      </c>
+      <c r="C200">
+        <v>46.825299999999999</v>
+      </c>
+      <c r="D200">
+        <v>14.8514</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
-        <v>195</v>
+        <v>272</v>
       </c>
       <c r="B201" t="s">
-        <v>196</v>
+        <v>273</v>
       </c>
       <c r="C201">
-        <v>43.315528</v>
+        <v>50.427083000000003</v>
       </c>
       <c r="D201">
-        <v>21.908532999999998</v>
+        <v>14.914783</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
-        <v>533</v>
+        <v>278</v>
       </c>
       <c r="B202" t="s">
-        <v>534</v>
+        <v>279</v>
       </c>
       <c r="C202">
-        <v>44.75444444</v>
+        <v>50.776214000000003</v>
       </c>
       <c r="D202">
-        <v>19.225000000000001</v>
+        <v>15.049972</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
-        <v>699</v>
-      </c>
-      <c r="B203" s="4" t="s">
-        <v>770</v>
-      </c>
-      <c r="C203" s="4">
-        <v>42.018692000000001</v>
-      </c>
-      <c r="D203" s="4">
-        <v>20.978179000000001</v>
+        <v>487</v>
+      </c>
+      <c r="B203" t="s">
+        <v>488</v>
+      </c>
+      <c r="C203">
+        <v>46.372931000000001</v>
+      </c>
+      <c r="D203">
+        <v>15.104184</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
-        <v>571</v>
+        <v>267</v>
       </c>
       <c r="B204" t="s">
-        <v>572</v>
+        <v>268</v>
       </c>
       <c r="C204">
-        <v>56.961478999999997</v>
+        <v>50.714964000000002</v>
       </c>
       <c r="D204">
-        <v>24.143689899999998</v>
+        <v>15.162224999999999</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
-        <v>528</v>
+        <v>480</v>
       </c>
       <c r="B205" t="s">
-        <v>523</v>
+        <v>481</v>
       </c>
       <c r="C205">
-        <v>54.668610999999999</v>
+        <v>46.246667000000002</v>
       </c>
       <c r="D205">
-        <v>25.294443999999999</v>
+        <v>15.270277999999999</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
-        <v>522</v>
+        <v>137</v>
       </c>
       <c r="B206" t="s">
-        <v>523</v>
+        <v>138</v>
       </c>
       <c r="C206">
-        <v>54.668610999999999</v>
+        <v>47.046111000000003</v>
       </c>
       <c r="D206">
-        <v>25.294443999999999</v>
+        <v>15.454444000000001</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
-        <v>748</v>
+        <v>483</v>
       </c>
       <c r="B207" t="s">
-        <v>532</v>
+        <v>484</v>
       </c>
       <c r="C207">
-        <v>43.362349000000002</v>
+        <v>46.5625</v>
       </c>
       <c r="D207">
-        <v>19.362245000000001</v>
+        <v>15.640556</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
-        <v>535</v>
+        <v>135</v>
       </c>
       <c r="B208" t="s">
-        <v>536</v>
+        <v>136</v>
       </c>
       <c r="C208">
-        <v>43.873888888000003</v>
+        <v>47.280999999999999</v>
       </c>
       <c r="D208">
-        <v>18.408611110999999</v>
+        <v>15.9772</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
-        <v>709</v>
+        <v>327</v>
       </c>
       <c r="B209" t="s">
-        <v>770</v>
+        <v>148</v>
       </c>
       <c r="C209">
-        <v>42.018692000000001</v>
+        <v>45.818858333000001</v>
       </c>
       <c r="D209">
-        <v>20.978179000000001</v>
+        <v>16.018077776999998</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
-        <v>698</v>
+        <v>330</v>
       </c>
       <c r="B210" t="s">
-        <v>196</v>
+        <v>148</v>
       </c>
       <c r="C210">
-        <v>42.015500000000003</v>
+        <v>45.818858333000001</v>
       </c>
       <c r="D210">
-        <v>21.444299999999998</v>
+        <v>16.018077776999998</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
-        <v>704</v>
+        <v>482</v>
       </c>
       <c r="B211" t="s">
-        <v>779</v>
+        <v>771</v>
       </c>
       <c r="C211">
-        <v>42.080817799999998</v>
+        <v>46.668610999999999</v>
       </c>
       <c r="D211">
-        <v>22.161025299999999</v>
+        <v>16.157499999999999</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
-        <v>192</v>
+        <v>374</v>
       </c>
       <c r="B212" t="s">
-        <v>193</v>
+        <v>375</v>
       </c>
       <c r="C212">
-        <v>46.081780999999999</v>
+        <v>58.584166666000002</v>
       </c>
       <c r="D212">
-        <v>19.676957999999999</v>
+        <v>16.173055555000001</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
-        <v>583</v>
+        <v>142</v>
       </c>
       <c r="B213" t="s">
-        <v>584</v>
+        <v>143</v>
       </c>
       <c r="C213">
-        <v>56.949591099999999</v>
+        <v>48.198099999999997</v>
       </c>
       <c r="D213">
-        <v>23.610198499999999</v>
+        <v>16.2653</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
-        <v>520</v>
+        <v>139</v>
       </c>
       <c r="B214" t="s">
-        <v>521</v>
+        <v>779</v>
       </c>
       <c r="C214">
-        <v>54.574547000000003</v>
+        <v>48.0976</v>
       </c>
       <c r="D214">
-        <v>23.365392</v>
+        <v>16.3109</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
-        <v>752</v>
+        <v>133</v>
       </c>
       <c r="B215" t="s">
-        <v>532</v>
+        <v>134</v>
       </c>
       <c r="C215">
-        <v>42.784947000000003</v>
+        <v>48.162306000000001</v>
       </c>
       <c r="D215">
-        <v>18.953731000000001</v>
+        <v>16.386693999999999</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
-        <v>700</v>
+        <v>325</v>
       </c>
       <c r="B216" t="s">
-        <v>743</v>
+        <v>326</v>
       </c>
       <c r="C216">
-        <v>42.005732999999999</v>
+        <v>43.519444</v>
       </c>
       <c r="D216">
-        <v>21.425592000000002</v>
+        <v>16.431667000000001</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
-        <v>579</v>
+        <v>453</v>
       </c>
       <c r="B217" t="s">
-        <v>580</v>
+        <v>444</v>
       </c>
       <c r="C217">
-        <v>57.387300000000003</v>
+        <v>52.397221999999999</v>
       </c>
       <c r="D217">
-        <v>21.570399999999999</v>
+        <v>16.858056000000001</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
-        <v>526</v>
+        <v>443</v>
       </c>
       <c r="B218" t="s">
-        <v>523</v>
+        <v>444</v>
       </c>
       <c r="C218">
-        <v>54.668610999999999</v>
+        <v>51.141796999999997</v>
       </c>
       <c r="D218">
-        <v>25.294443999999999</v>
+        <v>16.944094</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
-        <v>529</v>
+        <v>465</v>
       </c>
       <c r="B219" t="s">
-        <v>530</v>
+        <v>466</v>
       </c>
       <c r="C219">
-        <v>43.846666999999997</v>
+        <v>48.166111000000001</v>
       </c>
       <c r="D219">
-        <v>18.387222000000001</v>
+        <v>17.141110999999999</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
-        <v>690</v>
+        <v>529</v>
       </c>
       <c r="B220" t="s">
-        <v>687</v>
+        <v>530</v>
       </c>
       <c r="C220">
-        <v>35.894863888000003</v>
+        <v>44.7761</v>
       </c>
       <c r="D220">
-        <v>14.415372222</v>
+        <v>17.1996</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
-        <v>423</v>
+        <v>280</v>
       </c>
       <c r="B221" t="s">
-        <v>424</v>
+        <v>281</v>
       </c>
       <c r="C221">
-        <v>40.985194444000001</v>
+        <v>49.6</v>
       </c>
       <c r="D221">
-        <v>47.842500000000001</v>
+        <v>17.248332999999999</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
-        <v>351</v>
+        <v>265</v>
       </c>
       <c r="B222" t="s">
-        <v>352</v>
+        <v>266</v>
       </c>
       <c r="C222">
-        <v>41.103388887999998</v>
+        <v>49.065556000000001</v>
       </c>
       <c r="D222">
-        <v>28.991</v>
+        <v>17.471461000000001</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
-        <v>605</v>
+        <v>469</v>
       </c>
       <c r="B223" t="s">
-        <v>606</v>
+        <v>271</v>
       </c>
       <c r="C223">
-        <v>39.207787000000003</v>
+        <v>48.373333000000002</v>
       </c>
       <c r="D223">
-        <v>46.400674000000002</v>
+        <v>17.591667000000001</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
-        <v>716</v>
+        <v>538</v>
       </c>
       <c r="B224" t="s">
-        <v>717</v>
+        <v>539</v>
       </c>
       <c r="C224">
-        <v>53.225338000000001</v>
+        <v>43.378700000000002</v>
       </c>
       <c r="D224">
-        <v>-3.0765039999999999</v>
+        <v>17.597999999999999</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
-        <v>40</v>
+        <v>467</v>
       </c>
       <c r="B225" t="s">
-        <v>41</v>
+        <v>468</v>
       </c>
       <c r="C225">
-        <v>40.325555999999999</v>
+        <v>47.998888890000003</v>
       </c>
       <c r="D225">
-        <v>-3.7147220000000001</v>
+        <v>17.618333329999999</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
-        <v>94</v>
+        <v>269</v>
       </c>
       <c r="B226" t="s">
-        <v>95</v>
+        <v>804</v>
       </c>
       <c r="C226">
-        <v>44.870699999999999</v>
+        <v>49.231310999999998</v>
       </c>
       <c r="D226">
-        <v>-0.61706899999999998</v>
+        <v>17.669425</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
-        <v>637</v>
+        <v>537</v>
       </c>
       <c r="B227" t="s">
-        <v>638</v>
+        <v>536</v>
       </c>
       <c r="C227">
-        <v>54.453888999999997</v>
+        <v>43.345556000000002</v>
       </c>
       <c r="D227">
-        <v>-6.3363889999999996</v>
+        <v>17.795278</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
-        <v>628</v>
+        <v>535</v>
       </c>
       <c r="B228" t="s">
-        <v>629</v>
+        <v>536</v>
       </c>
       <c r="C228">
-        <v>54.602964</v>
+        <v>43.345556000000002</v>
       </c>
       <c r="D228">
-        <v>-5.8913190000000002</v>
+        <v>17.795278</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
-        <v>329</v>
+        <v>378</v>
       </c>
       <c r="B229" t="s">
-        <v>149</v>
+        <v>379</v>
       </c>
       <c r="C229">
-        <v>45.818858333000001</v>
+        <v>59.372500000000002</v>
       </c>
       <c r="D229">
-        <v>16.018077776999998</v>
+        <v>18</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
-        <v>443</v>
+        <v>470</v>
       </c>
       <c r="B230" t="s">
-        <v>444</v>
+        <v>471</v>
       </c>
       <c r="C230">
-        <v>50.296317000000002</v>
+        <v>48.898611109999997</v>
       </c>
       <c r="D230">
-        <v>18.768564000000001</v>
+        <v>18.044722220000001</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
-        <v>23</v>
+        <v>377</v>
       </c>
       <c r="B231" t="s">
-        <v>24</v>
+        <v>782</v>
       </c>
       <c r="C231">
-        <v>37.152966999999997</v>
+        <v>59.345278</v>
       </c>
       <c r="D231">
-        <v>-3.595736</v>
+        <v>18.078889</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
-        <v>694</v>
+        <v>376</v>
       </c>
       <c r="B232" t="s">
-        <v>687</v>
+        <v>799</v>
       </c>
       <c r="C232">
-        <v>35.894863888000003</v>
+        <v>59.29138889</v>
       </c>
       <c r="D232">
-        <v>14.415372222</v>
+        <v>18.085277779999998</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
-        <v>577</v>
+        <v>527</v>
       </c>
       <c r="B233" t="s">
-        <v>578</v>
+        <v>528</v>
       </c>
       <c r="C233">
-        <v>56.684166666000003</v>
+        <v>43.846666999999997</v>
       </c>
       <c r="D233">
-        <v>12.866388887999999</v>
+        <v>18.387222000000001</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
-        <v>378</v>
+        <v>533</v>
       </c>
       <c r="B234" t="s">
-        <v>801</v>
+        <v>534</v>
       </c>
       <c r="C234">
-        <v>59.29138889</v>
+        <v>43.873888888000003</v>
       </c>
       <c r="D234">
-        <v>18.085277779999998</v>
+        <v>18.408611110999999</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
-        <v>359</v>
+        <v>429</v>
       </c>
       <c r="B235" t="s">
-        <v>360</v>
+        <v>430</v>
       </c>
       <c r="C235">
-        <v>31.273099999999999</v>
+        <v>47.173694439999998</v>
       </c>
       <c r="D235">
-        <v>34.779400000000003</v>
+        <v>18.415361109999999</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
-        <v>366</v>
+        <v>433</v>
       </c>
       <c r="B236" t="s">
-        <v>365</v>
+        <v>430</v>
       </c>
       <c r="C236">
-        <v>32.783111110999997</v>
+        <v>47.173694439999998</v>
       </c>
       <c r="D236">
-        <v>34.965166666000002</v>
+        <v>18.415361109999999</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
-        <v>78</v>
+        <v>435</v>
       </c>
       <c r="B237" t="s">
-        <v>79</v>
+        <v>436</v>
       </c>
       <c r="C237">
-        <v>52.514722222000003</v>
+        <v>54.493136</v>
       </c>
       <c r="D237">
-        <v>13.239444444</v>
+        <v>18.531213999999999</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
-        <v>156</v>
+        <v>432</v>
       </c>
       <c r="B238" t="s">
-        <v>157</v>
+        <v>774</v>
       </c>
       <c r="C238">
-        <v>55.961666665999999</v>
+        <v>47.463999999999999</v>
       </c>
       <c r="D238">
-        <v>-3.1655555550000001</v>
+        <v>18.5868</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
-        <v>692</v>
+        <v>448</v>
       </c>
       <c r="B239" t="s">
-        <v>693</v>
+        <v>449</v>
       </c>
       <c r="C239">
-        <v>35.882861110999997</v>
+        <v>54.39</v>
       </c>
       <c r="D239">
-        <v>14.513027777</v>
+        <v>18.640277999999999</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B240" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C240">
-        <v>43.519444</v>
+        <v>45.545000000000002</v>
       </c>
       <c r="D240">
-        <v>16.431667000000001</v>
+        <v>18.695833</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
-        <v>334</v>
+        <v>451</v>
       </c>
       <c r="B241" t="s">
-        <v>335</v>
+        <v>452</v>
       </c>
       <c r="C241">
-        <v>45.339202</v>
+        <v>50.306583000000003</v>
       </c>
       <c r="D241">
-        <v>14.380959000000001</v>
+        <v>18.695865999999999</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
-        <v>539</v>
+        <v>474</v>
       </c>
       <c r="B242" t="s">
-        <v>538</v>
+        <v>475</v>
       </c>
       <c r="C242">
-        <v>43.345556000000002</v>
+        <v>49.229166999999997</v>
       </c>
       <c r="D242">
-        <v>17.795278</v>
+        <v>18.744721999999999</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
-        <v>537</v>
+        <v>441</v>
       </c>
       <c r="B243" t="s">
-        <v>538</v>
+        <v>442</v>
       </c>
       <c r="C243">
-        <v>43.345556000000002</v>
+        <v>50.296317000000002</v>
       </c>
       <c r="D243">
-        <v>17.795278</v>
+        <v>18.768564000000001</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
-        <v>666</v>
+        <v>750</v>
       </c>
       <c r="B244" t="s">
-        <v>663</v>
+        <v>530</v>
       </c>
       <c r="C244">
-        <v>59.434472221999997</v>
+        <v>42.784947000000003</v>
       </c>
       <c r="D244">
-        <v>24.783444444000001</v>
+        <v>18.953731000000001</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
-        <v>372</v>
+        <v>423</v>
       </c>
       <c r="B245" t="s">
-        <v>373</v>
+        <v>424</v>
       </c>
       <c r="C245">
-        <v>57.734569999999998</v>
+        <v>47.574891999999998</v>
       </c>
       <c r="D245">
-        <v>12.934334</v>
+        <v>19.08465</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
-        <v>371</v>
+        <v>427</v>
       </c>
       <c r="B246" t="s">
-        <v>800</v>
+        <v>428</v>
       </c>
       <c r="C246">
-        <v>57.706111110999998</v>
+        <v>47.475277777000002</v>
       </c>
       <c r="D246">
-        <v>11.980555555</v>
+        <v>19.096111110999999</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
-        <v>546</v>
+        <v>751</v>
       </c>
       <c r="B247" t="s">
-        <v>547</v>
+        <v>752</v>
       </c>
       <c r="C247">
-        <v>60.102221999999998</v>
+        <v>42.554083329999997</v>
       </c>
       <c r="D247">
-        <v>19.935278</v>
+        <v>19.102944440000002</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
-        <v>376</v>
+        <v>434</v>
       </c>
       <c r="B248" t="s">
-        <v>377</v>
+        <v>426</v>
       </c>
       <c r="C248">
-        <v>58.584166666000002</v>
+        <v>47.490919443999999</v>
       </c>
       <c r="D248">
-        <v>16.173055555000001</v>
+        <v>19.106725000000001</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
-        <v>550</v>
+        <v>425</v>
       </c>
       <c r="B249" t="s">
-        <v>778</v>
+        <v>426</v>
       </c>
       <c r="C249">
-        <v>61.4925</v>
+        <v>47.490919443999999</v>
       </c>
       <c r="D249">
-        <v>23.764167</v>
+        <v>19.106725000000001</v>
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
-        <v>762</v>
+        <v>531</v>
       </c>
       <c r="B250" t="s">
-        <v>758</v>
+        <v>532</v>
       </c>
       <c r="C250">
-        <v>42.476388999999998</v>
+        <v>44.75444444</v>
       </c>
       <c r="D250">
-        <v>1.4876670000000001</v>
+        <v>19.225000000000001</v>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
-        <v>53</v>
+        <v>744</v>
       </c>
       <c r="B251" t="s">
-        <v>48</v>
+        <v>745</v>
       </c>
       <c r="C251">
-        <v>45.478054999999998</v>
+        <v>42.328611000000002</v>
       </c>
       <c r="D251">
-        <v>9.1239469999999994</v>
+        <v>19.240556000000002</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
-        <v>342</v>
+        <v>747</v>
       </c>
       <c r="B252" t="s">
-        <v>343</v>
+        <v>748</v>
       </c>
       <c r="C252">
-        <v>41.074472221999997</v>
+        <v>42.444727999999998</v>
       </c>
       <c r="D252">
-        <v>28.765702777000001</v>
+        <v>19.264378000000001</v>
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
-        <v>733</v>
-      </c>
-      <c r="B253" s="4" t="s">
-        <v>768</v>
-      </c>
-      <c r="C253" s="4">
-        <v>63.439413999999999</v>
-      </c>
-      <c r="D253" s="4">
-        <v>-20.287949999999999</v>
+        <v>749</v>
+      </c>
+      <c r="B253" t="s">
+        <v>748</v>
+      </c>
+      <c r="C253">
+        <v>42.444727999999998</v>
+      </c>
+      <c r="D253">
+        <v>19.264378000000001</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
-        <v>441</v>
+        <v>753</v>
       </c>
       <c r="B254" t="s">
-        <v>442</v>
+        <v>748</v>
       </c>
       <c r="C254">
-        <v>53.105556</v>
+        <v>42.444727999999998</v>
       </c>
       <c r="D254">
-        <v>23.148889</v>
+        <v>19.264378000000001</v>
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
-        <v>569</v>
+        <v>472</v>
       </c>
       <c r="B255" t="s">
-        <v>570</v>
+        <v>473</v>
       </c>
       <c r="C255">
-        <v>49.485833333000002</v>
+        <v>49.082500000000003</v>
       </c>
       <c r="D255">
-        <v>5.9769444439999999</v>
+        <v>19.28388889</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
-        <v>667</v>
+        <v>754</v>
       </c>
       <c r="B256" t="s">
-        <v>802</v>
+        <v>791</v>
       </c>
       <c r="C256">
-        <v>59.36347</v>
+        <v>42.359900000000003</v>
       </c>
       <c r="D256">
-        <v>28.184650000000001</v>
+        <v>19.3264</v>
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
-        <v>51</v>
+        <v>746</v>
       </c>
       <c r="B257" t="s">
-        <v>52</v>
+        <v>530</v>
       </c>
       <c r="C257">
-        <v>18.083055555000001</v>
+        <v>43.362349000000002</v>
       </c>
       <c r="D257">
-        <v>-88.570277777000001</v>
+        <v>19.362245000000001</v>
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
-        <v>224</v>
+        <v>187</v>
       </c>
       <c r="B258" t="s">
-        <v>225</v>
+        <v>770</v>
       </c>
       <c r="C258">
-        <v>51.031388999999997</v>
+        <v>45.240278000000004</v>
       </c>
       <c r="D258">
-        <v>3.766111</v>
+        <v>19.381667</v>
       </c>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
-        <v>542</v>
+        <v>646</v>
       </c>
       <c r="B259" t="s">
-        <v>543</v>
+        <v>647</v>
       </c>
       <c r="C259">
-        <v>50.626389000000003</v>
+        <v>41.325833330000002</v>
       </c>
       <c r="D259">
-        <v>6.045833</v>
+        <v>19.449444440000001</v>
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
-        <v>587</v>
+        <v>648</v>
       </c>
       <c r="B260" t="s">
-        <v>588</v>
+        <v>649</v>
       </c>
       <c r="C260">
-        <v>42.616446000000003</v>
+        <v>42.070031</v>
       </c>
       <c r="D260">
-        <v>20.903551</v>
+        <v>19.506557999999998</v>
       </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
-        <v>589</v>
+        <v>191</v>
       </c>
       <c r="B261" t="s">
-        <v>590</v>
+        <v>192</v>
       </c>
       <c r="C261">
-        <v>42.466667000000001</v>
+        <v>46.081780999999999</v>
       </c>
       <c r="D261">
-        <v>21.464444</v>
+        <v>19.676957999999999</v>
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="B262" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="C262">
         <v>41.642479999999999</v>
@@ -6592,968 +6592,968 @@
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
-        <v>593</v>
+        <v>637</v>
       </c>
       <c r="B263" t="s">
-        <v>590</v>
+        <v>638</v>
       </c>
       <c r="C263">
-        <v>42.905000000000001</v>
+        <v>41.31898056</v>
       </c>
       <c r="D263">
-        <v>21.194722219999999</v>
+        <v>19.811383330000002</v>
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
-        <v>652</v>
+        <v>645</v>
       </c>
       <c r="B264" t="s">
-        <v>653</v>
+        <v>638</v>
       </c>
       <c r="C264">
-        <v>40.625833</v>
+        <v>41.31898056</v>
       </c>
       <c r="D264">
-        <v>20.782778</v>
+        <v>19.811383330000002</v>
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
-        <v>639</v>
+        <v>445</v>
       </c>
       <c r="B265" t="s">
-        <v>640</v>
+        <v>815</v>
       </c>
       <c r="C265">
-        <v>41.31898056</v>
+        <v>50.058056000000001</v>
       </c>
       <c r="D265">
-        <v>19.811383330000002</v>
+        <v>19.919722</v>
       </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
-        <v>594</v>
+        <v>544</v>
       </c>
       <c r="B266" t="s">
-        <v>595</v>
+        <v>545</v>
       </c>
       <c r="C266">
-        <v>42.888055559999998</v>
+        <v>60.102221999999998</v>
       </c>
       <c r="D266">
-        <v>20.861416670000001</v>
+        <v>19.935278</v>
       </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
-        <v>660</v>
+        <v>196</v>
       </c>
       <c r="B267" t="s">
-        <v>661</v>
+        <v>197</v>
       </c>
       <c r="C267">
-        <v>62.225245999999999</v>
+        <v>43.860014</v>
       </c>
       <c r="D267">
-        <v>-6.5792010000000003</v>
+        <v>20.132608000000001</v>
       </c>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
-        <v>150</v>
+        <v>643</v>
       </c>
       <c r="B268" t="s">
-        <v>151</v>
+        <v>644</v>
       </c>
       <c r="C268">
-        <v>55.604225</v>
+        <v>40.081200000000003</v>
       </c>
       <c r="D268">
-        <v>-4.5081220000000002</v>
+        <v>20.138100000000001</v>
       </c>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
-        <v>658</v>
+        <v>184</v>
       </c>
       <c r="B269" t="s">
-        <v>812</v>
+        <v>769</v>
       </c>
       <c r="C269">
-        <v>64.117221999999998</v>
+        <v>44.772658</v>
       </c>
       <c r="D269">
-        <v>-21.852778000000001</v>
+        <v>20.421638999999999</v>
       </c>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
-        <v>340</v>
-      </c>
-      <c r="B270" t="s">
-        <v>341</v>
-      </c>
-      <c r="C270">
-        <v>37.865389</v>
-      </c>
-      <c r="D270">
-        <v>32.483277999999999</v>
+        <v>193</v>
+      </c>
+      <c r="B270" s="4" t="s">
+        <v>780</v>
+      </c>
+      <c r="C270" s="4">
+        <v>44.788611000000003</v>
+      </c>
+      <c r="D270" s="4">
+        <v>20.459167000000001</v>
       </c>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
-        <v>741</v>
+        <v>186</v>
       </c>
       <c r="B271" t="s">
-        <v>740</v>
+        <v>185</v>
       </c>
       <c r="C271">
-        <v>64.145683000000005</v>
+        <v>44.783200000000001</v>
       </c>
       <c r="D271">
-        <v>-21.967728000000001</v>
+        <v>20.464914</v>
       </c>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
-        <v>738</v>
+        <v>189</v>
       </c>
       <c r="B272" t="s">
-        <v>740</v>
+        <v>190</v>
       </c>
       <c r="C272">
-        <v>64.145683000000005</v>
+        <v>44.765155999999998</v>
       </c>
       <c r="D272">
-        <v>-21.967728000000001</v>
+        <v>20.472152999999999</v>
       </c>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
-        <v>739</v>
+        <v>742</v>
       </c>
       <c r="B273" t="s">
-        <v>740</v>
+        <v>743</v>
       </c>
       <c r="C273">
-        <v>64.145683000000005</v>
+        <v>44.815455999999998</v>
       </c>
       <c r="D273">
-        <v>-21.967728000000001</v>
+        <v>20.494046999999998</v>
       </c>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
-        <v>650</v>
+        <v>699</v>
       </c>
       <c r="B274" t="s">
-        <v>651</v>
+        <v>700</v>
       </c>
       <c r="C274">
-        <v>42.070031</v>
+        <v>41.172800000000002</v>
       </c>
       <c r="D274">
-        <v>19.506557999999998</v>
+        <v>20.684200000000001</v>
       </c>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
-        <v>148</v>
+        <v>641</v>
       </c>
       <c r="B275" t="s">
-        <v>142</v>
+        <v>642</v>
       </c>
       <c r="C275">
-        <v>48.293332999999997</v>
+        <v>42.142200000000003</v>
       </c>
       <c r="D275">
-        <v>14.276389</v>
+        <v>20.700299999999999</v>
       </c>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
-        <v>624</v>
+        <v>650</v>
       </c>
       <c r="B276" t="s">
-        <v>625</v>
+        <v>651</v>
       </c>
       <c r="C276">
-        <v>54.849802779999997</v>
+        <v>40.625833</v>
       </c>
       <c r="D276">
-        <v>-5.8262583299999999</v>
+        <v>20.782778</v>
       </c>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
-        <v>141</v>
+        <v>592</v>
       </c>
       <c r="B277" t="s">
-        <v>142</v>
+        <v>593</v>
       </c>
       <c r="C277">
-        <v>48.293332999999997</v>
+        <v>42.888055559999998</v>
       </c>
       <c r="D277">
-        <v>14.276389</v>
+        <v>20.861416670000001</v>
       </c>
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
-        <v>455</v>
+        <v>585</v>
       </c>
       <c r="B278" t="s">
-        <v>446</v>
+        <v>586</v>
       </c>
       <c r="C278">
-        <v>52.397221999999999</v>
+        <v>42.616446000000003</v>
       </c>
       <c r="D278">
-        <v>16.858056000000001</v>
+        <v>20.903551</v>
       </c>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
-        <v>450</v>
-      </c>
-      <c r="B279" t="s">
-        <v>451</v>
-      </c>
-      <c r="C279">
-        <v>54.39</v>
-      </c>
-      <c r="D279">
-        <v>18.640277999999999</v>
+        <v>697</v>
+      </c>
+      <c r="B279" s="4" t="s">
+        <v>768</v>
+      </c>
+      <c r="C279" s="4">
+        <v>42.018692000000001</v>
+      </c>
+      <c r="D279" s="4">
+        <v>20.978179000000001</v>
       </c>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
-        <v>448</v>
+        <v>707</v>
       </c>
       <c r="B280" t="s">
-        <v>449</v>
+        <v>768</v>
       </c>
       <c r="C280">
-        <v>52.220461</v>
+        <v>42.018692000000001</v>
       </c>
       <c r="D280">
-        <v>21.040628000000002</v>
+        <v>20.978179000000001</v>
       </c>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
-        <v>2</v>
+        <v>573</v>
       </c>
       <c r="B281" t="s">
-        <v>3</v>
+        <v>574</v>
       </c>
       <c r="C281">
-        <v>52.620277776999998</v>
+        <v>56.502952000000001</v>
       </c>
       <c r="D281">
-        <v>-1.142222222</v>
+        <v>20.995424</v>
       </c>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
-        <v>86</v>
+        <v>446</v>
       </c>
       <c r="B282" t="s">
-        <v>87</v>
+        <v>447</v>
       </c>
       <c r="C282">
-        <v>50.611944000000001</v>
+        <v>52.220461</v>
       </c>
       <c r="D282">
-        <v>3.1305559999999999</v>
+        <v>21.040628000000002</v>
       </c>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
-        <v>297</v>
+        <v>515</v>
       </c>
       <c r="B283" t="s">
-        <v>298</v>
+        <v>788</v>
       </c>
       <c r="C283">
-        <v>59.962752000000002</v>
+        <v>55.726373000000002</v>
       </c>
       <c r="D283">
-        <v>11.063458000000001</v>
+        <v>21.109618000000001</v>
       </c>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
-        <v>730</v>
+        <v>583</v>
       </c>
       <c r="B284" t="s">
-        <v>729</v>
+        <v>584</v>
       </c>
       <c r="C284">
-        <v>36.149355999999997</v>
+        <v>42.662970000000001</v>
       </c>
       <c r="D284">
-        <v>-5.3503420000000004</v>
+        <v>21.156880000000001</v>
       </c>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
-        <v>626</v>
+        <v>591</v>
       </c>
       <c r="B285" t="s">
-        <v>627</v>
+        <v>588</v>
       </c>
       <c r="C285">
-        <v>54.582500000000003</v>
+        <v>42.905000000000001</v>
       </c>
       <c r="D285">
-        <v>-5.9550000000000001</v>
+        <v>21.194722219999999</v>
       </c>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
-        <v>8</v>
+        <v>705</v>
       </c>
       <c r="B286" t="s">
-        <v>9</v>
+        <v>778</v>
       </c>
       <c r="C286">
-        <v>53.430833333000002</v>
+        <v>41.018056000000001</v>
       </c>
       <c r="D286">
-        <v>-2.9608333330000001</v>
+        <v>21.338889000000002</v>
       </c>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
-        <v>645</v>
+        <v>706</v>
       </c>
       <c r="B287" t="s">
-        <v>646</v>
+        <v>790</v>
       </c>
       <c r="C287">
-        <v>40.081200000000003</v>
+        <v>42.00222222</v>
       </c>
       <c r="D287">
-        <v>20.138100000000001</v>
+        <v>21.36</v>
       </c>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
-        <v>364</v>
-      </c>
-      <c r="B288" t="s">
-        <v>365</v>
-      </c>
-      <c r="C288">
-        <v>32.783111110999997</v>
-      </c>
-      <c r="D288">
-        <v>34.965166666000002</v>
+        <v>701</v>
+      </c>
+      <c r="B288" s="4" t="s">
+        <v>741</v>
+      </c>
+      <c r="C288" s="4">
+        <v>42.005732999999999</v>
+      </c>
+      <c r="D288" s="4">
+        <v>21.425592000000002</v>
       </c>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
-        <v>355</v>
+        <v>698</v>
       </c>
       <c r="B289" t="s">
-        <v>356</v>
+        <v>741</v>
       </c>
       <c r="C289">
-        <v>32.051729999999999</v>
+        <v>42.005732999999999</v>
       </c>
       <c r="D289">
-        <v>34.761479999999999</v>
+        <v>21.425592000000002</v>
       </c>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
-        <v>369</v>
+        <v>696</v>
       </c>
       <c r="B290" t="s">
-        <v>370</v>
+        <v>195</v>
       </c>
       <c r="C290">
-        <v>55.583611111000003</v>
+        <v>42.015500000000003</v>
       </c>
       <c r="D290">
-        <v>12.987777777</v>
+        <v>21.444299999999998</v>
       </c>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
-        <v>11</v>
+        <v>587</v>
       </c>
       <c r="B291" t="s">
-        <v>12</v>
+        <v>588</v>
       </c>
       <c r="C291">
-        <v>53.483055555</v>
+        <v>42.466667000000001</v>
       </c>
       <c r="D291">
-        <v>-2.2002777770000002</v>
+        <v>21.464444</v>
       </c>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
-        <v>15</v>
+        <v>577</v>
       </c>
       <c r="B292" t="s">
-        <v>16</v>
+        <v>578</v>
       </c>
       <c r="C292">
-        <v>53.463055554999997</v>
+        <v>57.387300000000003</v>
       </c>
       <c r="D292">
-        <v>-2.2913888880000002</v>
+        <v>21.570399999999999</v>
       </c>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
-        <v>474</v>
+        <v>543</v>
       </c>
       <c r="B293" t="s">
-        <v>475</v>
+        <v>809</v>
       </c>
       <c r="C293">
-        <v>49.082500000000003</v>
+        <v>63.085278000000002</v>
       </c>
       <c r="D293">
-        <v>19.28388889</v>
+        <v>21.627777999999999</v>
       </c>
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
-        <v>413</v>
+        <v>431</v>
       </c>
       <c r="B294" t="s">
-        <v>809</v>
+        <v>783</v>
       </c>
       <c r="C294">
-        <v>40.410986000000001</v>
+        <v>47.549573000000002</v>
       </c>
       <c r="D294">
-        <v>49.897711000000001</v>
+        <v>21.638881999999999</v>
       </c>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
-        <v>304</v>
+        <v>194</v>
       </c>
       <c r="B295" t="s">
-        <v>305</v>
+        <v>195</v>
       </c>
       <c r="C295">
-        <v>62.733409999999999</v>
+        <v>43.315528</v>
       </c>
       <c r="D295">
-        <v>7.1481300000000001</v>
+        <v>21.908532999999998</v>
       </c>
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
-        <v>732</v>
+        <v>702</v>
       </c>
       <c r="B296" t="s">
-        <v>729</v>
+        <v>777</v>
       </c>
       <c r="C296">
-        <v>36.149355999999997</v>
+        <v>42.080817799999998</v>
       </c>
       <c r="D296">
-        <v>-5.3503420000000004</v>
+        <v>22.161025299999999</v>
       </c>
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
-        <v>688</v>
+        <v>546</v>
       </c>
       <c r="B297" t="s">
-        <v>689</v>
+        <v>412</v>
       </c>
       <c r="C297">
-        <v>35.904722219999996</v>
+        <v>60.442777999999997</v>
       </c>
       <c r="D297">
-        <v>14.434722219999999</v>
+        <v>22.291667</v>
       </c>
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
-        <v>154</v>
-      </c>
-      <c r="B298" t="s">
-        <v>155</v>
-      </c>
-      <c r="C298">
-        <v>55.779947</v>
-      </c>
-      <c r="D298">
-        <v>-3.9800779999999998</v>
+        <v>251</v>
+      </c>
+      <c r="B298" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="C298" s="4">
+        <v>37.502676000000001</v>
+      </c>
+      <c r="D298" s="4">
+        <v>22.388677999999999</v>
       </c>
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
-        <v>476</v>
+        <v>703</v>
       </c>
       <c r="B299" t="s">
-        <v>477</v>
+        <v>704</v>
       </c>
       <c r="C299">
-        <v>49.229166999999997</v>
+        <v>41.446199999999997</v>
       </c>
       <c r="D299">
-        <v>18.744721999999999</v>
+        <v>22.637708</v>
       </c>
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
-        <v>436</v>
+        <v>589</v>
       </c>
       <c r="B300" t="s">
-        <v>428</v>
+        <v>590</v>
       </c>
       <c r="C300">
-        <v>47.490919443999999</v>
+        <v>41.4375</v>
       </c>
       <c r="D300">
-        <v>19.106725000000001</v>
+        <v>22.768899999999999</v>
       </c>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
-        <v>427</v>
+        <v>542</v>
       </c>
       <c r="B301" t="s">
-        <v>428</v>
+        <v>818</v>
       </c>
       <c r="C301">
-        <v>47.490919443999999</v>
+        <v>62.778469444000002</v>
       </c>
       <c r="D301">
-        <v>19.106725000000001</v>
+        <v>22.815588888000001</v>
       </c>
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
-        <v>480</v>
+        <v>253</v>
       </c>
       <c r="B302" t="s">
-        <v>481</v>
+        <v>254</v>
       </c>
       <c r="C302">
-        <v>45.955931</v>
+        <v>40.600068999999998</v>
       </c>
       <c r="D302">
-        <v>13.641563</v>
+        <v>22.9695</v>
       </c>
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
-        <v>417</v>
+        <v>249</v>
       </c>
       <c r="B303" t="s">
-        <v>418</v>
+        <v>250</v>
       </c>
       <c r="C303">
-        <v>40.400162999999999</v>
+        <v>40.613838999999999</v>
       </c>
       <c r="D303">
-        <v>49.944018999999997</v>
+        <v>22.972422000000002</v>
       </c>
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
-        <v>724</v>
+        <v>439</v>
       </c>
       <c r="B304" t="s">
-        <v>725</v>
+        <v>440</v>
       </c>
       <c r="C304">
-        <v>52.511499999999998</v>
+        <v>53.105556</v>
       </c>
       <c r="D304">
-        <v>-3.3228800000000001</v>
+        <v>23.148889</v>
       </c>
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
-        <v>482</v>
+        <v>387</v>
       </c>
       <c r="B305" t="s">
-        <v>483</v>
+        <v>388</v>
       </c>
       <c r="C305">
-        <v>46.246667000000002</v>
+        <v>42.675361000000002</v>
       </c>
       <c r="D305">
-        <v>15.270277999999999</v>
+        <v>23.272027999999999</v>
       </c>
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
-        <v>478</v>
+        <v>380</v>
       </c>
       <c r="B306" t="s">
-        <v>479</v>
+        <v>381</v>
       </c>
       <c r="C306">
-        <v>46.136966999999999</v>
+        <v>42.684258</v>
       </c>
       <c r="D306">
-        <v>14.602342999999999</v>
+        <v>23.339769</v>
       </c>
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
-        <v>332</v>
+        <v>382</v>
       </c>
       <c r="B307" t="s">
-        <v>149</v>
+        <v>383</v>
       </c>
       <c r="C307">
-        <v>45.818858333000001</v>
+        <v>42.705466999999999</v>
       </c>
       <c r="D307">
-        <v>16.018077776999998</v>
+        <v>23.363197</v>
       </c>
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
-        <v>485</v>
+        <v>518</v>
       </c>
       <c r="B308" t="s">
-        <v>486</v>
+        <v>519</v>
       </c>
       <c r="C308">
-        <v>46.5625</v>
+        <v>54.574547000000003</v>
       </c>
       <c r="D308">
-        <v>15.640556</v>
+        <v>23.365392</v>
       </c>
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
-        <v>484</v>
+        <v>396</v>
       </c>
       <c r="B309" t="s">
-        <v>773</v>
+        <v>397</v>
       </c>
       <c r="C309">
-        <v>46.668610999999999</v>
+        <v>46.779677999999997</v>
       </c>
       <c r="D309">
-        <v>16.157499999999999</v>
+        <v>23.577247</v>
       </c>
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
-        <v>487</v>
+        <v>581</v>
       </c>
       <c r="B310" t="s">
-        <v>488</v>
+        <v>582</v>
       </c>
       <c r="C310">
-        <v>46.081111</v>
+        <v>56.949591099999999</v>
       </c>
       <c r="D310">
-        <v>14.521388999999999</v>
+        <v>23.610198499999999</v>
       </c>
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
-        <v>330</v>
+        <v>264</v>
       </c>
       <c r="B311" t="s">
-        <v>331</v>
+        <v>795</v>
       </c>
       <c r="C311">
-        <v>45.545000000000002</v>
+        <v>37.946168999999998</v>
       </c>
       <c r="D311">
-        <v>18.695833</v>
+        <v>23.664535999999998</v>
       </c>
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
-        <v>489</v>
+        <v>493</v>
       </c>
       <c r="B312" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="C312">
-        <v>46.372931000000001</v>
+        <v>52.089722221999999</v>
       </c>
       <c r="D312">
-        <v>15.104184</v>
+        <v>23.68375</v>
       </c>
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
-        <v>540</v>
+        <v>262</v>
       </c>
       <c r="B313" t="s">
-        <v>541</v>
+        <v>263</v>
       </c>
       <c r="C313">
-        <v>43.378700000000002</v>
+        <v>38.004857999999999</v>
       </c>
       <c r="D313">
-        <v>17.597999999999999</v>
+        <v>23.689755999999999</v>
       </c>
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
-        <v>668</v>
+        <v>260</v>
       </c>
       <c r="B314" t="s">
-        <v>787</v>
+        <v>261</v>
       </c>
       <c r="C314">
-        <v>59.385455999999998</v>
+        <v>37.943033329999999</v>
       </c>
       <c r="D314">
-        <v>24.659603000000001</v>
+        <v>23.709225</v>
       </c>
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
-        <v>654</v>
+        <v>257</v>
       </c>
       <c r="B315" t="s">
-        <v>655</v>
+        <v>258</v>
       </c>
       <c r="C315">
-        <v>62.105832999999997</v>
+        <v>37.987169444000003</v>
       </c>
       <c r="D315">
-        <v>-6.7233330000000002</v>
+        <v>23.754194443999999</v>
       </c>
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
-        <v>299</v>
+        <v>579</v>
       </c>
       <c r="B316" t="s">
-        <v>807</v>
+        <v>580</v>
       </c>
       <c r="C316">
-        <v>59.211111000000002</v>
+        <v>56.661700000000003</v>
       </c>
       <c r="D316">
-        <v>9.5897220000000001</v>
+        <v>23.7563</v>
       </c>
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
-        <v>188</v>
+        <v>548</v>
       </c>
       <c r="B317" t="s">
-        <v>772</v>
+        <v>776</v>
       </c>
       <c r="C317">
-        <v>45.240278000000004</v>
+        <v>61.4925</v>
       </c>
       <c r="D317">
-        <v>19.381667</v>
+        <v>23.764167</v>
       </c>
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
-        <v>744</v>
+        <v>405</v>
       </c>
       <c r="B318" t="s">
-        <v>745</v>
+        <v>406</v>
       </c>
       <c r="C318">
-        <v>44.815455999999998</v>
+        <v>44.313889000000003</v>
       </c>
       <c r="D318">
-        <v>20.494046999999998</v>
+        <v>23.784167</v>
       </c>
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
-        <v>90</v>
+        <v>255</v>
       </c>
       <c r="B319" t="s">
-        <v>91</v>
+        <v>256</v>
       </c>
       <c r="C319">
-        <v>43.705138888</v>
+        <v>38.036111110999997</v>
       </c>
       <c r="D319">
-        <v>7.192583333</v>
+        <v>23.787500000000001</v>
       </c>
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
-        <v>266</v>
+        <v>525</v>
       </c>
       <c r="B320" t="s">
-        <v>797</v>
+        <v>517</v>
       </c>
       <c r="C320">
-        <v>37.946168999999998</v>
+        <v>54.897221999999999</v>
       </c>
       <c r="D320">
-        <v>23.664535999999998</v>
+        <v>23.936944</v>
       </c>
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
-        <v>92</v>
+        <v>516</v>
       </c>
       <c r="B321" t="s">
-        <v>93</v>
+        <v>517</v>
       </c>
       <c r="C321">
-        <v>43.269722221999999</v>
+        <v>54.897221999999999</v>
       </c>
       <c r="D321">
-        <v>5.3958333329999997</v>
+        <v>23.936944</v>
       </c>
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
-        <v>102</v>
+        <v>571</v>
       </c>
       <c r="B322" t="s">
-        <v>103</v>
+        <v>572</v>
       </c>
       <c r="C322">
-        <v>45.765224000000003</v>
+        <v>56.961371999999997</v>
       </c>
       <c r="D322">
-        <v>4.9821309999999999</v>
+        <v>24.116408</v>
       </c>
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
-        <v>367</v>
+        <v>569</v>
       </c>
       <c r="B323" t="s">
-        <v>368</v>
+        <v>570</v>
       </c>
       <c r="C323">
-        <v>63.194722222000003</v>
+        <v>56.961478999999997</v>
       </c>
       <c r="D323">
-        <v>14.655833333</v>
+        <v>24.143689899999998</v>
       </c>
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
-        <v>382</v>
+        <v>522</v>
       </c>
       <c r="B324" t="s">
-        <v>383</v>
+        <v>523</v>
       </c>
       <c r="C324">
-        <v>42.684258</v>
+        <v>55.739167000000002</v>
       </c>
       <c r="D324">
-        <v>23.339769</v>
+        <v>24.359444</v>
       </c>
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
-        <v>171</v>
+        <v>666</v>
       </c>
       <c r="B325" t="s">
-        <v>172</v>
+        <v>785</v>
       </c>
       <c r="C325">
-        <v>55.791389000000002</v>
+        <v>59.385455999999998</v>
       </c>
       <c r="D325">
-        <v>37.516111000000002</v>
+        <v>24.659603000000001</v>
       </c>
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
-        <v>384</v>
+        <v>662</v>
       </c>
       <c r="B326" t="s">
-        <v>385</v>
+        <v>663</v>
       </c>
       <c r="C326">
-        <v>42.705466999999999</v>
+        <v>59.421292000000001</v>
       </c>
       <c r="D326">
-        <v>23.363197</v>
+        <v>24.732050000000001</v>
       </c>
     </row>
     <row r="327" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
-        <v>394</v>
+        <v>384</v>
       </c>
       <c r="B327" t="s">
-        <v>395</v>
+        <v>385</v>
       </c>
       <c r="C327">
-        <v>42.133889000000003</v>
+        <v>42.139861000000003</v>
       </c>
       <c r="D327">
-        <v>24.771667000000001</v>
+        <v>24.764444000000001</v>
       </c>
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B328" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C328">
-        <v>43.533611110000002</v>
+        <v>42.133889000000003</v>
       </c>
       <c r="D328">
-        <v>26.5275</v>
+        <v>24.771667000000001</v>
       </c>
     </row>
     <row r="329" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
-        <v>389</v>
+        <v>660</v>
       </c>
       <c r="B329" t="s">
-        <v>390</v>
+        <v>661</v>
       </c>
       <c r="C329">
-        <v>42.675361000000002</v>
+        <v>59.434472221999997</v>
       </c>
       <c r="D329">
-        <v>23.272027999999999</v>
+        <v>24.783444444000001</v>
       </c>
     </row>
     <row r="330" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
-        <v>177</v>
+        <v>664</v>
       </c>
       <c r="B330" t="s">
-        <v>178</v>
+        <v>661</v>
       </c>
       <c r="C330">
-        <v>43.401769444999999</v>
+        <v>59.434472221999997</v>
       </c>
       <c r="D330">
-        <v>39.955858093000003</v>
+        <v>24.783444444000001</v>
       </c>
     </row>
     <row r="331" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
-        <v>669</v>
+        <v>551</v>
       </c>
       <c r="B331" t="s">
-        <v>670</v>
+        <v>814</v>
       </c>
       <c r="C331">
-        <v>58.878450000000001</v>
+        <v>60.186893980000001</v>
       </c>
       <c r="D331">
-        <v>25.54063</v>
+        <v>24.926062420000001</v>
       </c>
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.3">
@@ -7561,615 +7561,615 @@
         <v>259</v>
       </c>
       <c r="B332" t="s">
-        <v>260</v>
+        <v>816</v>
       </c>
       <c r="C332">
-        <v>37.987169444000003</v>
+        <v>35.336666665999999</v>
       </c>
       <c r="D332">
-        <v>23.754194443999999</v>
+        <v>25.106111111000001</v>
       </c>
     </row>
     <row r="333" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
-        <v>262</v>
+        <v>526</v>
       </c>
       <c r="B333" t="s">
-        <v>263</v>
+        <v>521</v>
       </c>
       <c r="C333">
-        <v>37.943033329999999</v>
+        <v>54.668610999999999</v>
       </c>
       <c r="D333">
-        <v>23.709225</v>
+        <v>25.294443999999999</v>
       </c>
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
-        <v>251</v>
+        <v>520</v>
       </c>
       <c r="B334" t="s">
-        <v>252</v>
+        <v>521</v>
       </c>
       <c r="C334">
-        <v>40.613838999999999</v>
+        <v>54.668610999999999</v>
       </c>
       <c r="D334">
-        <v>22.972422000000002</v>
+        <v>25.294443999999999</v>
       </c>
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
-        <v>88</v>
+        <v>524</v>
       </c>
       <c r="B335" t="s">
-        <v>89</v>
+        <v>521</v>
       </c>
       <c r="C335">
-        <v>48.841388887999997</v>
+        <v>54.668610999999999</v>
       </c>
       <c r="D335">
-        <v>2.253055555</v>
+        <v>25.294443999999999</v>
       </c>
     </row>
     <row r="336" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
-        <v>647</v>
+        <v>667</v>
       </c>
       <c r="B336" t="s">
-        <v>640</v>
+        <v>668</v>
       </c>
       <c r="C336">
-        <v>41.31898056</v>
+        <v>58.878450000000001</v>
       </c>
       <c r="D336">
-        <v>19.811383330000002</v>
+        <v>25.54063</v>
       </c>
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
-        <v>453</v>
+        <v>549</v>
       </c>
       <c r="B337" t="s">
-        <v>454</v>
+        <v>550</v>
       </c>
       <c r="C337">
-        <v>50.306583000000003</v>
+        <v>60.983055999999998</v>
       </c>
       <c r="D337">
-        <v>18.695865999999999</v>
+        <v>25.634167000000001</v>
       </c>
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
-        <v>439</v>
+        <v>552</v>
       </c>
       <c r="B338" t="s">
-        <v>440</v>
+        <v>817</v>
       </c>
       <c r="C338">
-        <v>53.436576109999997</v>
+        <v>66.499700000000004</v>
       </c>
       <c r="D338">
-        <v>14.51865806</v>
+        <v>25.721699999999998</v>
       </c>
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
-        <v>125</v>
+        <v>400</v>
       </c>
       <c r="B339" t="s">
-        <v>126</v>
+        <v>399</v>
       </c>
       <c r="C339">
-        <v>51.441699999999997</v>
+        <v>45.862916669999997</v>
       </c>
       <c r="D339">
-        <v>5.4673999999999996</v>
+        <v>25.776138889999999</v>
       </c>
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
-        <v>219</v>
+        <v>391</v>
       </c>
       <c r="B340" t="s">
-        <v>805</v>
+        <v>331</v>
       </c>
       <c r="C340">
-        <v>50.414608999999999</v>
+        <v>43.848056</v>
       </c>
       <c r="D340">
-        <v>4.4537870000000002</v>
+        <v>25.963056000000002</v>
       </c>
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
-        <v>222</v>
-      </c>
-      <c r="B341" t="s">
-        <v>223</v>
-      </c>
-      <c r="C341">
-        <v>19.448805555</v>
-      </c>
-      <c r="D341">
-        <v>-72.682000000000002</v>
+        <v>394</v>
+      </c>
+      <c r="B341" s="4" t="s">
+        <v>395</v>
+      </c>
+      <c r="C341" s="4">
+        <v>43.896110999999998</v>
+      </c>
+      <c r="D341" s="4">
+        <v>25.981389</v>
       </c>
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
-        <v>563</v>
+        <v>403</v>
       </c>
       <c r="B342" t="s">
-        <v>564</v>
+        <v>404</v>
       </c>
       <c r="C342">
-        <v>49.604722221999999</v>
+        <v>44.455083000000002</v>
       </c>
       <c r="D342">
-        <v>6.1402777769999997</v>
+        <v>26.102443999999998</v>
       </c>
     </row>
     <row r="343" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
-        <v>326</v>
+        <v>401</v>
       </c>
       <c r="B343" t="s">
-        <v>315</v>
+        <v>402</v>
       </c>
       <c r="C343">
-        <v>56.465833330000002</v>
+        <v>44.437199999999997</v>
       </c>
       <c r="D343">
-        <v>10.010277779999999</v>
+        <v>26.1525</v>
       </c>
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
-        <v>158</v>
+        <v>389</v>
       </c>
       <c r="B344" t="s">
-        <v>159</v>
+        <v>390</v>
       </c>
       <c r="C344">
-        <v>55.853055554999997</v>
+        <v>43.533611110000002</v>
       </c>
       <c r="D344">
-        <v>-4.3091666660000003</v>
+        <v>26.5275</v>
       </c>
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
-        <v>76</v>
+        <v>398</v>
       </c>
       <c r="B345" t="s">
-        <v>77</v>
+        <v>399</v>
       </c>
       <c r="C345">
-        <v>51.345832999999999</v>
+        <v>47.7483</v>
       </c>
       <c r="D345">
-        <v>12.348056</v>
+        <v>26.651900000000001</v>
       </c>
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
-        <v>98</v>
+        <v>491</v>
       </c>
       <c r="B346" t="s">
-        <v>99</v>
+        <v>492</v>
       </c>
       <c r="C346">
-        <v>48.560063999999997</v>
+        <v>52.798611111</v>
       </c>
       <c r="D346">
-        <v>7.754969</v>
+        <v>27.538194443999998</v>
       </c>
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
-        <v>30</v>
+        <v>499</v>
       </c>
       <c r="B347" t="s">
-        <v>804</v>
+        <v>500</v>
       </c>
       <c r="C347">
-        <v>41.347861000000002</v>
+        <v>53.895138887999998</v>
       </c>
       <c r="D347">
-        <v>2.0756670000000002</v>
+        <v>27.560277777</v>
       </c>
     </row>
     <row r="348" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
-        <v>42</v>
+        <v>346</v>
       </c>
       <c r="B348" t="s">
-        <v>43</v>
+        <v>806</v>
       </c>
       <c r="C348">
-        <v>37.351700000000001</v>
+        <v>38.920900000000003</v>
       </c>
       <c r="D348">
-        <v>-5.9822199999999999</v>
+        <v>27.811800000000002</v>
       </c>
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
-        <v>35</v>
+        <v>513</v>
       </c>
       <c r="B349" t="s">
-        <v>824</v>
+        <v>514</v>
       </c>
       <c r="C349">
-        <v>40.453052999999997</v>
+        <v>47.078930999999997</v>
       </c>
       <c r="D349">
-        <v>-3.6883439999999998</v>
+        <v>28.180499000000001</v>
       </c>
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
-        <v>27</v>
+        <v>665</v>
       </c>
       <c r="B350" t="s">
-        <v>28</v>
+        <v>800</v>
       </c>
       <c r="C350">
-        <v>43.301378</v>
+        <v>59.36347</v>
       </c>
       <c r="D350">
-        <v>-1.973617</v>
+        <v>28.184650000000001</v>
       </c>
     </row>
     <row r="351" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
-        <v>187</v>
+        <v>489</v>
       </c>
       <c r="B351" t="s">
-        <v>186</v>
+        <v>784</v>
       </c>
       <c r="C351">
-        <v>44.783200000000001</v>
+        <v>54.092361111000002</v>
       </c>
       <c r="D351">
-        <v>20.464914</v>
+        <v>28.319722221999999</v>
       </c>
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
-        <v>573</v>
+        <v>495</v>
       </c>
       <c r="B352" t="s">
-        <v>574</v>
+        <v>496</v>
       </c>
       <c r="C352">
-        <v>56.961371999999997</v>
+        <v>54.192777777000003</v>
       </c>
       <c r="D352">
-        <v>24.116408</v>
+        <v>28.475694443999998</v>
       </c>
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
-        <v>114</v>
+        <v>407</v>
       </c>
       <c r="B353" t="s">
-        <v>115</v>
+        <v>408</v>
       </c>
       <c r="C353">
-        <v>41.362755999999997</v>
+        <v>44.263888889999997</v>
       </c>
       <c r="D353">
-        <v>-8.7401859999999996</v>
+        <v>28.555833329999999</v>
       </c>
     </row>
     <row r="354" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
-        <v>302</v>
+        <v>503</v>
       </c>
       <c r="B354" t="s">
-        <v>303</v>
+        <v>504</v>
       </c>
       <c r="C354">
-        <v>63.412500000000001</v>
+        <v>46.984400000000001</v>
       </c>
       <c r="D354">
-        <v>10.404999999999999</v>
+        <v>28.667000000000002</v>
       </c>
     </row>
     <row r="355" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
-        <v>230</v>
+        <v>340</v>
       </c>
       <c r="B355" t="s">
-        <v>231</v>
+        <v>341</v>
       </c>
       <c r="C355">
-        <v>51.232700000000001</v>
+        <v>41.074472221999997</v>
       </c>
       <c r="D355">
-        <v>4.4715749999999996</v>
+        <v>28.765702777000001</v>
       </c>
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
-        <v>217</v>
+        <v>511</v>
       </c>
       <c r="B356" t="s">
-        <v>218</v>
+        <v>512</v>
       </c>
       <c r="C356">
-        <v>50.834167000000001</v>
+        <v>47.374400000000001</v>
       </c>
       <c r="D356">
-        <v>4.2983330000000004</v>
+        <v>28.819199999999999</v>
       </c>
     </row>
     <row r="357" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
-        <v>167</v>
+        <v>501</v>
       </c>
       <c r="B357" t="s">
-        <v>168</v>
+        <v>502</v>
       </c>
       <c r="C357">
-        <v>55.796944000000003</v>
+        <v>46.980277999999998</v>
       </c>
       <c r="D357">
-        <v>49.098889</v>
+        <v>28.866944</v>
       </c>
     </row>
     <row r="358" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
-        <v>111</v>
+        <v>349</v>
       </c>
       <c r="B358" t="s">
-        <v>794</v>
+        <v>350</v>
       </c>
       <c r="C358">
-        <v>41.562399999999997</v>
+        <v>41.103388887999998</v>
       </c>
       <c r="D358">
-        <v>-8.4307999999999996</v>
+        <v>28.991</v>
       </c>
     </row>
     <row r="359" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
-        <v>763</v>
+        <v>344</v>
       </c>
       <c r="B359" t="s">
-        <v>50</v>
+        <v>345</v>
       </c>
       <c r="C359">
-        <v>43.971249999999998</v>
+        <v>41.039166666</v>
       </c>
       <c r="D359">
-        <v>12.476972</v>
+        <v>28.994166666000002</v>
       </c>
     </row>
     <row r="360" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A360" t="s">
-        <v>54</v>
+        <v>342</v>
       </c>
       <c r="B360" t="s">
-        <v>189</v>
+        <v>343</v>
       </c>
       <c r="C360">
-        <v>40.827967000000001</v>
+        <v>40.987499999999997</v>
       </c>
       <c r="D360">
-        <v>14.193008000000001</v>
+        <v>29.036666665999999</v>
       </c>
     </row>
     <row r="361" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A361" t="s">
-        <v>419</v>
+        <v>509</v>
       </c>
       <c r="B361" t="s">
-        <v>420</v>
+        <v>510</v>
       </c>
       <c r="C361">
-        <v>40.332217</v>
+        <v>46.81194</v>
       </c>
       <c r="D361">
-        <v>49.817664000000001</v>
+        <v>29.552779999999998</v>
       </c>
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A362" t="s">
-        <v>295</v>
+        <v>505</v>
       </c>
       <c r="B362" t="s">
-        <v>296</v>
+        <v>506</v>
       </c>
       <c r="C362">
-        <v>59.286217000000001</v>
+        <v>46.838332999999999</v>
       </c>
       <c r="D362">
-        <v>11.097607999999999</v>
+        <v>29.557500000000001</v>
       </c>
     </row>
     <row r="363" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A363" t="s">
-        <v>403</v>
+        <v>210</v>
       </c>
       <c r="B363" t="s">
-        <v>404</v>
+        <v>211</v>
       </c>
       <c r="C363">
-        <v>44.437199999999997</v>
+        <v>49.985833333000002</v>
       </c>
       <c r="D363">
-        <v>26.1525</v>
+        <v>30.008333332999999</v>
       </c>
     </row>
     <row r="364" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A364" t="s">
-        <v>120</v>
+        <v>168</v>
       </c>
       <c r="B364" t="s">
-        <v>775</v>
+        <v>169</v>
       </c>
       <c r="C364">
-        <v>51.962499999999999</v>
+        <v>59.972952999999997</v>
       </c>
       <c r="D364">
-        <v>5.8930559999999996</v>
+        <v>30.220533</v>
       </c>
     </row>
     <row r="365" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A365" t="s">
-        <v>64</v>
+        <v>497</v>
       </c>
       <c r="B365" t="s">
-        <v>65</v>
+        <v>498</v>
       </c>
       <c r="C365">
-        <v>47.988889</v>
+        <v>55.198472221999999</v>
       </c>
       <c r="D365">
-        <v>7.8930559999999996</v>
+        <v>30.229305555</v>
       </c>
     </row>
     <row r="366" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A366" t="s">
-        <v>133</v>
+        <v>212</v>
       </c>
       <c r="B366" t="s">
-        <v>795</v>
+        <v>213</v>
       </c>
       <c r="C366">
-        <v>47.3536</v>
+        <v>50.433333333</v>
       </c>
       <c r="D366">
-        <v>9.6372</v>
+        <v>30.521666666000002</v>
       </c>
     </row>
     <row r="367" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A367" t="s">
-        <v>402</v>
+        <v>200</v>
       </c>
       <c r="B367" t="s">
-        <v>401</v>
+        <v>201</v>
       </c>
       <c r="C367">
-        <v>45.862916669999997</v>
+        <v>51.501666669999999</v>
       </c>
       <c r="D367">
-        <v>25.776138889999999</v>
+        <v>31.327222219999999</v>
       </c>
     </row>
     <row r="368" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A368" t="s">
-        <v>237</v>
+        <v>334</v>
       </c>
       <c r="B368" t="s">
-        <v>238</v>
+        <v>335</v>
       </c>
       <c r="C368">
-        <v>46.177778000000004</v>
+        <v>36.562600000000003</v>
       </c>
       <c r="D368">
-        <v>6.1275000000000004</v>
+        <v>32.079099999999997</v>
       </c>
     </row>
     <row r="369" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A369" t="s">
-        <v>31</v>
+        <v>338</v>
       </c>
       <c r="B369" t="s">
-        <v>32</v>
+        <v>339</v>
       </c>
       <c r="C369">
-        <v>37.383878000000003</v>
+        <v>37.865389</v>
       </c>
       <c r="D369">
-        <v>-5.9704670000000002</v>
+        <v>32.483277999999999</v>
       </c>
     </row>
     <row r="370" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A370" t="s">
-        <v>622</v>
+        <v>290</v>
       </c>
       <c r="B370" t="s">
-        <v>623</v>
+        <v>284</v>
       </c>
       <c r="C370">
-        <v>53.283499999999997</v>
+        <v>34.700913999999997</v>
       </c>
       <c r="D370">
-        <v>-6.3737399999999997</v>
+        <v>33.022975000000002</v>
       </c>
     </row>
     <row r="371" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A371" t="s">
-        <v>609</v>
+        <v>283</v>
       </c>
       <c r="B371" t="s">
-        <v>610</v>
+        <v>284</v>
       </c>
       <c r="C371">
-        <v>40.785832999999997</v>
+        <v>34.700913999999997</v>
       </c>
       <c r="D371">
-        <v>43.833333000000003</v>
+        <v>33.022975000000002</v>
       </c>
     </row>
     <row r="372" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A372" t="s">
-        <v>695</v>
+        <v>202</v>
       </c>
       <c r="B372" t="s">
-        <v>696</v>
+        <v>203</v>
       </c>
       <c r="C372">
-        <v>35.945300000000003</v>
+        <v>48.674722000000003</v>
       </c>
       <c r="D372">
-        <v>14.4148</v>
+        <v>33.103611000000001</v>
       </c>
     </row>
     <row r="373" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A373" t="s">
-        <v>338</v>
+        <v>287</v>
       </c>
       <c r="B373" t="s">
-        <v>339</v>
+        <v>786</v>
       </c>
       <c r="C373">
-        <v>39.728611999999998</v>
+        <v>35.114542</v>
       </c>
       <c r="D373">
-        <v>36.984065000000001</v>
+        <v>33.362864000000002</v>
       </c>
     </row>
     <row r="374" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A374" t="s">
-        <v>300</v>
+        <v>288</v>
       </c>
       <c r="B374" t="s">
-        <v>301</v>
+        <v>289</v>
       </c>
       <c r="C374">
-        <v>60.366388888000003</v>
+        <v>34.926299999999998</v>
       </c>
       <c r="D374">
-        <v>5.3569444439999998</v>
+        <v>33.597747222000002</v>
       </c>
     </row>
     <row r="375" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A375" t="s">
-        <v>143</v>
+        <v>285</v>
       </c>
       <c r="B375" t="s">
-        <v>144</v>
+        <v>286</v>
       </c>
       <c r="C375">
-        <v>48.198099999999997</v>
+        <v>34.937421999999998</v>
       </c>
       <c r="D375">
-        <v>16.2653</v>
+        <v>33.620922</v>
       </c>
     </row>
     <row r="376" spans="1:4" x14ac:dyDescent="0.3">
@@ -8177,840 +8177,843 @@
         <v>282</v>
       </c>
       <c r="B376" t="s">
-        <v>283</v>
+        <v>797</v>
       </c>
       <c r="C376">
-        <v>49.6</v>
+        <v>35.033889000000002</v>
       </c>
       <c r="D376">
-        <v>17.248332999999999</v>
+        <v>33.765000000000001</v>
       </c>
     </row>
     <row r="377" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A377" t="s">
-        <v>278</v>
+        <v>208</v>
       </c>
       <c r="B377" t="s">
-        <v>279</v>
+        <v>209</v>
       </c>
       <c r="C377">
-        <v>50.066943999999999</v>
+        <v>49.594833000000001</v>
       </c>
       <c r="D377">
-        <v>14.471389</v>
+        <v>34.549444000000001</v>
       </c>
     </row>
     <row r="378" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A378" t="s">
-        <v>467</v>
-      </c>
-      <c r="B378" t="s">
-        <v>468</v>
-      </c>
-      <c r="C378">
-        <v>48.166111000000001</v>
-      </c>
-      <c r="D378">
-        <v>17.141110999999999</v>
+        <v>355</v>
+      </c>
+      <c r="B378" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="C378" s="4">
+        <v>31.810300000000002</v>
+      </c>
+      <c r="D378" s="4">
+        <v>34.648299999999999</v>
       </c>
     </row>
     <row r="379" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A379" t="s">
-        <v>138</v>
-      </c>
-      <c r="B379" t="s">
-        <v>139</v>
-      </c>
-      <c r="C379">
-        <v>47.046111000000003</v>
-      </c>
-      <c r="D379">
-        <v>15.454444000000001</v>
+        <v>359</v>
+      </c>
+      <c r="B379" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="C379" s="4">
+        <v>32.051729999999999</v>
+      </c>
+      <c r="D379" s="4">
+        <v>34.761479999999999</v>
       </c>
     </row>
     <row r="380" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A380" t="s">
-        <v>118</v>
-      </c>
-      <c r="B380" t="s">
-        <v>119</v>
-      </c>
-      <c r="C380">
-        <v>38.752677777000002</v>
-      </c>
-      <c r="D380">
-        <v>-9.1846805549999999</v>
+        <v>353</v>
+      </c>
+      <c r="B380" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="C380" s="4">
+        <v>32.051729999999999</v>
+      </c>
+      <c r="D380" s="4">
+        <v>34.761479999999999</v>
       </c>
     </row>
     <row r="381" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A381" t="s">
-        <v>445</v>
+        <v>357</v>
       </c>
       <c r="B381" t="s">
-        <v>446</v>
+        <v>358</v>
       </c>
       <c r="C381">
-        <v>51.141796999999997</v>
+        <v>31.273099999999999</v>
       </c>
       <c r="D381">
-        <v>16.944094</v>
+        <v>34.779400000000003</v>
       </c>
     </row>
     <row r="382" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A382" t="s">
-        <v>620</v>
-      </c>
-      <c r="B382" t="s">
-        <v>621</v>
-      </c>
-      <c r="C382">
-        <v>54.270041999999997</v>
-      </c>
-      <c r="D382">
-        <v>-8.4872329999999998</v>
+        <v>364</v>
+      </c>
+      <c r="B382" s="4" t="s">
+        <v>363</v>
+      </c>
+      <c r="C382" s="4">
+        <v>32.783111110999997</v>
+      </c>
+      <c r="D382" s="4">
+        <v>34.965166666000002</v>
       </c>
     </row>
     <row r="383" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A383" t="s">
-        <v>314</v>
+        <v>362</v>
       </c>
       <c r="B383" t="s">
-        <v>789</v>
+        <v>363</v>
       </c>
       <c r="C383">
-        <v>55.261358999999999</v>
+        <v>32.783111110999997</v>
       </c>
       <c r="D383">
-        <v>9.4877909999999996</v>
+        <v>34.965166666000002</v>
       </c>
     </row>
     <row r="384" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A384" t="s">
-        <v>764</v>
-      </c>
-      <c r="B384" t="s">
-        <v>50</v>
-      </c>
-      <c r="C384">
-        <v>43.971249999999998</v>
-      </c>
-      <c r="D384">
-        <v>12.476972</v>
+        <v>360</v>
+      </c>
+      <c r="B384" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="C384" s="4">
+        <v>31.751166666</v>
+      </c>
+      <c r="D384" s="4">
+        <v>35.190616665999997</v>
       </c>
     </row>
     <row r="385" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A385" t="s">
-        <v>767</v>
+        <v>336</v>
       </c>
       <c r="B385" t="s">
-        <v>50</v>
+        <v>337</v>
       </c>
       <c r="C385">
-        <v>43.971249999999998</v>
+        <v>39.728611999999998</v>
       </c>
       <c r="D385">
-        <v>12.476972</v>
+        <v>36.984065000000001</v>
       </c>
     </row>
     <row r="386" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A386" t="s">
-        <v>765</v>
+        <v>180</v>
       </c>
       <c r="B386" t="s">
-        <v>766</v>
+        <v>181</v>
       </c>
       <c r="C386">
-        <v>43.929600000000001</v>
+        <v>55.817799999999998</v>
       </c>
       <c r="D386">
-        <v>12.4427</v>
+        <v>37.440300000000001</v>
       </c>
     </row>
     <row r="387" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A387" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="B387" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="C387">
-        <v>55.817799999999998</v>
+        <v>55.791389000000002</v>
       </c>
       <c r="D387">
-        <v>37.440300000000001</v>
+        <v>37.516111000000002</v>
       </c>
     </row>
     <row r="388" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A388" t="s">
-        <v>515</v>
+        <v>214</v>
       </c>
       <c r="B388" t="s">
-        <v>516</v>
+        <v>215</v>
       </c>
       <c r="C388">
-        <v>47.078930999999997</v>
+        <v>47.143721999999997</v>
       </c>
       <c r="D388">
-        <v>28.180499000000001</v>
+        <v>37.558332999999998</v>
       </c>
     </row>
     <row r="389" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A389" t="s">
-        <v>113</v>
+        <v>178</v>
       </c>
       <c r="B389" t="s">
-        <v>112</v>
+        <v>179</v>
       </c>
       <c r="C389">
-        <v>38.761194443999997</v>
+        <v>55.791400000000003</v>
       </c>
       <c r="D389">
-        <v>-9.1607833329999995</v>
+        <v>37.559699999999999</v>
       </c>
     </row>
     <row r="390" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A390" t="s">
-        <v>55</v>
-      </c>
-      <c r="B390" t="s">
-        <v>50</v>
-      </c>
-      <c r="C390">
-        <v>41.933872000000001</v>
-      </c>
-      <c r="D390">
-        <v>12.454713999999999</v>
+        <v>174</v>
+      </c>
+      <c r="B390" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="C390" s="4">
+        <v>54.174166999999997</v>
+      </c>
+      <c r="D390" s="4">
+        <v>37.603056000000002</v>
       </c>
     </row>
     <row r="391" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A391" t="s">
-        <v>161</v>
-      </c>
-      <c r="B391" t="s">
-        <v>162</v>
-      </c>
-      <c r="C391">
-        <v>56.409686000000001</v>
-      </c>
-      <c r="D391">
-        <v>-3.476928</v>
+        <v>164</v>
+      </c>
+      <c r="B391" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="C391" s="4">
+        <v>55.803550000000001</v>
+      </c>
+      <c r="D391" s="4">
+        <v>37.741168999999999</v>
       </c>
     </row>
     <row r="392" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A392" t="s">
-        <v>728</v>
+        <v>206</v>
       </c>
       <c r="B392" t="s">
-        <v>729</v>
+        <v>207</v>
       </c>
       <c r="C392">
-        <v>36.149355999999997</v>
+        <v>47.961399999999998</v>
       </c>
       <c r="D392">
-        <v>-5.3503420000000004</v>
+        <v>37.808</v>
       </c>
     </row>
     <row r="393" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A393" t="s">
-        <v>613</v>
+        <v>198</v>
       </c>
       <c r="B393" t="s">
-        <v>614</v>
+        <v>199</v>
       </c>
       <c r="C393">
-        <v>53.340921999999999</v>
+        <v>48.020833000000003</v>
       </c>
       <c r="D393">
-        <v>-6.3166190000000002</v>
+        <v>37.809722000000001</v>
       </c>
     </row>
     <row r="394" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A394" t="s">
-        <v>82</v>
+        <v>351</v>
       </c>
       <c r="B394" t="s">
-        <v>83</v>
+        <v>352</v>
       </c>
       <c r="C394">
-        <v>49.246667000000002</v>
+        <v>38.352178000000002</v>
       </c>
       <c r="D394">
-        <v>4.0250000000000004</v>
+        <v>38.330494000000002</v>
       </c>
     </row>
     <row r="395" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A395" t="s">
-        <v>100</v>
+        <v>162</v>
       </c>
       <c r="B395" t="s">
-        <v>101</v>
+        <v>163</v>
       </c>
       <c r="C395">
-        <v>48.107472221999998</v>
+        <v>45.025277776999999</v>
       </c>
       <c r="D395">
-        <v>-1.712861111</v>
+        <v>38.999444443999998</v>
       </c>
     </row>
     <row r="396" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A396" t="s">
-        <v>220</v>
+        <v>204</v>
       </c>
       <c r="B396" t="s">
-        <v>221</v>
+        <v>205</v>
       </c>
       <c r="C396">
-        <v>50.609907999999997</v>
+        <v>48.559443999999999</v>
       </c>
       <c r="D396">
-        <v>5.5433440000000003</v>
+        <v>39.321111000000002</v>
       </c>
     </row>
     <row r="397" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A397" t="s">
-        <v>734</v>
+        <v>347</v>
       </c>
       <c r="B397" t="s">
-        <v>735</v>
+        <v>348</v>
       </c>
       <c r="C397">
-        <v>64.087423000000001</v>
+        <v>40.998699999999999</v>
       </c>
       <c r="D397">
-        <v>-21.928864999999998</v>
+        <v>39.646299999999997</v>
       </c>
     </row>
     <row r="398" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A398" t="s">
-        <v>411</v>
+        <v>182</v>
       </c>
       <c r="B398" t="s">
-        <v>412</v>
+        <v>183</v>
       </c>
       <c r="C398">
-        <v>40.601388999999998</v>
+        <v>47.243011109999998</v>
       </c>
       <c r="D398">
-        <v>49.674722000000003</v>
+        <v>39.76105278</v>
       </c>
     </row>
     <row r="399" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A399" t="s">
-        <v>228</v>
+        <v>176</v>
       </c>
       <c r="B399" t="s">
-        <v>229</v>
+        <v>177</v>
       </c>
       <c r="C399">
-        <v>50.883056000000003</v>
+        <v>43.401769444999999</v>
       </c>
       <c r="D399">
-        <v>3.4288889999999999</v>
+        <v>39.955858093000003</v>
       </c>
     </row>
     <row r="400" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A400" t="s">
-        <v>648</v>
+        <v>676</v>
       </c>
       <c r="B400" t="s">
-        <v>649</v>
+        <v>677</v>
       </c>
       <c r="C400">
-        <v>41.325833330000002</v>
+        <v>41.812981000000001</v>
       </c>
       <c r="D400">
-        <v>19.449444440000001</v>
+        <v>41.774458000000003</v>
       </c>
     </row>
     <row r="401" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A401" t="s">
-        <v>718</v>
+        <v>682</v>
       </c>
       <c r="B401" t="s">
-        <v>719</v>
+        <v>683</v>
       </c>
       <c r="C401">
-        <v>52.875900000000001</v>
+        <v>42.16084</v>
       </c>
       <c r="D401">
-        <v>-3.0263100000000001</v>
+        <v>42.330640000000002</v>
       </c>
     </row>
     <row r="402" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A402" t="s">
-        <v>44</v>
+        <v>680</v>
       </c>
       <c r="B402" t="s">
-        <v>45</v>
+        <v>490</v>
       </c>
       <c r="C402">
-        <v>45.041666999999997</v>
+        <v>42.255141666</v>
       </c>
       <c r="D402">
-        <v>7.65</v>
+        <v>42.683086111000001</v>
       </c>
     </row>
     <row r="403" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A403" t="s">
-        <v>17</v>
+        <v>607</v>
       </c>
       <c r="B403" t="s">
-        <v>18</v>
+        <v>608</v>
       </c>
       <c r="C403">
-        <v>51.604444444000002</v>
+        <v>40.785832999999997</v>
       </c>
       <c r="D403">
-        <v>-6.6388887999999993E-2</v>
+        <v>43.833333000000003</v>
       </c>
     </row>
     <row r="404" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A404" t="s">
-        <v>349</v>
+        <v>671</v>
       </c>
       <c r="B404" t="s">
-        <v>350</v>
+        <v>672</v>
       </c>
       <c r="C404">
-        <v>40.998699999999999</v>
+        <v>41.983018999999999</v>
       </c>
       <c r="D404">
-        <v>39.646299999999997</v>
+        <v>44.103828</v>
       </c>
     </row>
     <row r="405" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A405" t="s">
-        <v>60</v>
+        <v>605</v>
       </c>
       <c r="B405" t="s">
-        <v>61</v>
+        <v>606</v>
       </c>
       <c r="C405">
-        <v>49.238999999999997</v>
+        <v>40.171425999999997</v>
       </c>
       <c r="D405">
-        <v>8.8882779999999997</v>
+        <v>44.449938000000003</v>
       </c>
     </row>
     <row r="406" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A406" t="s">
-        <v>136</v>
+        <v>596</v>
       </c>
       <c r="B406" t="s">
-        <v>137</v>
+        <v>606</v>
       </c>
       <c r="C406">
-        <v>47.280999999999999</v>
+        <v>40.171425999999997</v>
       </c>
       <c r="D406">
-        <v>15.9772</v>
+        <v>44.449938000000003</v>
       </c>
     </row>
     <row r="407" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A407" t="s">
-        <v>757</v>
+        <v>598</v>
       </c>
       <c r="B407" t="s">
-        <v>758</v>
+        <v>597</v>
       </c>
       <c r="C407">
-        <v>42.476388999999998</v>
+        <v>40.154604999999997</v>
       </c>
       <c r="D407">
-        <v>1.4876670000000001</v>
+        <v>44.475231000000001</v>
       </c>
     </row>
     <row r="408" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A408" t="s">
-        <v>759</v>
+        <v>599</v>
       </c>
       <c r="B408" t="s">
-        <v>758</v>
+        <v>597</v>
       </c>
       <c r="C408">
-        <v>42.476388999999998</v>
+        <v>40.154604999999997</v>
       </c>
       <c r="D408">
-        <v>1.4876670000000001</v>
+        <v>44.475231000000001</v>
       </c>
     </row>
     <row r="409" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A409" t="s">
-        <v>425</v>
+        <v>594</v>
       </c>
       <c r="B409" t="s">
-        <v>426</v>
+        <v>595</v>
       </c>
       <c r="C409">
-        <v>47.574891999999998</v>
+        <v>40.149372999999997</v>
       </c>
       <c r="D409">
-        <v>19.08465</v>
+        <v>44.476449000000002</v>
       </c>
     </row>
     <row r="410" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A410" t="s">
-        <v>567</v>
+        <v>600</v>
       </c>
       <c r="B410" t="s">
-        <v>568</v>
+        <v>601</v>
       </c>
       <c r="C410">
-        <v>49.557211111000001</v>
+        <v>40.171944000000003</v>
       </c>
       <c r="D410">
-        <v>5.8564861109999997</v>
+        <v>44.525832999999999</v>
       </c>
     </row>
     <row r="411" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A411" t="s">
-        <v>409</v>
+        <v>602</v>
       </c>
       <c r="B411" t="s">
-        <v>410</v>
+        <v>601</v>
       </c>
       <c r="C411">
-        <v>44.263888889999997</v>
+        <v>40.171944000000003</v>
       </c>
       <c r="D411">
-        <v>28.555833329999999</v>
+        <v>44.525832999999999</v>
       </c>
     </row>
     <row r="412" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A412" t="s">
-        <v>545</v>
+        <v>678</v>
       </c>
       <c r="B412" t="s">
-        <v>811</v>
+        <v>679</v>
       </c>
       <c r="C412">
-        <v>63.085278000000002</v>
+        <v>41.709617000000001</v>
       </c>
       <c r="D412">
-        <v>21.627777999999999</v>
+        <v>44.746246999999997</v>
       </c>
     </row>
     <row r="413" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A413" t="s">
-        <v>29</v>
+        <v>681</v>
       </c>
       <c r="B413" t="s">
-        <v>825</v>
+        <v>679</v>
       </c>
       <c r="C413">
-        <v>39.466667000000001</v>
+        <v>41.709617000000001</v>
       </c>
       <c r="D413">
-        <v>-0.375</v>
+        <v>44.746246999999997</v>
       </c>
     </row>
     <row r="414" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A414" t="s">
-        <v>691</v>
+        <v>674</v>
       </c>
       <c r="B414" t="s">
-        <v>687</v>
+        <v>675</v>
       </c>
       <c r="C414">
-        <v>35.894863888000003</v>
+        <v>41.722999999999999</v>
       </c>
       <c r="D414">
-        <v>14.415372222</v>
+        <v>44.789749999999998</v>
       </c>
     </row>
     <row r="415" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A415" t="s">
-        <v>62</v>
+        <v>669</v>
       </c>
       <c r="B415" t="s">
-        <v>63</v>
+        <v>670</v>
       </c>
       <c r="C415">
-        <v>52.431944000000001</v>
+        <v>41.674824000000001</v>
       </c>
       <c r="D415">
-        <v>10.803889</v>
+        <v>44.859751000000003</v>
       </c>
     </row>
     <row r="416" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A416" t="s">
-        <v>310</v>
+        <v>603</v>
       </c>
       <c r="B416" t="s">
-        <v>311</v>
+        <v>604</v>
       </c>
       <c r="C416">
-        <v>58.914611000000001</v>
+        <v>39.207787000000003</v>
       </c>
       <c r="D416">
-        <v>5.730442</v>
+        <v>46.400674000000002</v>
       </c>
     </row>
     <row r="417" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A417" t="s">
-        <v>25</v>
+        <v>421</v>
       </c>
       <c r="B417" t="s">
-        <v>26</v>
+        <v>422</v>
       </c>
       <c r="C417">
-        <v>39.944167</v>
+        <v>40.985194444000001</v>
       </c>
       <c r="D417">
-        <v>-0.10361099999999999</v>
+        <v>47.842500000000001</v>
       </c>
     </row>
     <row r="418" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A418" t="s">
-        <v>116</v>
+        <v>166</v>
       </c>
       <c r="B418" t="s">
-        <v>117</v>
+        <v>167</v>
       </c>
       <c r="C418">
-        <v>41.445833</v>
+        <v>55.796944000000003</v>
       </c>
       <c r="D418">
-        <v>-8.3011110000000006</v>
+        <v>49.098889</v>
       </c>
     </row>
     <row r="419" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A419" t="s">
-        <v>322</v>
+        <v>409</v>
       </c>
       <c r="B419" t="s">
-        <v>323</v>
+        <v>410</v>
       </c>
       <c r="C419">
-        <v>56.190899999999999</v>
+        <v>40.601388999999998</v>
       </c>
       <c r="D419">
-        <v>10.209300000000001</v>
+        <v>49.674722000000003</v>
       </c>
     </row>
     <row r="420" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A420" t="s">
-        <v>21</v>
+        <v>417</v>
       </c>
       <c r="B420" t="s">
-        <v>22</v>
+        <v>418</v>
       </c>
       <c r="C420">
-        <v>51.538611111000002</v>
+        <v>40.332217</v>
       </c>
       <c r="D420">
-        <v>-1.6388888000000001E-2</v>
+        <v>49.817664000000001</v>
       </c>
     </row>
     <row r="421" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A421" t="s">
-        <v>131</v>
+        <v>420</v>
       </c>
       <c r="B421" t="s">
-        <v>132</v>
+        <v>807</v>
       </c>
       <c r="C421">
-        <v>51.542777999999998</v>
+        <v>40.410986000000001</v>
       </c>
       <c r="D421">
-        <v>5.0669440000000003</v>
+        <v>49.897711000000001</v>
       </c>
     </row>
     <row r="422" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A422" t="s">
-        <v>145</v>
+        <v>411</v>
       </c>
       <c r="B422" t="s">
-        <v>146</v>
+        <v>807</v>
       </c>
       <c r="C422">
-        <v>46.825299999999999</v>
+        <v>40.410986000000001</v>
       </c>
       <c r="D422">
-        <v>14.8514</v>
+        <v>49.897711000000001</v>
       </c>
     </row>
     <row r="423" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A423" t="s">
-        <v>19</v>
+        <v>415</v>
       </c>
       <c r="B423" t="s">
-        <v>20</v>
+        <v>416</v>
       </c>
       <c r="C423">
-        <v>52.590277776999997</v>
+        <v>40.400162999999999</v>
       </c>
       <c r="D423">
-        <v>-2.1302777769999999</v>
+        <v>49.944018999999997</v>
       </c>
     </row>
     <row r="424" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A424" t="s">
-        <v>353</v>
+        <v>419</v>
       </c>
       <c r="B424" t="s">
-        <v>354</v>
+        <v>808</v>
       </c>
       <c r="C424">
-        <v>38.352178000000002</v>
+        <v>40.421199999999999</v>
       </c>
       <c r="D424">
-        <v>38.330494000000002</v>
+        <v>49.9968</v>
       </c>
     </row>
     <row r="425" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A425" t="s">
-        <v>746</v>
+        <v>413</v>
       </c>
       <c r="B425" t="s">
-        <v>747</v>
+        <v>414</v>
       </c>
       <c r="C425">
-        <v>42.328611000000002</v>
+        <v>40.358919999999998</v>
       </c>
       <c r="D425">
-        <v>19.240556000000002</v>
+        <v>50.293109999999999</v>
       </c>
     </row>
     <row r="426" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A426" t="s">
-        <v>415</v>
+        <v>172</v>
       </c>
       <c r="B426" t="s">
-        <v>416</v>
+        <v>173</v>
       </c>
       <c r="C426">
-        <v>40.358919999999998</v>
+        <v>54.825899999999997</v>
       </c>
       <c r="D426">
-        <v>50.293109999999999</v>
+        <v>56.061399999999999</v>
       </c>
     </row>
     <row r="427" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A427" t="s">
-        <v>452</v>
+        <v>462</v>
+      </c>
+      <c r="B427" t="s">
+        <v>775</v>
+      </c>
+      <c r="C427">
+        <v>53.225974000000001</v>
+      </c>
+      <c r="D427">
+        <v>63.636578</v>
       </c>
     </row>
     <row r="428" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A428" t="s">
-        <v>675</v>
+        <v>461</v>
+      </c>
+      <c r="B428" s="4" t="s">
+        <v>767</v>
+      </c>
+      <c r="C428" s="4">
+        <v>42.335493</v>
+      </c>
+      <c r="D428" s="4">
+        <v>69.593568000000005</v>
       </c>
     </row>
     <row r="429" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A429" t="s">
-        <v>106</v>
-      </c>
-      <c r="B429" t="s">
-        <v>815</v>
-      </c>
-      <c r="C429">
-        <v>32.645561000000001</v>
-      </c>
-      <c r="D429">
-        <v>-16.928331</v>
+        <v>455</v>
+      </c>
+      <c r="B429" s="4" t="s">
+        <v>456</v>
+      </c>
+      <c r="C429" s="4">
+        <v>51.108055999999998</v>
+      </c>
+      <c r="D429" s="4">
+        <v>71.401667000000003</v>
       </c>
     </row>
     <row r="430" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A430" t="s">
-        <v>456</v>
+        <v>459</v>
+      </c>
+      <c r="B430" t="s">
+        <v>460</v>
+      </c>
+      <c r="C430">
+        <v>49.818618000000001</v>
+      </c>
+      <c r="D430">
+        <v>73.075121999999993</v>
       </c>
     </row>
     <row r="431" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A431" t="s">
-        <v>388</v>
+        <v>463</v>
+      </c>
+      <c r="B431" t="s">
+        <v>464</v>
+      </c>
+      <c r="C431">
+        <v>43.238331000000002</v>
+      </c>
+      <c r="D431">
+        <v>76.924350000000004</v>
       </c>
     </row>
     <row r="432" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A432" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="433" spans="1:4" x14ac:dyDescent="0.3">
+        <v>457</v>
+      </c>
+      <c r="B432" t="s">
+        <v>458</v>
+      </c>
+      <c r="C432">
+        <v>52.276383000000003</v>
+      </c>
+      <c r="D432">
+        <v>76.949712000000005</v>
+      </c>
+    </row>
+    <row r="433" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A433" t="s">
-        <v>554</v>
-      </c>
-      <c r="B433" t="s">
-        <v>819</v>
-      </c>
-      <c r="C433">
-        <v>66.499700000000004</v>
-      </c>
-      <c r="D433">
-        <v>25.721699999999998</v>
-      </c>
-    </row>
-    <row r="434" spans="1:4" x14ac:dyDescent="0.3">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="434" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A434" t="s">
-        <v>261</v>
-      </c>
-      <c r="B434" t="s">
-        <v>818</v>
-      </c>
-      <c r="C434">
-        <v>35.336666665999999</v>
-      </c>
-      <c r="D434">
-        <v>25.106111111000001</v>
-      </c>
-    </row>
-    <row r="435" spans="1:4" x14ac:dyDescent="0.3">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="435" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A435" t="s">
-        <v>447</v>
-      </c>
-      <c r="B435" t="s">
-        <v>817</v>
-      </c>
-      <c r="C435">
-        <v>50.058056000000001</v>
-      </c>
-      <c r="D435">
-        <v>19.919722</v>
-      </c>
-    </row>
-    <row r="436" spans="1:4" x14ac:dyDescent="0.3">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="436" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A436" t="s">
-        <v>544</v>
-      </c>
-      <c r="B436" t="s">
-        <v>820</v>
-      </c>
-      <c r="C436">
-        <v>62.778469444000002</v>
-      </c>
-      <c r="D436">
-        <v>22.815588888000001</v>
-      </c>
-    </row>
-    <row r="437" spans="1:4" x14ac:dyDescent="0.3">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="437" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A437" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="438" spans="1:4" x14ac:dyDescent="0.3">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="438" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A438" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="439" spans="1:4" x14ac:dyDescent="0.3">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="439" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A439" t="s">
-        <v>553</v>
-      </c>
-      <c r="B439" t="s">
-        <v>816</v>
-      </c>
-      <c r="C439">
-        <v>60.186893980000001</v>
-      </c>
-      <c r="D439">
-        <v>24.926062420000001</v>
-      </c>
-    </row>
-    <row r="440" spans="1:4" x14ac:dyDescent="0.3">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="440" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A440" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D441">
+    <sortCondition ref="D2:D441"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>

--- a/Data/coordinates_clubs.xlsx
+++ b/Data/coordinates_clubs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/60387dca0f89eeaf/Fussballdaten/uefa_ranking/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="31" documentId="8_{F0F012FD-7D2A-45DE-98FC-5A5C236FAB14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{974B4357-45BD-49D0-9EF2-7120D2D7DDF7}"/>
+  <xr:revisionPtr revIDLastSave="46" documentId="8_{F0F012FD-7D2A-45DE-98FC-5A5C236FAB14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{69682E92-D870-450C-84AB-BF0D94D3ADD2}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{013C904B-35F7-493B-A774-186F160190EF}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="874" uniqueCount="827">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="917" uniqueCount="865">
   <si>
     <t>team</t>
   </si>
@@ -2516,6 +2516,120 @@
   </si>
   <si>
     <t>Cegeka Arena</t>
+  </si>
+  <si>
+    <t>SC Dnipro-1</t>
+  </si>
+  <si>
+    <t>Silkeborg IF</t>
+  </si>
+  <si>
+    <t>Viborg FF</t>
+  </si>
+  <si>
+    <t>Aris Limassol</t>
+  </si>
+  <si>
+    <t>Atlètic Club d'Escaldes</t>
+  </si>
+  <si>
+    <t>Dundee United</t>
+  </si>
+  <si>
+    <t>Gil Vicente</t>
+  </si>
+  <si>
+    <t>Maccabi Netanya</t>
+  </si>
+  <si>
+    <t>Dinamo Kyiv</t>
+  </si>
+  <si>
+    <t>FC Gomel</t>
+  </si>
+  <si>
+    <t>FC Nantes</t>
+  </si>
+  <si>
+    <t>FK Kyzylzhar</t>
+  </si>
+  <si>
+    <t>Hamrun Spartans</t>
+  </si>
+  <si>
+    <t>NK Koper</t>
+  </si>
+  <si>
+    <t>FCB Magpies</t>
+  </si>
+  <si>
+    <t>Fiorentina</t>
+  </si>
+  <si>
+    <t>Tuzla City</t>
+  </si>
+  <si>
+    <t>FC Ballkani</t>
+  </si>
+  <si>
+    <t>Dnipro Arena</t>
+  </si>
+  <si>
+    <t>Silkeborg Stadion</t>
+  </si>
+  <si>
+    <t>Evergi Viborg Arena</t>
+  </si>
+  <si>
+    <t>Tannadice Park</t>
+  </si>
+  <si>
+    <t>Estádio Cidade de Barcelos</t>
+  </si>
+  <si>
+    <t>Netanya Stadium</t>
+  </si>
+  <si>
+    <t>Stade de la Beaujoire</t>
+  </si>
+  <si>
+    <t>Avangard Stadium</t>
+  </si>
+  <si>
+    <t>Victor Tedesco Stadium</t>
+  </si>
+  <si>
+    <t>Bonifika Stadium</t>
+  </si>
+  <si>
+    <t>Stadio Artemio Franchi (Florence)</t>
+  </si>
+  <si>
+    <t>Tušanj City Stadium</t>
+  </si>
+  <si>
+    <t>Balkanabat Stadium</t>
+  </si>
+  <si>
+    <t>Hearts FC</t>
+  </si>
+  <si>
+    <t>Kisvárda FC</t>
+  </si>
+  <si>
+    <t>Union Saint-Gilloise</t>
+  </si>
+  <si>
+    <t>Stade Joseph Marien - Joseph Marienstadion</t>
+  </si>
+  <si>
+    <t>FC Twente Enschede</t>
+  </si>
+  <si>
+    <t>Tynecastle Park</t>
+  </si>
+  <si>
+    <t>De Grolsch Veste</t>
   </si>
 </sst>
 </file>
@@ -2909,10 +3023,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87FE9C0E-1B2A-4A6D-B2F5-2B6836317F9F}">
-  <dimension ref="A1:D440"/>
+  <dimension ref="A1:D462"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A356" workbookViewId="0">
-      <selection activeCell="B442" sqref="B442"/>
+    <sheetView tabSelected="1" topLeftCell="A338" workbookViewId="0">
+      <selection activeCell="E434" sqref="E434"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8970,44 +9084,343 @@
         <v>76.949712000000005</v>
       </c>
     </row>
-    <row r="433" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A433" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="434" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A434" t="s">
         <v>673</v>
       </c>
     </row>
-    <row r="435" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A435" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="436" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A436" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="437" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A437" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="438" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A438" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="439" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A439" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="440" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A440" t="s">
         <v>314</v>
+      </c>
+    </row>
+    <row r="441" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A441" t="s">
+        <v>827</v>
+      </c>
+      <c r="B441" t="s">
+        <v>845</v>
+      </c>
+      <c r="C441">
+        <v>48.460332999999999</v>
+      </c>
+      <c r="D441">
+        <v>35.032471999999999</v>
+      </c>
+    </row>
+    <row r="442" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A442" t="s">
+        <v>828</v>
+      </c>
+      <c r="B442" t="s">
+        <v>846</v>
+      </c>
+      <c r="C442">
+        <v>56.157777780000004</v>
+      </c>
+      <c r="D442">
+        <v>9.5530555600000007</v>
+      </c>
+    </row>
+    <row r="443" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A443" t="s">
+        <v>829</v>
+      </c>
+      <c r="B443" t="s">
+        <v>847</v>
+      </c>
+      <c r="C443">
+        <v>56.455897</v>
+      </c>
+      <c r="D443">
+        <v>9.4020639999999993</v>
+      </c>
+    </row>
+    <row r="444" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A444" t="s">
+        <v>830</v>
+      </c>
+      <c r="B444" t="s">
+        <v>284</v>
+      </c>
+      <c r="C444">
+        <v>34.700913999999997</v>
+      </c>
+      <c r="D444">
+        <v>33.022975000000002</v>
+      </c>
+    </row>
+    <row r="445" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A445" t="s">
+        <v>831</v>
+      </c>
+      <c r="B445" t="s">
+        <v>756</v>
+      </c>
+      <c r="C445">
+        <v>42.476388999999998</v>
+      </c>
+      <c r="D445">
+        <v>1.4876670000000001</v>
+      </c>
+    </row>
+    <row r="446" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A446" t="s">
+        <v>832</v>
+      </c>
+      <c r="B446" t="s">
+        <v>848</v>
+      </c>
+      <c r="C446">
+        <v>56.474702999999998</v>
+      </c>
+      <c r="D446">
+        <v>-2.9689610000000002</v>
+      </c>
+    </row>
+    <row r="447" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A447" t="s">
+        <v>833</v>
+      </c>
+      <c r="B447" t="s">
+        <v>849</v>
+      </c>
+      <c r="C447">
+        <v>41.533888888</v>
+      </c>
+      <c r="D447">
+        <v>-8.6111111109999996</v>
+      </c>
+    </row>
+    <row r="448" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A448" t="s">
+        <v>834</v>
+      </c>
+      <c r="B448" t="s">
+        <v>850</v>
+      </c>
+      <c r="C448">
+        <v>32.294396999999996</v>
+      </c>
+      <c r="D448">
+        <v>34.864432999999998</v>
+      </c>
+    </row>
+    <row r="449" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A449" t="s">
+        <v>835</v>
+      </c>
+      <c r="B449" t="s">
+        <v>213</v>
+      </c>
+      <c r="C449">
+        <v>50.433333333</v>
+      </c>
+      <c r="D449">
+        <v>30.521666666000002</v>
+      </c>
+    </row>
+    <row r="450" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A450" t="s">
+        <v>836</v>
+      </c>
+      <c r="B450" t="s">
+        <v>167</v>
+      </c>
+      <c r="C450">
+        <v>52.436527777000002</v>
+      </c>
+      <c r="D450">
+        <v>31.012361111000001</v>
+      </c>
+    </row>
+    <row r="451" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A451" t="s">
+        <v>837</v>
+      </c>
+      <c r="B451" t="s">
+        <v>851</v>
+      </c>
+      <c r="C451">
+        <v>47.255555999999999</v>
+      </c>
+      <c r="D451">
+        <v>-1.5252779999999999</v>
+      </c>
+    </row>
+    <row r="452" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A452" t="s">
+        <v>838</v>
+      </c>
+      <c r="B452" t="s">
+        <v>852</v>
+      </c>
+      <c r="C452">
+        <v>54.874085000000001</v>
+      </c>
+      <c r="D452">
+        <v>69.152073999999999</v>
+      </c>
+    </row>
+    <row r="453" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A453" t="s">
+        <v>839</v>
+      </c>
+      <c r="B453" t="s">
+        <v>853</v>
+      </c>
+      <c r="C453">
+        <v>35.887300000000003</v>
+      </c>
+      <c r="D453">
+        <v>14.4925</v>
+      </c>
+    </row>
+    <row r="454" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A454" t="s">
+        <v>840</v>
+      </c>
+      <c r="B454" t="s">
+        <v>854</v>
+      </c>
+      <c r="C454">
+        <v>45.542355999999998</v>
+      </c>
+      <c r="D454">
+        <v>13.730453000000001</v>
+      </c>
+    </row>
+    <row r="455" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A455" t="s">
+        <v>841</v>
+      </c>
+      <c r="B455" t="s">
+        <v>727</v>
+      </c>
+      <c r="C455">
+        <v>36.149355999999997</v>
+      </c>
+      <c r="D455">
+        <v>-5.3503420000000004</v>
+      </c>
+    </row>
+    <row r="456" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A456" t="s">
+        <v>842</v>
+      </c>
+      <c r="B456" t="s">
+        <v>855</v>
+      </c>
+      <c r="C456">
+        <v>43.780822000000001</v>
+      </c>
+      <c r="D456">
+        <v>11.282258000000001</v>
+      </c>
+    </row>
+    <row r="457" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A457" t="s">
+        <v>843</v>
+      </c>
+      <c r="B457" t="s">
+        <v>856</v>
+      </c>
+      <c r="C457">
+        <v>44.541719999999998</v>
+      </c>
+      <c r="D457">
+        <v>18.661528000000001</v>
+      </c>
+    </row>
+    <row r="458" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A458" t="s">
+        <v>844</v>
+      </c>
+      <c r="B458" t="s">
+        <v>857</v>
+      </c>
+      <c r="C458">
+        <v>39.511944</v>
+      </c>
+      <c r="D458">
+        <v>54.365000000000002</v>
+      </c>
+    </row>
+    <row r="459" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A459" t="s">
+        <v>858</v>
+      </c>
+      <c r="B459" t="s">
+        <v>863</v>
+      </c>
+      <c r="C459">
+        <v>55.939166999999998</v>
+      </c>
+      <c r="D459">
+        <v>-3.2322220000000002</v>
+      </c>
+    </row>
+    <row r="460" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A460" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="461" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A461" t="s">
+        <v>860</v>
+      </c>
+      <c r="B461" t="s">
+        <v>861</v>
+      </c>
+      <c r="C461">
+        <v>50.817799999999998</v>
+      </c>
+      <c r="D461">
+        <v>4.3291700000000004</v>
+      </c>
+    </row>
+    <row r="462" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A462" t="s">
+        <v>862</v>
+      </c>
+      <c r="B462" t="s">
+        <v>864</v>
+      </c>
+      <c r="C462">
+        <v>52.236666665999998</v>
+      </c>
+      <c r="D462">
+        <v>6.8375000000000004</v>
       </c>
     </row>
   </sheetData>
